--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -223,8 +223,179 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>QQ Factory</author>
+  </authors>
+  <commentList>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+71210
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+12 566
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+23 800 - 2520
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+4200 - 445
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Przesunięte z 4420 60 zł, 4210 20 zł
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Przesunięte z 4420 60 zł, 4210 20 zł</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -878,6 +1049,30 @@
   <si>
     <t>Spotkanie międzynarodwe Alytus</t>
   </si>
+  <si>
+    <t>UE / 4438</t>
+  </si>
+  <si>
+    <t>BU / 4439</t>
+  </si>
+  <si>
+    <t>Różne opłaty i składki 4430</t>
+  </si>
+  <si>
+    <t>Uwzględnic koszty kateringu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uwzględnić Koszty przelotów z pierwszej połowy </t>
+  </si>
+  <si>
+    <t>Uwzględnić Koszty ubezpieczenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwrocić 20 na paragraf kosztów administracyjnych </t>
+  </si>
+  <si>
+    <t>Przenieść jakąś kwotę na koszty ubezpieczenia</t>
+  </si>
 </sst>
 </file>
 
@@ -892,7 +1087,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ &quot;zł&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0\ _z_ł"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1296,6 +1491,23 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1878,7 +2090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2333,24 +2545,6 @@
     <xf numFmtId="0" fontId="37" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2401,186 +2595,11 @@
     <xf numFmtId="0" fontId="38" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2635,12 +2654,6 @@
     <xf numFmtId="4" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2660,9 +2673,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2713,15 +2723,202 @@
     <xf numFmtId="1" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2732,9 +2929,42 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="53" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3011,11 +3241,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3130,11 +3360,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="247"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3187,12 +3417,12 @@
     </row>
     <row r="7" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="206"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3308,7 +3538,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="238" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3343,7 +3573,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="195"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3376,7 +3606,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="240"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3409,7 +3639,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="238" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3444,7 +3674,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="195"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3707,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="196"/>
+      <c r="A16" s="240"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3740,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="238" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3545,7 +3775,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="196"/>
+      <c r="A18" s="240"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -3578,7 +3808,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="238" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3613,7 +3843,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
+      <c r="A20" s="239"/>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -3646,7 +3876,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="195"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -3679,7 +3909,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="195"/>
+      <c r="A22" s="239"/>
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -3712,7 +3942,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="195"/>
+      <c r="A23" s="239"/>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
@@ -3745,7 +3975,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
+      <c r="A24" s="239"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -3778,7 +4008,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="196"/>
+      <c r="A25" s="240"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
@@ -3811,7 +4041,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="238" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3846,7 +4076,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="196"/>
+      <c r="A27" s="240"/>
       <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
@@ -3879,10 +4109,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="197" t="s">
+      <c r="A28" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="198"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="16" t="e">
         <f>C13+C16+C18+C25+C27</f>
         <v>#REF!</v>
@@ -4010,7 +4240,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="194" t="s">
+      <c r="A32" s="238" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -4054,7 +4284,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="195"/>
+      <c r="A33" s="239"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -4094,7 +4324,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="196"/>
+      <c r="A34" s="240"/>
       <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
@@ -4136,7 +4366,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="194" t="s">
+      <c r="A35" s="238" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4180,7 +4410,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="195"/>
+      <c r="A36" s="239"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -4222,7 +4452,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="196"/>
+      <c r="A37" s="240"/>
       <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
@@ -4264,7 +4494,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="194" t="s">
+      <c r="A38" s="238" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -4308,7 +4538,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="196"/>
+      <c r="A39" s="240"/>
       <c r="B39" s="15" t="s">
         <v>19</v>
       </c>
@@ -4350,7 +4580,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="238" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -4394,7 +4624,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
@@ -4436,7 +4666,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="195"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
@@ -4478,7 +4708,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="195"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
@@ -4520,7 +4750,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="195"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
@@ -4562,7 +4792,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="195"/>
+      <c r="A45" s="239"/>
       <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
@@ -4604,7 +4834,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="196"/>
+      <c r="A46" s="240"/>
       <c r="B46" s="15" t="s">
         <v>27</v>
       </c>
@@ -4646,7 +4876,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="238" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -4690,7 +4920,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
+      <c r="A48" s="240"/>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
@@ -4732,10 +4962,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="197" t="s">
+      <c r="A49" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="198"/>
+      <c r="B49" s="242"/>
       <c r="C49" s="16" t="e">
         <f t="shared" ref="C49:F49" si="13">C34+C37+C39+C46+C48</f>
         <v>#REF!</v>
@@ -31444,7 +31674,7 @@
   <dimension ref="A1:I1024"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:E94"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31501,7 +31731,7 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="238" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -31512,7 +31742,7 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -31523,7 +31753,7 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -31535,7 +31765,7 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="238" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -31546,7 +31776,7 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="195"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -31558,7 +31788,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
+      <c r="A11" s="240"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -31570,7 +31800,7 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="238" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -31583,7 +31813,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="240"/>
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -31595,7 +31825,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="238" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -31606,7 +31836,7 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="195"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
@@ -31617,7 +31847,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
+      <c r="A16" s="239"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -31628,7 +31858,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="195"/>
+      <c r="A17" s="239"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -31639,7 +31869,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="195"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -31650,7 +31880,7 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
+      <c r="A19" s="239"/>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
@@ -31661,7 +31891,7 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="196"/>
+      <c r="A20" s="240"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -31673,7 +31903,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="194" t="s">
+      <c r="A21" s="238" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -31686,7 +31916,7 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="196"/>
+      <c r="A22" s="240"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
@@ -31698,10 +31928,10 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="198"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="16">
         <f>C8+C11+C13+C20+C22</f>
         <v>70083.78</v>
@@ -31749,7 +31979,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="238" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -31762,7 +31992,7 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="195"/>
+      <c r="A28" s="239"/>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
@@ -31783,7 +32013,7 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
+      <c r="A29" s="240"/>
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -31806,7 +32036,7 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="194" t="s">
+      <c r="A30" s="238" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -31819,7 +32049,7 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195"/>
+      <c r="A31" s="239"/>
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -31842,7 +32072,7 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="196"/>
+      <c r="A32" s="240"/>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -31865,7 +32095,7 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="238" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -31888,7 +32118,7 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="196"/>
+      <c r="A34" s="240"/>
       <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
@@ -31911,7 +32141,7 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="194" t="s">
+      <c r="A35" s="238" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -31924,7 +32154,7 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="195"/>
+      <c r="A36" s="239"/>
       <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
@@ -31945,7 +32175,7 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="195"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
@@ -31966,7 +32196,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="195"/>
+      <c r="A38" s="239"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -31987,7 +32217,7 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="195"/>
+      <c r="A39" s="239"/>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
@@ -32008,7 +32238,7 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="195"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -32029,7 +32259,7 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="196"/>
+      <c r="A41" s="240"/>
       <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
@@ -32052,7 +32282,7 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="194" t="s">
+      <c r="A42" s="238" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -32074,7 +32304,7 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="196"/>
+      <c r="A43" s="240"/>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
@@ -32096,10 +32326,10 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="197" t="s">
+      <c r="A44" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="198"/>
+      <c r="B44" s="242"/>
       <c r="C44" s="16">
         <f t="shared" ref="C44:F44" si="9">C29+C32+C34+C41+C43</f>
         <v>70083.78</v>
@@ -32161,7 +32391,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="209" t="s">
+      <c r="A49" s="258" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -32187,7 +32417,7 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="210"/>
+      <c r="A50" s="254"/>
       <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
@@ -32211,7 +32441,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="209" t="s">
+      <c r="A51" s="258" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -32237,7 +32467,7 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="210"/>
+      <c r="A52" s="254"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -32261,7 +32491,7 @@
       <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="211" t="s">
+      <c r="A53" s="255" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -32287,7 +32517,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="212"/>
+      <c r="A54" s="259"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -32311,7 +32541,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="209" t="s">
+      <c r="A55" s="258" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -32337,7 +32567,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="213"/>
+      <c r="A56" s="253"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -32361,7 +32591,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="213"/>
+      <c r="A57" s="253"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -32385,7 +32615,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="213"/>
+      <c r="A58" s="253"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -32409,7 +32639,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="213"/>
+      <c r="A59" s="253"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -32433,7 +32663,7 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="210"/>
+      <c r="A60" s="254"/>
       <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
@@ -32457,7 +32687,7 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="211" t="s">
+      <c r="A61" s="255" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -32480,7 +32710,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="212"/>
+      <c r="A62" s="259"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -32504,10 +32734,10 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="207" t="s">
+      <c r="A63" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="208"/>
+      <c r="B63" s="257"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -32565,7 +32795,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="213" t="s">
+      <c r="A68" s="253" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -32587,7 +32817,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="213"/>
+      <c r="A69" s="253"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -32604,7 +32834,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="213"/>
+      <c r="A70" s="253"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -32632,7 +32862,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="213"/>
+      <c r="A71" s="253"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -32664,7 +32894,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="213"/>
+      <c r="A72" s="253"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -32689,7 +32919,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="213"/>
+      <c r="A73" s="253"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -32723,7 +32953,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="213"/>
+      <c r="A74" s="253"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -32743,7 +32973,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="213"/>
+      <c r="A75" s="253"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -32764,7 +32994,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="213"/>
+      <c r="A76" s="253"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -32784,7 +33014,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="213"/>
+      <c r="A77" s="253"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -32804,7 +33034,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="213"/>
+      <c r="A78" s="253"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -32822,7 +33052,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="210"/>
+      <c r="A79" s="254"/>
       <c r="B79" s="40" t="s">
         <v>47</v>
       </c>
@@ -32890,7 +33120,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="213" t="s">
+      <c r="A83" s="253" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -32912,7 +33142,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="213"/>
+      <c r="A84" s="253"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -32930,7 +33160,7 @@
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="210"/>
+      <c r="A85" s="254"/>
       <c r="B85" s="15" t="s">
         <v>50</v>
       </c>
@@ -32950,7 +33180,7 @@
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="211" t="s">
+      <c r="A86" s="255" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -32972,7 +33202,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="215"/>
+      <c r="A87" s="256"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -32992,7 +33222,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="215"/>
+      <c r="A88" s="256"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -33012,7 +33242,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="215"/>
+      <c r="A89" s="256"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -33030,7 +33260,7 @@
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="210"/>
+      <c r="A90" s="254"/>
       <c r="B90" s="15" t="s">
         <v>53</v>
       </c>
@@ -33050,7 +33280,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="213" t="s">
+      <c r="A91" s="253" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -33072,7 +33302,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="213"/>
+      <c r="A92" s="253"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -33092,7 +33322,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="213"/>
+      <c r="A93" s="253"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -33112,7 +33342,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="213"/>
+      <c r="A94" s="253"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -33132,7 +33362,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="213"/>
+      <c r="A95" s="253"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -33152,7 +33382,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="213"/>
+      <c r="A96" s="253"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -33171,7 +33401,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="213"/>
+      <c r="A97" s="253"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -33190,7 +33420,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="213"/>
+      <c r="A98" s="253"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -33207,7 +33437,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="213"/>
+      <c r="A99" s="253"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -33224,7 +33454,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="213"/>
+      <c r="A100" s="253"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -33243,7 +33473,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="213"/>
+      <c r="A101" s="253"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -33262,7 +33492,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="213"/>
+      <c r="A102" s="253"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -33280,7 +33510,7 @@
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="210"/>
+      <c r="A103" s="254"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -33300,7 +33530,7 @@
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="211" t="s">
+      <c r="A104" s="255" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -33322,7 +33552,7 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="210"/>
+      <c r="A105" s="254"/>
       <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
@@ -33342,10 +33572,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="207" t="s">
+      <c r="A106" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="214"/>
+      <c r="B106" s="252"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -37035,18 +37265,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -37054,11 +37277,18 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37079,7 +37309,7 @@
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37110,7 +37340,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="253" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -37127,7 +37357,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="213"/>
+      <c r="A4" s="253"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -37142,7 +37372,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="213"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -37157,7 +37387,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="213"/>
+      <c r="A6" s="253"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -37172,7 +37402,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="213"/>
+      <c r="A7" s="253"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -37187,7 +37417,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
+      <c r="A8" s="253"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -37202,7 +37432,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
+      <c r="A9" s="253"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -37217,7 +37447,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="213"/>
+      <c r="A10" s="253"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -37232,7 +37462,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="213"/>
+      <c r="A11" s="253"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -37247,7 +37477,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="213"/>
+      <c r="A12" s="253"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -37263,7 +37493,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="213"/>
+      <c r="A13" s="253"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -37277,7 +37507,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="210"/>
+      <c r="A14" s="254"/>
       <c r="B14" s="110" t="s">
         <v>47</v>
       </c>
@@ -37332,7 +37562,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="253" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -37350,7 +37580,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="213"/>
+      <c r="A19" s="253"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -37364,7 +37594,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="210"/>
+      <c r="A20" s="254"/>
       <c r="B20" s="111" t="s">
         <v>50</v>
       </c>
@@ -37380,7 +37610,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="255" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -37398,7 +37628,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
+      <c r="A22" s="256"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -37414,7 +37644,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
+      <c r="A23" s="256"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -37430,7 +37660,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
+      <c r="A24" s="256"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -37444,7 +37674,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="210"/>
+      <c r="A25" s="254"/>
       <c r="B25" s="111" t="s">
         <v>53</v>
       </c>
@@ -37460,7 +37690,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="253" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -37478,7 +37708,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213"/>
+      <c r="A27" s="253"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -37494,7 +37724,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="213"/>
+      <c r="A28" s="253"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -37510,7 +37740,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="213"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -37526,7 +37756,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="213"/>
+      <c r="A30" s="253"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -37542,7 +37772,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="213"/>
+      <c r="A31" s="253"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -37558,7 +37788,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="213"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -37574,7 +37804,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="213"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -37590,7 +37820,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="213"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -37606,7 +37836,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="213"/>
+      <c r="A35" s="253"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -37622,7 +37852,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -37638,7 +37868,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
+      <c r="A37" s="253"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -37652,7 +37882,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="210"/>
+      <c r="A38" s="254"/>
       <c r="B38" s="111" t="s">
         <v>70</v>
       </c>
@@ -37668,7 +37898,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="211" t="s">
+      <c r="A39" s="255" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -37686,7 +37916,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="210"/>
+      <c r="A40" s="254"/>
       <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
@@ -37702,10 +37932,10 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="214"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -37732,11 +37962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37783,165 +38013,165 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="262" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="182" t="s">
+      <c r="D2" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="183">
+      <c r="E2" s="177">
         <v>74149.614000000001</v>
       </c>
-      <c r="F2" s="183">
+      <c r="F2" s="177">
         <v>27318.149999999998</v>
       </c>
-      <c r="G2" s="183">
+      <c r="G2" s="177">
         <v>2662</v>
       </c>
-      <c r="H2" s="183">
+      <c r="H2" s="177">
         <v>46831.6</v>
       </c>
-      <c r="I2" s="183">
+      <c r="I2" s="177">
         <f>H2+G2</f>
         <v>49493.599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="235"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="182" t="s">
+      <c r="A3" s="269"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="183">
+      <c r="E3" s="177">
         <v>13086</v>
       </c>
-      <c r="F3" s="183">
+      <c r="F3" s="177">
         <v>4820.8499999999995</v>
       </c>
-      <c r="G3" s="183">
+      <c r="G3" s="177">
         <v>470</v>
       </c>
-      <c r="H3" s="183">
+      <c r="H3" s="177">
         <v>8265</v>
       </c>
-      <c r="I3" s="183">
-        <f t="shared" ref="I3:I31" si="0">H3+G3</f>
+      <c r="I3" s="177">
+        <f t="shared" ref="I3:I33" si="0">H3+G3</f>
         <v>8735</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="235"/>
-      <c r="B4" s="223" t="s">
+      <c r="A4" s="269"/>
+      <c r="B4" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="223" t="s">
+      <c r="C4" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="183">
+      <c r="E4" s="177">
         <v>12746.3195</v>
       </c>
-      <c r="F4" s="183">
+      <c r="F4" s="177">
         <v>4696.25</v>
       </c>
-      <c r="G4" s="183">
+      <c r="G4" s="177">
         <v>501</v>
       </c>
-      <c r="H4" s="183">
+      <c r="H4" s="177">
         <v>8050.3499999999995</v>
       </c>
-      <c r="I4" s="183">
+      <c r="I4" s="177">
         <f t="shared" si="0"/>
         <v>8551.3499999999985</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
-      <c r="B5" s="224"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="182" t="s">
+      <c r="A5" s="269"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="183">
+      <c r="E5" s="177">
         <v>2249.3505</v>
       </c>
-      <c r="F5" s="183">
+      <c r="F5" s="177">
         <v>828.75</v>
       </c>
-      <c r="G5" s="183">
+      <c r="G5" s="177">
         <v>89</v>
       </c>
-      <c r="H5" s="183">
+      <c r="H5" s="177">
         <v>1420.6499999999999</v>
       </c>
-      <c r="I5" s="183">
+      <c r="I5" s="177">
         <f t="shared" si="0"/>
         <v>1509.6499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="235"/>
-      <c r="B6" s="223" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="183">
+      <c r="E6" s="177">
         <v>1816.6624999999999</v>
       </c>
-      <c r="F6" s="183">
+      <c r="F6" s="177">
         <v>668.94999999999993</v>
       </c>
-      <c r="G6" s="183">
+      <c r="G6" s="177">
         <v>71</v>
       </c>
-      <c r="H6" s="183">
+      <c r="H6" s="177">
         <v>1146.6499999999999</v>
       </c>
-      <c r="I6" s="183">
+      <c r="I6" s="177">
         <f t="shared" si="0"/>
         <v>1217.6499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="235"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="182" t="s">
+      <c r="A7" s="269"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="183">
+      <c r="E7" s="177">
         <v>320.58749999999998</v>
       </c>
-      <c r="F7" s="183">
+      <c r="F7" s="177">
         <v>118.05</v>
       </c>
       <c r="G7" s="161">
         <v>13</v>
       </c>
-      <c r="H7" s="183">
+      <c r="H7" s="177">
         <v>202.35</v>
       </c>
-      <c r="I7" s="183">
+      <c r="I7" s="177">
         <f t="shared" si="0"/>
         <v>215.35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="236"/>
+      <c r="A8" s="270"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -37964,61 +38194,61 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="237" t="s">
+      <c r="A9" s="271" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="223" t="s">
+      <c r="B9" s="262" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="248" t="s">
+      <c r="C9" s="260" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="186">
+      <c r="E9" s="180">
         <v>2661.37788</v>
       </c>
-      <c r="F9" s="186">
+      <c r="F9" s="180">
         <v>980.50763999999992</v>
       </c>
       <c r="G9" s="161">
         <v>981</v>
       </c>
-      <c r="H9" s="186">
+      <c r="H9" s="180">
         <v>1680.8702399999997</v>
       </c>
-      <c r="I9" s="186">
+      <c r="I9" s="180">
         <f t="shared" si="0"/>
         <v>2661.8702399999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="187" t="s">
+      <c r="A10" s="272"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="188">
+      <c r="E10" s="182">
         <v>469.65491999999995</v>
       </c>
-      <c r="F10" s="188">
+      <c r="F10" s="182">
         <v>173.03075999999999</v>
       </c>
       <c r="G10" s="161">
         <v>153</v>
       </c>
-      <c r="H10" s="186">
+      <c r="H10" s="180">
         <v>296.62415999999996</v>
       </c>
-      <c r="I10" s="186">
+      <c r="I10" s="180">
         <f t="shared" si="0"/>
         <v>449.62415999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="239"/>
+      <c r="A11" s="273"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -38038,559 +38268,631 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="240" t="s">
+      <c r="A12" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="246" t="s">
+      <c r="B12" s="280" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="282" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="183">
+      <c r="E12" s="177">
         <v>85775.2</v>
       </c>
-      <c r="F12" s="183">
+      <c r="F12" s="177">
         <v>14565.6</v>
       </c>
       <c r="G12" s="161">
         <v>7157</v>
       </c>
-      <c r="H12" s="183">
-        <v>48810</v>
-      </c>
-      <c r="I12" s="183">
+      <c r="H12" s="177">
+        <v>47410</v>
+      </c>
+      <c r="I12" s="177">
         <f t="shared" si="0"/>
-        <v>55967</v>
+        <v>54567</v>
       </c>
       <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="241"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="182" t="s">
+      <c r="A13" s="275"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="176" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="183">
+      <c r="E13" s="177">
         <v>15136.8</v>
       </c>
-      <c r="F13" s="183">
+      <c r="F13" s="177">
         <v>2570.4</v>
       </c>
       <c r="G13" s="161">
         <v>1203</v>
       </c>
-      <c r="H13" s="183">
-        <v>6966</v>
-      </c>
-      <c r="I13" s="183">
+      <c r="H13" s="177">
+        <v>8366</v>
+      </c>
+      <c r="I13" s="177">
         <f t="shared" si="0"/>
-        <v>8169</v>
+        <v>9569</v>
       </c>
       <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="241"/>
-      <c r="B14" s="227" t="s">
+      <c r="A14" s="275"/>
+      <c r="B14" s="266" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="182" t="s">
+      <c r="C14" s="283"/>
+      <c r="D14" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="183"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="161"/>
-      <c r="H14" s="183">
-        <v>24644</v>
-      </c>
-      <c r="I14" s="183">
+      <c r="H14" s="177">
+        <v>21280</v>
+      </c>
+      <c r="I14" s="177">
         <f t="shared" si="0"/>
-        <v>24644</v>
-      </c>
-      <c r="J14" s="177">
-        <v>-3007</v>
-      </c>
-      <c r="K14" s="117">
-        <v>2556</v>
+        <v>21280</v>
+      </c>
+      <c r="J14" s="171">
+        <v>-2520</v>
       </c>
       <c r="L14" s="163">
         <f>H14-K14</f>
-        <v>22088</v>
+        <v>21280</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="241"/>
-      <c r="B15" s="228"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="182" t="s">
+      <c r="A15" s="275"/>
+      <c r="B15" s="320"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="183"/>
+      <c r="F15" s="177"/>
       <c r="G15" s="161"/>
-      <c r="H15" s="183">
-        <v>4349</v>
-      </c>
-      <c r="I15" s="183">
-        <f t="shared" si="0"/>
-        <v>4349</v>
-      </c>
-      <c r="K15" s="117">
-        <v>451</v>
-      </c>
-      <c r="L15" s="163">
-        <f>H15-K15</f>
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="242"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154">
+      <c r="H15" s="177">
+        <v>3755</v>
+      </c>
+      <c r="I15" s="177">
+        <f>H15+G15</f>
+        <v>3755</v>
+      </c>
+      <c r="J15" s="171">
+        <v>-445</v>
+      </c>
+      <c r="L15" s="163"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="275"/>
+      <c r="B16" s="321" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="283"/>
+      <c r="D16" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="161">
+        <v>50</v>
+      </c>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="171"/>
+      <c r="L16" s="163"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="275"/>
+      <c r="B17" s="321"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176">
+        <v>30</v>
+      </c>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="L17" s="163">
+        <f>H15-K17</f>
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="276"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154">
         <v>100912</v>
       </c>
-      <c r="F16" s="155">
+      <c r="F18" s="155">
         <v>17136</v>
       </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="155">
+      <c r="G18" s="156"/>
+      <c r="H18" s="155">
         <f>SUM(H12:H15)</f>
-        <v>84769</v>
-      </c>
-      <c r="I16" s="155">
+        <v>80811</v>
+      </c>
+      <c r="I18" s="155">
         <f>SUM(I12:I15)</f>
-        <v>93129</v>
-      </c>
-      <c r="K16" s="117">
-        <f>SUM(K14:K15)</f>
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="243" t="s">
+        <v>89171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="277" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="223" t="s">
+      <c r="B19" s="262" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="225" t="s">
+      <c r="C19" s="289" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D19" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E19" s="125">
         <v>12138</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F19" s="162">
         <v>4046</v>
       </c>
-      <c r="G17" s="161">
+      <c r="G19" s="161">
         <v>4046</v>
       </c>
-      <c r="H17" s="162">
+      <c r="H19" s="162">
         <v>8092</v>
       </c>
-      <c r="I17" s="162">
+      <c r="I19" s="162">
         <f t="shared" si="0"/>
         <v>12138</v>
       </c>
-      <c r="J17" s="163"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="244"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="122" t="s">
+      <c r="J19" s="163"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="278"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="123">
+      <c r="E20" s="123">
         <v>2142</v>
       </c>
-      <c r="F18" s="127">
+      <c r="F20" s="127">
         <v>714</v>
       </c>
-      <c r="G18" s="124">
+      <c r="G20" s="124">
         <v>714</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H20" s="162">
         <v>1428</v>
       </c>
-      <c r="I18" s="162">
+      <c r="I20" s="162">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="244"/>
-      <c r="B19" s="223" t="s">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="278"/>
+      <c r="B21" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="227" t="s">
+      <c r="C21" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="182" t="s">
+      <c r="D21" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="183">
+      <c r="E21" s="177">
         <v>32368</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F21" s="162">
         <v>12138</v>
       </c>
-      <c r="G19" s="184">
+      <c r="G21" s="178">
         <v>12138</v>
       </c>
-      <c r="H19" s="162">
+      <c r="H21" s="162">
         <v>20230</v>
       </c>
-      <c r="I19" s="162">
+      <c r="I21" s="162">
         <f t="shared" si="0"/>
         <v>32368</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="244"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="182" t="s">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="278"/>
+      <c r="B22" s="293"/>
+      <c r="C22" s="267"/>
+      <c r="D22" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="183">
+      <c r="E22" s="177">
         <v>5712</v>
       </c>
-      <c r="F20" s="162">
+      <c r="F22" s="162">
         <v>2142</v>
       </c>
-      <c r="G20" s="161">
+      <c r="G22" s="161">
         <v>2142</v>
       </c>
-      <c r="H20" s="162">
+      <c r="H22" s="162">
         <v>3570</v>
       </c>
-      <c r="I20" s="162">
+      <c r="I22" s="162">
         <f t="shared" si="0"/>
         <v>5712</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="244"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="227" t="s">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="278"/>
+      <c r="B23" s="293"/>
+      <c r="C23" s="266" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="182" t="s">
+      <c r="D23" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="183">
+      <c r="E23" s="177">
         <v>23062</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F23" s="162">
         <v>8497</v>
       </c>
-      <c r="G21" s="161">
+      <c r="G23" s="161">
         <v>8497</v>
       </c>
-      <c r="H21" s="162">
+      <c r="H23" s="162">
         <v>14566</v>
       </c>
-      <c r="I21" s="162">
+      <c r="I23" s="162">
         <f t="shared" si="0"/>
         <v>23063</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="244"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="182" t="s">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="278"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="183">
+      <c r="E24" s="177">
         <v>4070</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F24" s="162">
         <v>1499</v>
       </c>
-      <c r="G22" s="185">
+      <c r="G24" s="179">
         <v>1499</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H24" s="162">
         <v>2570</v>
       </c>
-      <c r="I22" s="162">
+      <c r="I24" s="162">
         <f t="shared" si="0"/>
         <v>4069</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="244"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="227" t="s">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="278"/>
+      <c r="B25" s="293"/>
+      <c r="C25" s="266" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D25" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="183">
+      <c r="E25" s="177">
         <v>30750</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F25" s="162">
         <v>4855</v>
       </c>
-      <c r="G23" s="161">
+      <c r="G25" s="161">
         <v>4855</v>
       </c>
-      <c r="H23" s="162">
+      <c r="H25" s="162">
         <v>25894</v>
       </c>
-      <c r="I23" s="162">
+      <c r="I25" s="162">
         <f t="shared" si="0"/>
         <v>30749</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="244"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="182" t="s">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="278"/>
+      <c r="B26" s="293"/>
+      <c r="C26" s="267"/>
+      <c r="D26" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="183">
+      <c r="E26" s="177">
         <v>5426</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F26" s="162">
         <v>857</v>
       </c>
-      <c r="G24" s="184">
+      <c r="G26" s="178">
         <v>857</v>
       </c>
-      <c r="H24" s="162">
+      <c r="H26" s="162">
         <v>4570</v>
       </c>
-      <c r="I24" s="162">
+      <c r="I26" s="162">
         <f t="shared" si="0"/>
         <v>5427</v>
       </c>
-      <c r="M24" s="176"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="244"/>
-      <c r="B25" s="224"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="189">
-        <f>SUM(E19:E24)</f>
+      <c r="M26" s="170"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="278"/>
+      <c r="B27" s="263"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="183">
+        <f>SUM(E21:E26)</f>
         <v>101388</v>
       </c>
-      <c r="F25" s="190">
-        <f>SUM(F19:F24)</f>
+      <c r="F27" s="184">
+        <f>SUM(F21:F26)</f>
         <v>29988</v>
       </c>
-      <c r="G25" s="191">
-        <f>SUM(G19:G24)</f>
+      <c r="G27" s="185">
+        <f>SUM(G21:G26)</f>
         <v>29988</v>
       </c>
-      <c r="H25" s="190">
-        <f>SUM(H19:H24)</f>
+      <c r="H27" s="184">
+        <f>SUM(H21:H26)</f>
         <v>71400</v>
       </c>
-      <c r="I25" s="190">
+      <c r="I27" s="184">
         <f t="shared" si="0"/>
         <v>101388</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="244"/>
-      <c r="B26" s="221" t="s">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="278"/>
+      <c r="B28" s="287" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="229" t="s">
+      <c r="C28" s="291" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D28" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="123">
+      <c r="E28" s="123">
         <v>8092</v>
       </c>
-      <c r="F26" s="123">
+      <c r="F28" s="123">
         <v>4046</v>
       </c>
-      <c r="G26" s="124">
+      <c r="G28" s="124">
         <v>4046</v>
       </c>
-      <c r="H26" s="162">
+      <c r="H28" s="162">
         <v>4046</v>
       </c>
-      <c r="I26" s="162">
+      <c r="I28" s="162">
         <f t="shared" si="0"/>
         <v>8092</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="244"/>
-      <c r="B27" s="222"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="126" t="s">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="278"/>
+      <c r="B29" s="288"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="123">
+      <c r="E29" s="123">
         <v>1428</v>
       </c>
-      <c r="F27" s="123">
+      <c r="F29" s="123">
         <v>714</v>
       </c>
-      <c r="G27" s="126">
+      <c r="G29" s="126">
         <v>714</v>
       </c>
-      <c r="H27" s="162">
+      <c r="H29" s="162">
         <v>714</v>
       </c>
-      <c r="I27" s="162">
+      <c r="I29" s="162">
         <f t="shared" si="0"/>
         <v>1428</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="245"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165">
-        <f>SUM(E17:E27)</f>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="279"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165">
+        <f>SUM(E19:E29)</f>
         <v>226576</v>
       </c>
-      <c r="F28" s="165">
-        <f>SUM(F17:F27)</f>
+      <c r="F30" s="165">
+        <f>SUM(F19:F29)</f>
         <v>69496</v>
       </c>
-      <c r="G28" s="164"/>
-      <c r="H28" s="165">
-        <f>SUM(H17:H27)</f>
+      <c r="G30" s="164"/>
+      <c r="H30" s="165">
+        <f>SUM(H19:H29)</f>
         <v>157080</v>
       </c>
-      <c r="I28" s="165">
+      <c r="I30" s="165">
         <f t="shared" si="0"/>
         <v>157080</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="232" t="s">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B31" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="122" t="s">
+      <c r="C31" s="119"/>
+      <c r="D31" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E31" s="311">
         <v>0</v>
       </c>
-      <c r="F29" s="175">
+      <c r="F31" s="312">
         <v>0</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="127">
+      <c r="G31" s="313"/>
+      <c r="H31" s="314">
         <v>0</v>
       </c>
-      <c r="I29" s="127">
+      <c r="I31" s="314">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="233"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="265"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="315"/>
+      <c r="E32" s="316">
         <v>0</v>
       </c>
-      <c r="F30" s="172">
+      <c r="F32" s="317">
         <v>0</v>
       </c>
-      <c r="G30" s="174"/>
-      <c r="H30" s="173">
+      <c r="G32" s="318"/>
+      <c r="H32" s="319">
         <v>0</v>
       </c>
-      <c r="I30" s="173">
+      <c r="I32" s="319">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="219" t="s">
+    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="B33" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="219"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="157">
+      <c r="C33" s="285"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="157">
         <v>333598.7928</v>
       </c>
-      <c r="F31" s="158">
+      <c r="F33" s="158">
         <v>96248.53839999999</v>
       </c>
-      <c r="G31" s="167"/>
-      <c r="H31" s="159">
+      <c r="G33" s="167"/>
+      <c r="H33" s="159">
         <v>237349.97440000001</v>
       </c>
-      <c r="I31" s="159">
+      <c r="I33" s="159">
         <f t="shared" si="0"/>
         <v>237349.97440000001</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="179" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="173" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="180">
+      <c r="D36" s="174">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="179" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="173" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="178">
+      <c r="D37" s="172">
         <v>2965.26</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="179" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="173" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="180">
+      <c r="D38" s="174">
         <v>2276.9</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="179" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="180">
+      <c r="D39" s="174">
         <v>3015.88</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="181"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="175"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="118" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="118" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
@@ -38598,27 +38900,10 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -38626,8 +38911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38639,1445 +38924,1465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="305" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="305" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="250" t="s">
+      <c r="C1" s="305" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="251" t="s">
+      <c r="G1" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="251" t="s">
+      <c r="H1" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="251" t="s">
+      <c r="I1" s="304" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="251" t="s">
+      <c r="J1" s="304" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251" t="s">
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="304"/>
+      <c r="P1" s="304"/>
+      <c r="Q1" s="304"/>
+      <c r="R1" s="304"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="250"/>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251" t="s">
+      <c r="A2" s="305"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251" t="s">
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="250"/>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="253">
+      <c r="A3" s="305"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="188">
         <v>4420</v>
       </c>
-      <c r="K3" s="253">
+      <c r="K3" s="188">
         <v>4300</v>
       </c>
-      <c r="L3" s="254">
+      <c r="L3" s="189">
         <v>4430</v>
       </c>
-      <c r="M3" s="253">
+      <c r="M3" s="188">
         <v>4428</v>
       </c>
-      <c r="N3" s="253">
+      <c r="N3" s="188">
         <v>4429</v>
       </c>
-      <c r="O3" s="253">
+      <c r="O3" s="188">
         <v>4308</v>
       </c>
-      <c r="P3" s="253">
+      <c r="P3" s="188">
         <v>4309</v>
       </c>
-      <c r="Q3" s="254">
+      <c r="Q3" s="189">
         <v>4438</v>
       </c>
-      <c r="R3" s="254">
+      <c r="R3" s="189">
         <v>4439</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="295" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="257"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="297"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="298" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="259">
+      <c r="B5" s="302">
         <v>44446</v>
       </c>
-      <c r="C5" s="260">
+      <c r="C5" s="303">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
-      <c r="D5" s="261" t="s">
+      <c r="D5" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="262" t="s">
+      <c r="E5" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="263">
+      <c r="F5" s="192">
         <v>44455</v>
       </c>
-      <c r="G5" s="264">
+      <c r="G5" s="193">
         <v>196.5</v>
       </c>
-      <c r="H5" s="265" t="s">
+      <c r="H5" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="266">
+      <c r="I5" s="195">
         <v>1092.93</v>
       </c>
-      <c r="J5" s="267">
+      <c r="J5" s="196">
         <v>1092.93</v>
       </c>
-      <c r="K5" s="268"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="267">
+      <c r="K5" s="197"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="196">
         <v>928.9905</v>
       </c>
-      <c r="N5" s="267">
+      <c r="N5" s="196">
         <v>163.93950000000007</v>
       </c>
-      <c r="O5" s="268"/>
-      <c r="P5" s="268"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="190"/>
+      <c r="R5" s="190"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="258"/>
-      <c r="B6" s="259"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="261" t="s">
+      <c r="A6" s="298"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="262">
+      <c r="E6" s="191">
         <v>94100</v>
       </c>
-      <c r="F6" s="263">
+      <c r="F6" s="192">
         <v>44455</v>
       </c>
-      <c r="G6" s="264">
+      <c r="G6" s="193">
         <v>4</v>
       </c>
-      <c r="H6" s="265" t="s">
+      <c r="H6" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="266">
+      <c r="I6" s="195">
         <v>22.25</v>
       </c>
-      <c r="J6" s="267">
+      <c r="J6" s="196">
         <v>22.25</v>
       </c>
-      <c r="K6" s="268"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="267">
+      <c r="K6" s="197"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="196">
         <v>18.912499999999998</v>
       </c>
-      <c r="N6" s="267">
+      <c r="N6" s="196">
         <v>3.3375000000000021</v>
       </c>
-      <c r="O6" s="268"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="190"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="258"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="261" t="s">
+      <c r="A7" s="298"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="262">
+      <c r="E7" s="191">
         <v>159918</v>
       </c>
-      <c r="F7" s="263">
+      <c r="F7" s="192">
         <v>44453</v>
       </c>
-      <c r="G7" s="264">
+      <c r="G7" s="193">
         <v>150</v>
       </c>
-      <c r="H7" s="265" t="s">
+      <c r="H7" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="266">
+      <c r="I7" s="195">
         <v>834.3</v>
       </c>
-      <c r="J7" s="267">
+      <c r="J7" s="196">
         <v>834.3</v>
       </c>
-      <c r="K7" s="268"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="267">
+      <c r="K7" s="197"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="196">
         <v>709.15499999999997</v>
       </c>
-      <c r="N7" s="267">
+      <c r="N7" s="196">
         <v>125.14499999999998</v>
       </c>
-      <c r="O7" s="268"/>
-      <c r="P7" s="268"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="190"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="258"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="261" t="s">
+      <c r="A8" s="298"/>
+      <c r="B8" s="302"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="262" t="s">
+      <c r="E8" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="263">
+      <c r="F8" s="192">
         <v>44445</v>
       </c>
-      <c r="G8" s="264">
+      <c r="G8" s="193">
         <v>70.66</v>
       </c>
-      <c r="H8" s="265" t="s">
+      <c r="H8" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="266">
+      <c r="I8" s="195">
         <v>393.01</v>
       </c>
-      <c r="J8" s="267">
+      <c r="J8" s="196">
         <v>393.01</v>
       </c>
-      <c r="K8" s="268"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="267">
+      <c r="K8" s="197"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="196">
         <v>334.05849999999998</v>
       </c>
-      <c r="N8" s="267">
+      <c r="N8" s="196">
         <v>58.95150000000001</v>
       </c>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="190"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="258"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261" t="s">
+      <c r="A9" s="298"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="262">
+      <c r="E9" s="191">
         <v>620785004091</v>
       </c>
-      <c r="F9" s="263">
+      <c r="F9" s="192">
         <v>44452</v>
       </c>
-      <c r="G9" s="264">
+      <c r="G9" s="193">
         <v>43.75</v>
       </c>
-      <c r="H9" s="270" t="s">
+      <c r="H9" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="267">
+      <c r="I9" s="196">
         <v>43.75</v>
       </c>
-      <c r="J9" s="267">
+      <c r="J9" s="196">
         <v>43.75</v>
       </c>
-      <c r="K9" s="268"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="267">
+      <c r="K9" s="197"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="196">
         <v>37.1875</v>
       </c>
-      <c r="N9" s="267">
+      <c r="N9" s="196">
         <v>6.5625</v>
       </c>
-      <c r="O9" s="268"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="261"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="258"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="261" t="s">
+      <c r="A10" s="298"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="262">
+      <c r="E10" s="191">
         <v>101320211722073</v>
       </c>
-      <c r="F10" s="263">
+      <c r="F10" s="192">
         <v>44456</v>
       </c>
-      <c r="G10" s="264">
+      <c r="G10" s="193">
         <v>12</v>
       </c>
-      <c r="H10" s="270" t="s">
+      <c r="H10" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="267">
+      <c r="I10" s="196">
         <v>12</v>
       </c>
-      <c r="J10" s="267">
+      <c r="J10" s="196">
         <v>12</v>
       </c>
-      <c r="K10" s="268"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="267">
+      <c r="K10" s="197"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="196">
         <v>10.199999999999999</v>
       </c>
-      <c r="N10" s="267">
+      <c r="N10" s="196">
         <v>1.8000000000000007</v>
       </c>
-      <c r="O10" s="268"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="261"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="258"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261" t="s">
+      <c r="A11" s="298"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="262" t="s">
+      <c r="E11" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="263">
+      <c r="F11" s="192">
         <v>44456</v>
       </c>
-      <c r="G11" s="264">
+      <c r="G11" s="193">
         <v>30</v>
       </c>
-      <c r="H11" s="270" t="s">
+      <c r="H11" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="267">
+      <c r="I11" s="196">
         <v>30</v>
       </c>
-      <c r="J11" s="267">
+      <c r="J11" s="196">
         <v>30</v>
       </c>
-      <c r="K11" s="268"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="267">
+      <c r="K11" s="197"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="196">
         <v>25.5</v>
       </c>
-      <c r="N11" s="267">
+      <c r="N11" s="196">
         <v>4.5</v>
       </c>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="261"/>
-    </row>
-    <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="258"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261" t="s">
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+    </row>
+    <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="298"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="263">
+      <c r="F12" s="192">
         <v>44460</v>
       </c>
-      <c r="G12" s="264">
+      <c r="G12" s="193">
         <v>130</v>
       </c>
-      <c r="H12" s="270" t="s">
+      <c r="H12" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="267">
+      <c r="I12" s="196">
         <v>130</v>
       </c>
-      <c r="J12" s="267">
+      <c r="J12" s="196">
         <v>130</v>
       </c>
-      <c r="K12" s="268"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="267">
+      <c r="K12" s="197"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="196">
         <v>110.5</v>
       </c>
-      <c r="N12" s="267">
+      <c r="N12" s="196">
         <v>19.5</v>
       </c>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="261"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="258"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261" t="s">
+      <c r="A13" s="298"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="262" t="s">
+      <c r="E13" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="263">
+      <c r="F13" s="192">
         <v>44452</v>
       </c>
-      <c r="G13" s="264">
+      <c r="G13" s="193">
         <v>50</v>
       </c>
-      <c r="H13" s="270" t="s">
+      <c r="H13" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="267">
+      <c r="I13" s="196">
         <v>50</v>
       </c>
-      <c r="J13" s="267">
+      <c r="J13" s="196">
         <v>50</v>
       </c>
-      <c r="K13" s="268"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="267">
+      <c r="K13" s="197"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="196">
         <v>42.5</v>
       </c>
-      <c r="N13" s="267">
+      <c r="N13" s="196">
         <v>7.5</v>
       </c>
-      <c r="O13" s="268"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="261"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="258"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="261" t="s">
+      <c r="A14" s="298"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="262"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="264">
+      <c r="E14" s="191"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193">
         <v>124.25</v>
       </c>
-      <c r="H14" s="265" t="s">
+      <c r="H14" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="266">
+      <c r="I14" s="195">
         <v>691.08</v>
       </c>
-      <c r="J14" s="267">
+      <c r="J14" s="196">
         <v>691.08</v>
       </c>
-      <c r="K14" s="268"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="267">
+      <c r="K14" s="197"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="196">
         <v>587.41800000000001</v>
       </c>
-      <c r="N14" s="267">
+      <c r="N14" s="196">
         <v>103.66200000000003</v>
       </c>
-      <c r="O14" s="268"/>
-      <c r="P14" s="268"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="261"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="190"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="258"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="261" t="s">
+      <c r="A15" s="298"/>
+      <c r="B15" s="302"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="190" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
-      <c r="G15" s="264">
+      <c r="E15" s="191"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="193">
         <v>14</v>
       </c>
-      <c r="H15" s="265" t="s">
+      <c r="H15" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="266">
+      <c r="I15" s="195">
         <v>77.87</v>
       </c>
-      <c r="J15" s="267">
+      <c r="J15" s="196">
         <v>77.87</v>
       </c>
-      <c r="K15" s="268"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="267">
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="196">
         <v>66.189499999999995</v>
       </c>
-      <c r="N15" s="267">
+      <c r="N15" s="196">
         <v>11.680500000000009</v>
       </c>
-      <c r="O15" s="268"/>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="261"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="258" t="s">
+      <c r="A16" s="298" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="259">
+      <c r="B16" s="302">
         <v>44446</v>
       </c>
-      <c r="C16" s="260">
+      <c r="C16" s="303">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
-      <c r="D16" s="261" t="s">
+      <c r="D16" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="262">
+      <c r="E16" s="191">
         <v>94099</v>
       </c>
-      <c r="F16" s="263">
+      <c r="F16" s="192">
         <v>44455</v>
       </c>
-      <c r="G16" s="264">
+      <c r="G16" s="193">
         <v>4</v>
       </c>
-      <c r="H16" s="271" t="s">
+      <c r="H16" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="272">
+      <c r="I16" s="201">
         <v>22.25</v>
       </c>
-      <c r="J16" s="264">
+      <c r="J16" s="193">
         <v>22.25</v>
       </c>
-      <c r="K16" s="268"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="267">
+      <c r="K16" s="197"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="196">
         <v>18.912499999999998</v>
       </c>
-      <c r="N16" s="267">
+      <c r="N16" s="196">
         <v>3.3375000000000021</v>
       </c>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="261"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="190"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="258"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="261" t="s">
+      <c r="A17" s="298"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="262">
+      <c r="E17" s="191">
         <v>101320211722074</v>
       </c>
-      <c r="F17" s="263">
+      <c r="F17" s="192">
         <v>44456</v>
       </c>
-      <c r="G17" s="264">
+      <c r="G17" s="193">
         <v>12</v>
       </c>
-      <c r="H17" s="273" t="s">
+      <c r="H17" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="272">
+      <c r="I17" s="201">
         <v>12</v>
       </c>
-      <c r="J17" s="264">
+      <c r="J17" s="193">
         <v>12</v>
       </c>
-      <c r="K17" s="268"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="267">
+      <c r="K17" s="197"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="196">
         <v>10.199999999999999</v>
       </c>
-      <c r="N17" s="267">
+      <c r="N17" s="196">
         <v>1.8000000000000007</v>
       </c>
-      <c r="O17" s="268"/>
-      <c r="P17" s="268"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="261"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="197"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="190"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="258"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261" t="s">
+      <c r="A18" s="298"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="262" t="s">
+      <c r="E18" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="263">
+      <c r="F18" s="192">
         <v>44455</v>
       </c>
-      <c r="G18" s="264">
+      <c r="G18" s="193">
         <v>190.5</v>
       </c>
-      <c r="H18" s="271" t="s">
+      <c r="H18" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="272">
+      <c r="I18" s="201">
         <v>1059.56</v>
       </c>
-      <c r="J18" s="264">
+      <c r="J18" s="193">
         <v>1059.56</v>
       </c>
-      <c r="K18" s="268"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="267">
+      <c r="K18" s="197"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="196">
         <v>900.62599999999998</v>
       </c>
-      <c r="N18" s="267">
+      <c r="N18" s="196">
         <v>158.93399999999997</v>
       </c>
-      <c r="O18" s="268"/>
-      <c r="P18" s="268"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="261"/>
+      <c r="O18" s="197"/>
+      <c r="P18" s="197"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="258"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261" t="s">
+      <c r="A19" s="298"/>
+      <c r="B19" s="302"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="190" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="274" t="s">
+      <c r="E19" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="263">
+      <c r="F19" s="192">
         <v>44452</v>
       </c>
-      <c r="G19" s="264">
+      <c r="G19" s="193">
         <v>43.75</v>
       </c>
-      <c r="H19" s="273" t="s">
+      <c r="H19" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="272">
+      <c r="I19" s="201">
         <v>43.75</v>
       </c>
-      <c r="J19" s="264">
+      <c r="J19" s="193">
         <v>43.75</v>
       </c>
-      <c r="K19" s="268"/>
-      <c r="L19" s="269"/>
-      <c r="M19" s="267">
+      <c r="K19" s="197"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="196">
         <v>37.1875</v>
       </c>
-      <c r="N19" s="267">
+      <c r="N19" s="196">
         <v>6.5625</v>
       </c>
-      <c r="O19" s="268"/>
-      <c r="P19" s="268"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="261"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="190"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="258"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="261" t="s">
+      <c r="A20" s="298"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="262" t="s">
+      <c r="E20" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="263">
+      <c r="F20" s="192">
         <v>44456</v>
       </c>
-      <c r="G20" s="264">
+      <c r="G20" s="193">
         <v>30</v>
       </c>
-      <c r="H20" s="273" t="s">
+      <c r="H20" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="272">
+      <c r="I20" s="201">
         <v>30</v>
       </c>
-      <c r="J20" s="264">
+      <c r="J20" s="193">
         <v>30</v>
       </c>
-      <c r="K20" s="268"/>
-      <c r="L20" s="269"/>
-      <c r="M20" s="267">
+      <c r="K20" s="197"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="196">
         <v>25.5</v>
       </c>
-      <c r="N20" s="267">
+      <c r="N20" s="196">
         <v>4.5</v>
       </c>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="261"/>
-      <c r="R20" s="261"/>
-    </row>
-    <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="258"/>
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261" t="s">
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="190"/>
+    </row>
+    <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="298"/>
+      <c r="B21" s="302"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="262" t="s">
+      <c r="E21" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="263">
+      <c r="F21" s="192">
         <v>44460</v>
       </c>
-      <c r="G21" s="264">
+      <c r="G21" s="193">
         <v>130</v>
       </c>
-      <c r="H21" s="273" t="s">
+      <c r="H21" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="264">
+      <c r="I21" s="193">
         <v>130</v>
       </c>
-      <c r="J21" s="264">
+      <c r="J21" s="193">
         <v>130</v>
       </c>
-      <c r="K21" s="275"/>
-      <c r="L21" s="276"/>
-      <c r="M21" s="267">
+      <c r="K21" s="204"/>
+      <c r="L21" s="205"/>
+      <c r="M21" s="196">
         <v>110.5</v>
       </c>
-      <c r="N21" s="267">
+      <c r="N21" s="196">
         <v>19.5</v>
       </c>
-      <c r="O21" s="275"/>
-      <c r="P21" s="275"/>
-      <c r="Q21" s="277"/>
-      <c r="R21" s="277"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="204"/>
+      <c r="Q21" s="206"/>
+      <c r="R21" s="206"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="258"/>
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="261" t="s">
+      <c r="A22" s="298"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="262" t="s">
+      <c r="E22" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="263">
+      <c r="F22" s="192">
         <v>44452</v>
       </c>
-      <c r="G22" s="264">
+      <c r="G22" s="193">
         <v>50</v>
       </c>
-      <c r="H22" s="273" t="s">
+      <c r="H22" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="264">
+      <c r="I22" s="193">
         <v>50</v>
       </c>
-      <c r="J22" s="264">
+      <c r="J22" s="193">
         <v>50</v>
       </c>
-      <c r="K22" s="275"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="267">
+      <c r="K22" s="204"/>
+      <c r="L22" s="205"/>
+      <c r="M22" s="196">
         <v>42.5</v>
       </c>
-      <c r="N22" s="267">
+      <c r="N22" s="196">
         <v>7.5</v>
       </c>
-      <c r="O22" s="275"/>
-      <c r="P22" s="275"/>
-      <c r="Q22" s="277"/>
-      <c r="R22" s="277"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="206"/>
+      <c r="R22" s="206"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="258"/>
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="261" t="s">
+      <c r="A23" s="298"/>
+      <c r="B23" s="302"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="262"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="264">
+      <c r="E23" s="191"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="193">
         <v>124.25</v>
       </c>
-      <c r="H23" s="271" t="s">
+      <c r="H23" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="272">
+      <c r="I23" s="201">
         <v>691.08</v>
       </c>
-      <c r="J23" s="264">
+      <c r="J23" s="193">
         <v>691.08</v>
       </c>
-      <c r="K23" s="275"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="267">
+      <c r="K23" s="204"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="196">
         <v>587.41800000000001</v>
       </c>
-      <c r="N23" s="267">
+      <c r="N23" s="196">
         <v>103.66200000000003</v>
       </c>
-      <c r="O23" s="275"/>
-      <c r="P23" s="275"/>
-      <c r="Q23" s="277"/>
-      <c r="R23" s="277"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204"/>
+      <c r="Q23" s="206"/>
+      <c r="R23" s="206"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="258"/>
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="261" t="s">
+      <c r="A24" s="298"/>
+      <c r="B24" s="302"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="190" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="262"/>
-      <c r="F24" s="263"/>
-      <c r="G24" s="264">
+      <c r="E24" s="191"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="193">
         <v>14</v>
       </c>
-      <c r="H24" s="271" t="s">
+      <c r="H24" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="272">
+      <c r="I24" s="201">
         <v>77.87</v>
       </c>
-      <c r="J24" s="264">
+      <c r="J24" s="193">
         <v>77.87</v>
       </c>
-      <c r="K24" s="275"/>
-      <c r="L24" s="276"/>
-      <c r="M24" s="267">
+      <c r="K24" s="204"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="196">
         <v>66.189499999999995</v>
       </c>
-      <c r="N24" s="267">
+      <c r="N24" s="196">
         <v>11.680500000000009</v>
       </c>
-      <c r="O24" s="275"/>
-      <c r="P24" s="275"/>
-      <c r="Q24" s="277"/>
-      <c r="R24" s="277"/>
+      <c r="O24" s="204"/>
+      <c r="P24" s="204"/>
+      <c r="Q24" s="206"/>
+      <c r="R24" s="206"/>
     </row>
     <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="278" t="s">
+      <c r="A25" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="263">
+      <c r="B25" s="192">
         <v>44459</v>
       </c>
-      <c r="C25" s="279">
+      <c r="C25" s="208">
         <v>942.98</v>
       </c>
-      <c r="D25" s="261" t="s">
+      <c r="D25" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="262" t="s">
+      <c r="E25" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="263">
+      <c r="F25" s="192">
         <v>44459</v>
       </c>
-      <c r="G25" s="268">
+      <c r="G25" s="197">
         <v>942.98</v>
       </c>
-      <c r="H25" s="270" t="s">
+      <c r="H25" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="275">
+      <c r="I25" s="204">
         <v>942.98</v>
       </c>
-      <c r="J25" s="275"/>
-      <c r="K25" s="275">
+      <c r="J25" s="204"/>
+      <c r="K25" s="204">
         <v>942.98</v>
       </c>
-      <c r="L25" s="276"/>
-      <c r="M25" s="275"/>
-      <c r="N25" s="275"/>
-      <c r="O25" s="267">
+      <c r="L25" s="205"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="196">
         <v>801.53300000000002</v>
       </c>
-      <c r="P25" s="267">
+      <c r="P25" s="196">
         <v>141.447</v>
       </c>
-      <c r="Q25" s="277"/>
-      <c r="R25" s="277"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="255" t="s">
+      <c r="A26" s="295" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="256"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="256"/>
-      <c r="M26" s="256"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="256"/>
-      <c r="R26" s="257"/>
+      <c r="B26" s="296"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="296"/>
+      <c r="G26" s="296"/>
+      <c r="H26" s="296"/>
+      <c r="I26" s="296"/>
+      <c r="J26" s="296"/>
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="296"/>
+      <c r="O26" s="296"/>
+      <c r="P26" s="296"/>
+      <c r="Q26" s="296"/>
+      <c r="R26" s="297"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="258" t="s">
+      <c r="A27" s="298" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="280">
+      <c r="B27" s="299">
         <v>44516</v>
       </c>
-      <c r="C27" s="281">
+      <c r="C27" s="300">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
-      <c r="D27" s="282" t="s">
+      <c r="D27" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="283" t="s">
+      <c r="E27" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="284">
+      <c r="F27" s="211">
         <v>44524</v>
       </c>
-      <c r="G27" s="285">
+      <c r="G27" s="212">
         <v>680</v>
       </c>
-      <c r="H27" s="286" t="s">
+      <c r="H27" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="287">
+      <c r="I27" s="214">
         <v>440.56</v>
       </c>
-      <c r="J27" s="288">
+      <c r="J27" s="215">
         <v>440.56</v>
       </c>
-      <c r="K27" s="288"/>
-      <c r="L27" s="288"/>
-      <c r="M27" s="267">
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="196">
         <v>374.476</v>
       </c>
-      <c r="N27" s="267">
+      <c r="N27" s="196">
         <v>66.084000000000003</v>
       </c>
-      <c r="O27" s="288"/>
-      <c r="P27" s="288"/>
-      <c r="Q27" s="277"/>
-      <c r="R27" s="277"/>
+      <c r="O27" s="215"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="206"/>
+      <c r="R27" s="206"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="258"/>
-      <c r="B28" s="280"/>
-      <c r="C28" s="289"/>
-      <c r="D28" s="290" t="s">
+      <c r="A28" s="298"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="291" t="s">
+      <c r="E28" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="292">
+      <c r="F28" s="218">
         <v>44525</v>
       </c>
-      <c r="G28" s="293">
+      <c r="G28" s="219">
         <v>981.15</v>
       </c>
-      <c r="H28" s="294" t="s">
+      <c r="H28" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="287">
+      <c r="I28" s="214">
         <v>635.66</v>
       </c>
-      <c r="J28" s="288">
+      <c r="J28" s="215">
         <v>635.66</v>
       </c>
-      <c r="K28" s="288"/>
-      <c r="L28" s="288"/>
-      <c r="M28" s="267">
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="196">
         <v>540.31099999999992</v>
       </c>
-      <c r="N28" s="267">
+      <c r="N28" s="196">
         <v>95.349000000000046</v>
       </c>
-      <c r="O28" s="288"/>
-      <c r="P28" s="288"/>
-      <c r="Q28" s="277"/>
-      <c r="R28" s="277"/>
+      <c r="O28" s="215"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="206"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="258"/>
-      <c r="B29" s="280"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="290" t="s">
+      <c r="A29" s="298"/>
+      <c r="B29" s="299"/>
+      <c r="C29" s="301"/>
+      <c r="D29" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="291" t="s">
+      <c r="E29" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="292">
+      <c r="F29" s="218">
         <v>44524</v>
       </c>
-      <c r="G29" s="293">
+      <c r="G29" s="219">
         <v>400</v>
       </c>
-      <c r="H29" s="294" t="s">
+      <c r="H29" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="287">
+      <c r="I29" s="214">
         <v>259.16000000000003</v>
       </c>
-      <c r="J29" s="288">
+      <c r="J29" s="215">
         <v>259.16000000000003</v>
       </c>
-      <c r="K29" s="288"/>
-      <c r="L29" s="288"/>
-      <c r="M29" s="267">
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="196">
         <v>220.286</v>
       </c>
-      <c r="N29" s="267">
+      <c r="N29" s="196">
         <v>38.874000000000024</v>
       </c>
-      <c r="O29" s="288"/>
-      <c r="P29" s="288"/>
-      <c r="Q29" s="277"/>
-      <c r="R29" s="277"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="258"/>
-      <c r="B30" s="280"/>
-      <c r="C30" s="289"/>
-      <c r="D30" s="261" t="s">
+      <c r="A30" s="298"/>
+      <c r="B30" s="299"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="262">
+      <c r="E30" s="191">
         <v>333056419474</v>
       </c>
-      <c r="F30" s="263">
+      <c r="F30" s="192">
         <v>44525</v>
       </c>
-      <c r="G30" s="295">
+      <c r="G30" s="221">
         <v>6</v>
       </c>
-      <c r="H30" s="294" t="s">
+      <c r="H30" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="287">
+      <c r="I30" s="214">
         <v>3.9</v>
       </c>
-      <c r="J30" s="288">
+      <c r="J30" s="215">
         <v>3.9</v>
       </c>
-      <c r="K30" s="288"/>
-      <c r="L30" s="288"/>
-      <c r="M30" s="267">
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="196">
         <v>3.3149999999999999</v>
       </c>
-      <c r="N30" s="267">
+      <c r="N30" s="196">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O30" s="288"/>
-      <c r="P30" s="288"/>
-      <c r="Q30" s="277"/>
-      <c r="R30" s="277"/>
+      <c r="O30" s="215"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="206"/>
+      <c r="R30" s="206"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="258"/>
-      <c r="B31" s="280"/>
-      <c r="C31" s="289"/>
-      <c r="D31" s="261" t="s">
+      <c r="A31" s="298"/>
+      <c r="B31" s="299"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="296"/>
-      <c r="F31" s="296"/>
-      <c r="G31" s="288">
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
+      <c r="G31" s="215">
         <v>121.1</v>
       </c>
-      <c r="H31" s="273" t="s">
+      <c r="H31" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="287">
+      <c r="I31" s="214">
         <v>590.38</v>
       </c>
-      <c r="J31" s="288">
+      <c r="J31" s="215">
         <v>590.38</v>
       </c>
-      <c r="K31" s="288"/>
-      <c r="L31" s="288"/>
-      <c r="M31" s="267">
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="196">
         <v>501.82299999999998</v>
       </c>
-      <c r="N31" s="267">
+      <c r="N31" s="196">
         <v>88.557000000000016</v>
       </c>
-      <c r="O31" s="288"/>
-      <c r="P31" s="288"/>
-      <c r="Q31" s="277"/>
-      <c r="R31" s="277"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="206"/>
+      <c r="R31" s="206"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="258" t="s">
+      <c r="A32" s="298" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="280">
+      <c r="B32" s="299">
         <v>44516</v>
       </c>
-      <c r="C32" s="281">
+      <c r="C32" s="300">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
-      <c r="D32" s="282" t="s">
+      <c r="D32" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="283" t="s">
+      <c r="E32" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="284">
+      <c r="F32" s="211">
         <v>44524</v>
       </c>
-      <c r="G32" s="285">
+      <c r="G32" s="212">
         <v>680</v>
       </c>
-      <c r="H32" s="286" t="s">
+      <c r="H32" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="287">
+      <c r="I32" s="214">
         <v>440.56</v>
       </c>
-      <c r="J32" s="285">
+      <c r="J32" s="212">
         <v>440.56</v>
       </c>
-      <c r="K32" s="288"/>
-      <c r="L32" s="288"/>
-      <c r="M32" s="267">
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="196">
         <v>374.476</v>
       </c>
-      <c r="N32" s="267">
+      <c r="N32" s="196">
         <v>66.084000000000003</v>
       </c>
-      <c r="O32" s="288"/>
-      <c r="P32" s="288"/>
-      <c r="Q32" s="277"/>
-      <c r="R32" s="277"/>
+      <c r="O32" s="215"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="206"/>
+      <c r="R32" s="206"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="258"/>
-      <c r="B33" s="280"/>
-      <c r="C33" s="289"/>
-      <c r="D33" s="290" t="s">
+      <c r="A33" s="298"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="216" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="291" t="s">
+      <c r="E33" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="292">
+      <c r="F33" s="218">
         <v>44524</v>
       </c>
-      <c r="G33" s="293" t="s">
+      <c r="G33" s="219" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="294" t="s">
+      <c r="H33" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="287">
+      <c r="I33" s="214">
         <v>259.16000000000003</v>
       </c>
-      <c r="J33" s="285">
+      <c r="J33" s="212">
         <v>259.16000000000003</v>
       </c>
-      <c r="K33" s="288"/>
-      <c r="L33" s="288"/>
-      <c r="M33" s="267">
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="196">
         <v>220.286</v>
       </c>
-      <c r="N33" s="267">
+      <c r="N33" s="196">
         <v>38.874000000000024</v>
       </c>
-      <c r="O33" s="288"/>
-      <c r="P33" s="288"/>
-      <c r="Q33" s="277"/>
-      <c r="R33" s="277"/>
+      <c r="O33" s="215"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="206"/>
+      <c r="R33" s="206"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="258"/>
-      <c r="B34" s="280"/>
-      <c r="C34" s="289"/>
-      <c r="D34" s="290" t="s">
+      <c r="A34" s="298"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="301"/>
+      <c r="D34" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="262">
+      <c r="E34" s="191">
         <v>333056419480</v>
       </c>
-      <c r="F34" s="263">
+      <c r="F34" s="192">
         <v>44525</v>
       </c>
-      <c r="G34" s="295">
+      <c r="G34" s="221">
         <v>6</v>
       </c>
-      <c r="H34" s="294" t="s">
+      <c r="H34" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="287">
+      <c r="I34" s="214">
         <v>3.9</v>
       </c>
-      <c r="J34" s="285">
+      <c r="J34" s="212">
         <v>3.9</v>
       </c>
-      <c r="K34" s="293"/>
-      <c r="L34" s="293"/>
-      <c r="M34" s="267">
+      <c r="K34" s="219"/>
+      <c r="L34" s="219"/>
+      <c r="M34" s="196">
         <v>3.3149999999999999</v>
       </c>
-      <c r="N34" s="267">
+      <c r="N34" s="196">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O34" s="293"/>
-      <c r="P34" s="293"/>
-      <c r="Q34" s="277"/>
-      <c r="R34" s="277"/>
+      <c r="O34" s="219"/>
+      <c r="P34" s="219"/>
+      <c r="Q34" s="206"/>
+      <c r="R34" s="206"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="258"/>
-      <c r="B35" s="280"/>
-      <c r="C35" s="289"/>
-      <c r="D35" s="261" t="s">
+      <c r="A35" s="298"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="297"/>
-      <c r="F35" s="298"/>
-      <c r="G35" s="285">
+      <c r="E35" s="223"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="212">
         <v>121.1</v>
       </c>
-      <c r="H35" s="298" t="s">
+      <c r="H35" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="287">
+      <c r="I35" s="214">
         <v>590.38</v>
       </c>
-      <c r="J35" s="285">
+      <c r="J35" s="212">
         <v>590.38</v>
       </c>
-      <c r="K35" s="293"/>
-      <c r="L35" s="293"/>
-      <c r="M35" s="267">
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="196">
         <v>501.82299999999998</v>
       </c>
-      <c r="N35" s="267">
+      <c r="N35" s="196">
         <v>88.557000000000016</v>
       </c>
-      <c r="O35" s="293"/>
-      <c r="P35" s="293"/>
-      <c r="Q35" s="277"/>
-      <c r="R35" s="277"/>
+      <c r="O35" s="219"/>
+      <c r="P35" s="219"/>
+      <c r="Q35" s="206"/>
+      <c r="R35" s="206"/>
     </row>
     <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="278" t="s">
+      <c r="A36" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="299">
+      <c r="B36" s="225">
         <v>44510</v>
       </c>
-      <c r="C36" s="300">
+      <c r="C36" s="226">
         <v>2022.28</v>
       </c>
-      <c r="D36" s="301" t="s">
+      <c r="D36" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="302" t="s">
+      <c r="E36" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="284">
+      <c r="F36" s="211">
         <v>44510</v>
       </c>
-      <c r="G36" s="303">
+      <c r="G36" s="229">
         <v>2022.28</v>
       </c>
-      <c r="H36" s="270" t="s">
+      <c r="H36" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="285">
+      <c r="I36" s="212">
         <v>2022.28</v>
       </c>
-      <c r="J36" s="285"/>
-      <c r="K36" s="293">
+      <c r="J36" s="212"/>
+      <c r="K36" s="219">
         <v>2022.28</v>
       </c>
-      <c r="L36" s="293"/>
-      <c r="M36" s="285"/>
-      <c r="N36" s="285"/>
-      <c r="O36" s="267">
+      <c r="L36" s="219"/>
+      <c r="M36" s="212"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="196">
         <v>1718.9379999999999</v>
       </c>
-      <c r="P36" s="267">
+      <c r="P36" s="196">
         <v>303.3420000000001</v>
       </c>
-      <c r="Q36" s="277"/>
-      <c r="R36" s="277"/>
+      <c r="Q36" s="206"/>
+      <c r="R36" s="206"/>
     </row>
     <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="290" t="s">
+      <c r="A37" s="216" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="292">
+      <c r="B37" s="218">
         <v>44518</v>
       </c>
-      <c r="C37" s="304">
+      <c r="C37" s="230">
         <v>40.799999999999997</v>
       </c>
-      <c r="D37" s="301" t="s">
+      <c r="D37" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="305">
+      <c r="E37" s="231">
         <v>1066369367</v>
       </c>
-      <c r="F37" s="284">
+      <c r="F37" s="211">
         <v>44522</v>
       </c>
-      <c r="G37" s="303">
+      <c r="G37" s="229">
         <v>40.799999999999997</v>
       </c>
-      <c r="H37" s="270" t="s">
+      <c r="H37" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="285">
+      <c r="I37" s="212">
         <v>40.799999999999997</v>
       </c>
-      <c r="J37" s="285"/>
-      <c r="K37" s="293"/>
-      <c r="L37" s="293">
+      <c r="J37" s="212"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="219">
         <v>40.799999999999997</v>
       </c>
-      <c r="M37" s="285"/>
-      <c r="N37" s="285"/>
-      <c r="O37" s="293"/>
-      <c r="P37" s="293"/>
-      <c r="Q37" s="267">
+      <c r="M37" s="212"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="219"/>
+      <c r="P37" s="219"/>
+      <c r="Q37" s="196">
         <v>34.68</v>
       </c>
-      <c r="R37" s="267">
+      <c r="R37" s="196">
         <v>6.1199999999999974</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="306" t="s">
+      <c r="A38" s="294" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="306"/>
-      <c r="C38" s="306"/>
-      <c r="D38" s="306"/>
-      <c r="E38" s="306"/>
-      <c r="F38" s="306"/>
-      <c r="G38" s="306"/>
-      <c r="H38" s="306"/>
-      <c r="I38" s="279">
+      <c r="B38" s="294"/>
+      <c r="C38" s="294"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="208">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
       </c>
-      <c r="J38" s="279">
+      <c r="J38" s="208">
         <f t="shared" ref="J38:R38" si="0">SUM(J5:J37)</f>
         <v>8717.3599999999988</v>
       </c>
-      <c r="K38" s="279">
+      <c r="K38" s="208">
         <f t="shared" si="0"/>
         <v>2965.26</v>
       </c>
-      <c r="L38" s="279">
+      <c r="L38" s="208">
         <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="M38" s="279">
+      <c r="M38" s="208">
         <f t="shared" si="0"/>
         <v>7409.7559999999985</v>
       </c>
-      <c r="N38" s="279">
+      <c r="N38" s="208">
         <f t="shared" si="0"/>
         <v>1307.6040000000003</v>
       </c>
-      <c r="O38" s="279">
+      <c r="O38" s="208">
         <f t="shared" si="0"/>
         <v>2520.471</v>
       </c>
-      <c r="P38" s="279">
+      <c r="P38" s="208">
         <f t="shared" si="0"/>
         <v>444.7890000000001</v>
       </c>
-      <c r="Q38" s="279">
+      <c r="Q38" s="208">
         <f t="shared" si="0"/>
         <v>34.68</v>
       </c>
-      <c r="R38" s="279">
+      <c r="R38" s="208">
         <f t="shared" si="0"/>
         <v>6.1199999999999974</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -40086,26 +40391,6 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40121,502 +40406,502 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="307" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="307" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="307"/>
-    <col min="4" max="4" width="13.85546875" style="307" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="307"/>
-    <col min="6" max="6" width="10.5703125" style="307" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="9.140625" style="307"/>
-    <col min="19" max="21" width="9.140625" style="315"/>
-    <col min="22" max="16384" width="9.140625" style="307"/>
+    <col min="1" max="1" width="9.5703125" style="232" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="232" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="232"/>
+    <col min="4" max="4" width="13.85546875" style="232" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="232"/>
+    <col min="6" max="6" width="10.5703125" style="232" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="9.140625" style="232"/>
+    <col min="19" max="21" width="9.140625" style="237"/>
+    <col min="22" max="16384" width="9.140625" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="250" t="s">
+    <row r="1" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="305" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="305" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="250" t="s">
+      <c r="C1" s="305" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="251" t="s">
+      <c r="G1" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="251" t="s">
+      <c r="H1" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="251" t="s">
+      <c r="I1" s="304" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="251" t="s">
+      <c r="J1" s="304" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-    </row>
-    <row r="2" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="250"/>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251" t="s">
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="304"/>
+    </row>
+    <row r="2" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="305"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-    </row>
-    <row r="3" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="250"/>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="253">
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+    </row>
+    <row r="3" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="305"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="188">
         <v>4428</v>
       </c>
-      <c r="K3" s="253">
+      <c r="K3" s="188">
         <v>4429</v>
       </c>
-      <c r="L3" s="253">
+      <c r="L3" s="188">
         <v>4308</v>
       </c>
-      <c r="M3" s="253">
+      <c r="M3" s="188">
         <v>4309</v>
       </c>
-      <c r="N3" s="254">
+      <c r="N3" s="189">
         <v>4438</v>
       </c>
-      <c r="O3" s="254">
+      <c r="O3" s="189">
         <v>4439</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="255" t="s">
+    <row r="4" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="295" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="257"/>
-    </row>
-    <row r="5" spans="1:15" s="307" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="278" t="s">
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="297"/>
+    </row>
+    <row r="5" spans="1:15" s="232" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="263">
+      <c r="B5" s="192">
         <v>44636</v>
       </c>
-      <c r="C5" s="308">
+      <c r="C5" s="233">
         <v>1857</v>
       </c>
-      <c r="D5" s="261" t="s">
+      <c r="D5" s="190" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="262" t="s">
+      <c r="E5" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="263">
+      <c r="F5" s="192">
         <v>44636</v>
       </c>
-      <c r="G5" s="264" t="s">
+      <c r="G5" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="265"/>
-      <c r="I5" s="308">
+      <c r="H5" s="194"/>
+      <c r="I5" s="233">
         <v>1857</v>
       </c>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="268">
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="197">
         <v>1593.75</v>
       </c>
-      <c r="M5" s="268">
+      <c r="M5" s="197">
         <v>281.25</v>
       </c>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-    </row>
-    <row r="6" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="255" t="s">
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
+    </row>
+    <row r="6" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="295" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="257"/>
-    </row>
-    <row r="7" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="309"/>
-      <c r="B7" s="309"/>
-      <c r="C7" s="309"/>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="309"/>
-      <c r="M7" s="309"/>
-      <c r="N7" s="309"/>
-      <c r="O7" s="309"/>
-    </row>
-    <row r="8" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="309"/>
-      <c r="B8" s="309"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="309"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="309"/>
-      <c r="M8" s="309"/>
-      <c r="N8" s="309"/>
-      <c r="O8" s="309"/>
-    </row>
-    <row r="9" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="309"/>
-      <c r="B9" s="309"/>
-      <c r="C9" s="309"/>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="309"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="309"/>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-    </row>
-    <row r="10" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="309"/>
-      <c r="B10" s="309"/>
-      <c r="C10" s="309"/>
-      <c r="D10" s="309"/>
-      <c r="E10" s="309"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="309"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="309"/>
-      <c r="N10" s="309"/>
-      <c r="O10" s="309"/>
-    </row>
-    <row r="11" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="309"/>
-      <c r="B11" s="309"/>
-      <c r="C11" s="309"/>
-      <c r="D11" s="309"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="309"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="309"/>
-      <c r="M11" s="309"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="309"/>
-    </row>
-    <row r="12" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="309"/>
-      <c r="B12" s="309"/>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="309"/>
-    </row>
-    <row r="13" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="309"/>
-      <c r="B13" s="309"/>
-      <c r="C13" s="309"/>
-      <c r="D13" s="309"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="309"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="309"/>
-      <c r="L13" s="309"/>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="309"/>
-    </row>
-    <row r="14" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="309"/>
-      <c r="B14" s="309"/>
-      <c r="C14" s="309"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="309"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="309"/>
-    </row>
-    <row r="15" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="309"/>
-      <c r="B15" s="309"/>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="309"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="309"/>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-    </row>
-    <row r="16" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="309"/>
-      <c r="B16" s="309"/>
-      <c r="C16" s="309"/>
-      <c r="D16" s="309"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="309"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="309"/>
-    </row>
-    <row r="17" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="309"/>
-      <c r="B17" s="309"/>
-      <c r="C17" s="309"/>
-      <c r="D17" s="309"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="309"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="309"/>
-      <c r="N17" s="309"/>
-      <c r="O17" s="309"/>
-    </row>
-    <row r="18" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="309"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="309"/>
-      <c r="E18" s="309"/>
-      <c r="F18" s="309"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="309"/>
-      <c r="L18" s="309"/>
-      <c r="M18" s="309"/>
-      <c r="N18" s="309"/>
-      <c r="O18" s="309"/>
-    </row>
-    <row r="19" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="309"/>
-      <c r="B19" s="309"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="309"/>
-      <c r="M19" s="309"/>
-      <c r="N19" s="309"/>
-      <c r="O19" s="309"/>
-    </row>
-    <row r="20" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="309"/>
-      <c r="B20" s="309"/>
-      <c r="C20" s="309"/>
-      <c r="D20" s="309"/>
-      <c r="E20" s="309"/>
-      <c r="F20" s="309"/>
-      <c r="G20" s="309"/>
-      <c r="H20" s="309"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="309"/>
-      <c r="K20" s="309"/>
-      <c r="L20" s="309"/>
-      <c r="M20" s="309"/>
-      <c r="N20" s="309"/>
-      <c r="O20" s="309"/>
-    </row>
-    <row r="21" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="309"/>
-      <c r="B21" s="309"/>
-      <c r="C21" s="309"/>
-      <c r="D21" s="309"/>
-      <c r="E21" s="309"/>
-      <c r="F21" s="309"/>
-      <c r="G21" s="309"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="309"/>
-      <c r="K21" s="309"/>
-      <c r="L21" s="309"/>
-      <c r="M21" s="309"/>
-      <c r="N21" s="309"/>
-      <c r="O21" s="309"/>
-    </row>
-    <row r="22" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="309"/>
-      <c r="B22" s="309"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="309"/>
-      <c r="E22" s="309"/>
-      <c r="F22" s="309"/>
-      <c r="G22" s="309"/>
-      <c r="H22" s="309"/>
-      <c r="I22" s="309"/>
-      <c r="J22" s="309"/>
-      <c r="K22" s="309"/>
-      <c r="L22" s="309"/>
-      <c r="M22" s="309"/>
-      <c r="N22" s="309"/>
-      <c r="O22" s="309"/>
-    </row>
-    <row r="23" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="278"/>
-      <c r="B23" s="278"/>
-      <c r="C23" s="278"/>
-      <c r="D23" s="278"/>
-      <c r="E23" s="278"/>
-      <c r="F23" s="278"/>
-      <c r="G23" s="278"/>
-      <c r="H23" s="278"/>
-      <c r="I23" s="308"/>
-      <c r="J23" s="267"/>
-      <c r="K23" s="267"/>
-      <c r="L23" s="268"/>
-      <c r="M23" s="268"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
-    </row>
-    <row r="24" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="310" t="s">
+      <c r="B6" s="296"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="297"/>
+    </row>
+    <row r="7" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="234"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="234"/>
+    </row>
+    <row r="8" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="234"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+    </row>
+    <row r="9" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="234"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+    </row>
+    <row r="10" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="234"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+    </row>
+    <row r="11" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="234"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="234"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="234"/>
+    </row>
+    <row r="12" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="234"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="234"/>
+      <c r="O12" s="234"/>
+    </row>
+    <row r="13" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="234"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="234"/>
+      <c r="K13" s="234"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="234"/>
+    </row>
+    <row r="14" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="234"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="234"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="234"/>
+      <c r="O14" s="234"/>
+    </row>
+    <row r="15" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="234"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+    </row>
+    <row r="16" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="234"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+    </row>
+    <row r="17" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="234"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="234"/>
+    </row>
+    <row r="18" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="234"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
+    </row>
+    <row r="19" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="234"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="234"/>
+    </row>
+    <row r="20" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="234"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+    </row>
+    <row r="21" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="234"/>
+      <c r="B21" s="234"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+    </row>
+    <row r="22" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="234"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="234"/>
+    </row>
+    <row r="23" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="207"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+    </row>
+    <row r="24" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="307" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="311"/>
-      <c r="C24" s="311"/>
-      <c r="D24" s="311"/>
-      <c r="E24" s="311"/>
-      <c r="F24" s="311"/>
-      <c r="G24" s="311"/>
-      <c r="H24" s="311"/>
-      <c r="I24" s="312"/>
-      <c r="J24" s="313"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="314">
+      <c r="B24" s="308"/>
+      <c r="C24" s="308"/>
+      <c r="D24" s="308"/>
+      <c r="E24" s="308"/>
+      <c r="F24" s="308"/>
+      <c r="G24" s="308"/>
+      <c r="H24" s="308"/>
+      <c r="I24" s="309"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="236">
         <f>SUM(L5)</f>
         <v>1593.75</v>
       </c>
-      <c r="M24" s="314">
+      <c r="M24" s="236">
         <f>SUM(M5)</f>
         <v>281.25</v>
       </c>
-      <c r="N24" s="313"/>
-      <c r="O24" s="313"/>
-    </row>
-    <row r="25" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:15" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" s="307" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="N24" s="235"/>
+      <c r="O24" s="235"/>
+    </row>
+    <row r="25" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A6:O6"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -229,6 +229,33 @@
     <author>QQ Factory</author>
   </authors>
   <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 20 na ubezpieczenia
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -252,6 +279,35 @@
           </rPr>
           <t xml:space="preserve">
 71210
+- 23 800 przesunięcia na usługi pozostałe
+- 340 przesunięcia na ubezpieczenia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 60 przesunięcia na ubezpieczenia
 </t>
         </r>
       </text>
@@ -279,7 +335,34 @@
           </rPr>
           <t xml:space="preserve">
 12 566
-</t>
+- 4200 przesunięcia na usługi pozostałe 
+- 60 przesunięcia na  ubezpieczenia </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+2520 bilety + 35 ubezpieczenie</t>
         </r>
       </text>
     </comment>
@@ -306,6 +389,33 @@
           </rPr>
           <t xml:space="preserve">
 23 800 - 2520
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+445 bilety + 7 ubezpieczenie
 </t>
         </r>
       </text>
@@ -390,12 +500,118 @@
         </r>
       </text>
     </comment>
+    <comment ref="H21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 1594 lunch networkingowy
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- 281 lunch networkingowy
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 170 przesunięcia na ubezpieczenie
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+-30 przesunięcia na ubezpieczenie
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="205">
   <si>
     <r>
       <rPr>
@@ -1073,6 +1289,15 @@
   <si>
     <t>Przenieść jakąś kwotę na koszty ubezpieczenia</t>
   </si>
+  <si>
+    <t>400 / 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personel / experci </t>
+  </si>
+  <si>
+    <t>sciągnąć z 4300 obu linii</t>
+  </si>
 </sst>
 </file>
 
@@ -1087,7 +1312,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ &quot;zł&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0\ _z_ł"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1512,6 +1737,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2090,7 +2328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2733,6 +2971,36 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="53" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2759,8 +3027,10 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2769,22 +3039,33 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2793,17 +3074,38 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2847,41 +3149,19 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2896,6 +3176,15 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2904,21 +3193,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2929,41 +3203,20 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="34" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3241,11 +3494,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3360,11 +3613,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="247"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="257"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3417,12 +3670,12 @@
     </row>
     <row r="7" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="250"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3538,7 +3791,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="248" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3573,7 +3826,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="239"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3606,7 +3859,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="240"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3639,7 +3892,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="238" t="s">
+      <c r="A14" s="248" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3674,7 +3927,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="239"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +3960,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="240"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3993,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="248" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3775,7 +4028,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="240"/>
+      <c r="A18" s="250"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -3808,7 +4061,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="248" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3843,7 +4096,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="239"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -3876,7 +4129,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -3909,7 +4162,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="239"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -3942,7 +4195,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="239"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
@@ -3975,7 +4228,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="239"/>
+      <c r="A24" s="249"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -4008,7 +4261,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="240"/>
+      <c r="A25" s="250"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
@@ -4041,7 +4294,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="238" t="s">
+      <c r="A26" s="248" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4076,7 +4329,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="240"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
@@ -4109,10 +4362,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="241" t="s">
+      <c r="A28" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="242"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="16" t="e">
         <f>C13+C16+C18+C25+C27</f>
         <v>#REF!</v>
@@ -4240,7 +4493,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="238" t="s">
+      <c r="A32" s="248" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -4284,7 +4537,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="239"/>
+      <c r="A33" s="249"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -4324,7 +4577,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="240"/>
+      <c r="A34" s="250"/>
       <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
@@ -4366,7 +4619,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="238" t="s">
+      <c r="A35" s="248" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4410,7 +4663,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="239"/>
+      <c r="A36" s="249"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -4452,7 +4705,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="240"/>
+      <c r="A37" s="250"/>
       <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
@@ -4494,7 +4747,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="238" t="s">
+      <c r="A38" s="248" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -4538,7 +4791,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="240"/>
+      <c r="A39" s="250"/>
       <c r="B39" s="15" t="s">
         <v>19</v>
       </c>
@@ -4580,7 +4833,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="238" t="s">
+      <c r="A40" s="248" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -4624,7 +4877,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="239"/>
+      <c r="A41" s="249"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
@@ -4666,7 +4919,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="239"/>
+      <c r="A42" s="249"/>
       <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
@@ -4708,7 +4961,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="239"/>
+      <c r="A43" s="249"/>
       <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
@@ -4750,7 +5003,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="239"/>
+      <c r="A44" s="249"/>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
@@ -4792,7 +5045,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="239"/>
+      <c r="A45" s="249"/>
       <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
@@ -4834,7 +5087,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="240"/>
+      <c r="A46" s="250"/>
       <c r="B46" s="15" t="s">
         <v>27</v>
       </c>
@@ -4876,7 +5129,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="238" t="s">
+      <c r="A47" s="248" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -4920,7 +5173,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240"/>
+      <c r="A48" s="250"/>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
@@ -4962,10 +5215,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="241" t="s">
+      <c r="A49" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="242"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="16" t="e">
         <f t="shared" ref="C49:F49" si="13">C34+C37+C39+C46+C48</f>
         <v>#REF!</v>
@@ -31731,7 +31984,7 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="248" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -31742,7 +31995,7 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="239"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -31753,7 +32006,7 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="240"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -31765,7 +32018,7 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="248" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -31776,7 +32029,7 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="239"/>
+      <c r="A10" s="249"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -31788,7 +32041,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="240"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -31800,7 +32053,7 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="248" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -31813,7 +32066,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="240"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -31825,7 +32078,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="238" t="s">
+      <c r="A14" s="248" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -31836,7 +32089,7 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="239"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
@@ -31847,7 +32100,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="239"/>
+      <c r="A16" s="249"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -31858,7 +32111,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="239"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -31869,7 +32122,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="239"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -31880,7 +32133,7 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="239"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
@@ -31891,7 +32144,7 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="240"/>
+      <c r="A20" s="250"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -31903,7 +32156,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="238" t="s">
+      <c r="A21" s="248" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -31916,7 +32169,7 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="240"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
@@ -31928,10 +32181,10 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="241" t="s">
+      <c r="A23" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="242"/>
+      <c r="B23" s="252"/>
       <c r="C23" s="16">
         <f>C8+C11+C13+C20+C22</f>
         <v>70083.78</v>
@@ -31979,7 +32232,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="238" t="s">
+      <c r="A27" s="248" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -31992,7 +32245,7 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="239"/>
+      <c r="A28" s="249"/>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
@@ -32013,7 +32266,7 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="240"/>
+      <c r="A29" s="250"/>
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -32036,7 +32289,7 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="238" t="s">
+      <c r="A30" s="248" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -32049,7 +32302,7 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="239"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -32072,7 +32325,7 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="240"/>
+      <c r="A32" s="250"/>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -32095,7 +32348,7 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="238" t="s">
+      <c r="A33" s="248" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -32118,7 +32371,7 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="240"/>
+      <c r="A34" s="250"/>
       <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
@@ -32141,7 +32394,7 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="238" t="s">
+      <c r="A35" s="248" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -32154,7 +32407,7 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="239"/>
+      <c r="A36" s="249"/>
       <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
@@ -32175,7 +32428,7 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="239"/>
+      <c r="A37" s="249"/>
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
@@ -32196,7 +32449,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="239"/>
+      <c r="A38" s="249"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -32217,7 +32470,7 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="239"/>
+      <c r="A39" s="249"/>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
@@ -32238,7 +32491,7 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="239"/>
+      <c r="A40" s="249"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -32259,7 +32512,7 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="240"/>
+      <c r="A41" s="250"/>
       <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
@@ -32282,7 +32535,7 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="238" t="s">
+      <c r="A42" s="248" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -32304,7 +32557,7 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="240"/>
+      <c r="A43" s="250"/>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
@@ -32326,10 +32579,10 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="241" t="s">
+      <c r="A44" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="242"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="16">
         <f t="shared" ref="C44:F44" si="9">C29+C32+C34+C41+C43</f>
         <v>70083.78</v>
@@ -32391,7 +32644,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="258" t="s">
+      <c r="A49" s="263" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -32417,7 +32670,7 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="254"/>
+      <c r="A50" s="264"/>
       <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
@@ -32441,7 +32694,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="258" t="s">
+      <c r="A51" s="263" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -32467,7 +32720,7 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="254"/>
+      <c r="A52" s="264"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -32491,7 +32744,7 @@
       <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="255" t="s">
+      <c r="A53" s="265" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -32517,7 +32770,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="259"/>
+      <c r="A54" s="266"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -32541,7 +32794,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="258" t="s">
+      <c r="A55" s="263" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -32567,7 +32820,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="253"/>
+      <c r="A56" s="267"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -32591,7 +32844,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="253"/>
+      <c r="A57" s="267"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -32615,7 +32868,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="253"/>
+      <c r="A58" s="267"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -32639,7 +32892,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="253"/>
+      <c r="A59" s="267"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -32663,7 +32916,7 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="254"/>
+      <c r="A60" s="264"/>
       <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
@@ -32687,7 +32940,7 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="255" t="s">
+      <c r="A61" s="265" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -32710,7 +32963,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="259"/>
+      <c r="A62" s="266"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -32734,10 +32987,10 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="251" t="s">
+      <c r="A63" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="257"/>
+      <c r="B63" s="262"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -32795,7 +33048,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="253" t="s">
+      <c r="A68" s="267" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -32817,7 +33070,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="253"/>
+      <c r="A69" s="267"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -32834,7 +33087,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="253"/>
+      <c r="A70" s="267"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -32862,7 +33115,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="253"/>
+      <c r="A71" s="267"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -32894,7 +33147,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="253"/>
+      <c r="A72" s="267"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -32919,7 +33172,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="253"/>
+      <c r="A73" s="267"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -32953,7 +33206,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="253"/>
+      <c r="A74" s="267"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -32973,7 +33226,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="253"/>
+      <c r="A75" s="267"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -32994,7 +33247,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="253"/>
+      <c r="A76" s="267"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33014,7 +33267,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="253"/>
+      <c r="A77" s="267"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -33034,7 +33287,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="253"/>
+      <c r="A78" s="267"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -33052,7 +33305,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="254"/>
+      <c r="A79" s="264"/>
       <c r="B79" s="40" t="s">
         <v>47</v>
       </c>
@@ -33120,7 +33373,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="253" t="s">
+      <c r="A83" s="267" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -33142,7 +33395,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="253"/>
+      <c r="A84" s="267"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -33160,7 +33413,7 @@
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="254"/>
+      <c r="A85" s="264"/>
       <c r="B85" s="15" t="s">
         <v>50</v>
       </c>
@@ -33180,7 +33433,7 @@
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="255" t="s">
+      <c r="A86" s="265" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -33202,7 +33455,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="256"/>
+      <c r="A87" s="269"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -33222,7 +33475,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="256"/>
+      <c r="A88" s="269"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -33242,7 +33495,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="256"/>
+      <c r="A89" s="269"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -33260,7 +33513,7 @@
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="254"/>
+      <c r="A90" s="264"/>
       <c r="B90" s="15" t="s">
         <v>53</v>
       </c>
@@ -33280,7 +33533,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="253" t="s">
+      <c r="A91" s="267" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -33302,7 +33555,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="253"/>
+      <c r="A92" s="267"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -33322,7 +33575,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="253"/>
+      <c r="A93" s="267"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -33342,7 +33595,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="253"/>
+      <c r="A94" s="267"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -33362,7 +33615,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="253"/>
+      <c r="A95" s="267"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -33382,7 +33635,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="253"/>
+      <c r="A96" s="267"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -33401,7 +33654,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="253"/>
+      <c r="A97" s="267"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -33420,7 +33673,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="253"/>
+      <c r="A98" s="267"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -33437,7 +33690,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="253"/>
+      <c r="A99" s="267"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -33454,7 +33707,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="253"/>
+      <c r="A100" s="267"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -33473,7 +33726,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="253"/>
+      <c r="A101" s="267"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -33492,7 +33745,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="253"/>
+      <c r="A102" s="267"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -33510,7 +33763,7 @@
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="254"/>
+      <c r="A103" s="264"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -33530,7 +33783,7 @@
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="255" t="s">
+      <c r="A104" s="265" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -33552,7 +33805,7 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="254"/>
+      <c r="A105" s="264"/>
       <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
@@ -33572,10 +33825,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="251" t="s">
+      <c r="A106" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="252"/>
+      <c r="B106" s="268"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -37265,11 +37518,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -37277,18 +37537,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37309,7 +37562,7 @@
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37340,7 +37593,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="267" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -37357,7 +37610,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="253"/>
+      <c r="A4" s="267"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -37372,7 +37625,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="253"/>
+      <c r="A5" s="267"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -37387,7 +37640,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="253"/>
+      <c r="A6" s="267"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -37402,7 +37655,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="253"/>
+      <c r="A7" s="267"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -37417,7 +37670,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="253"/>
+      <c r="A8" s="267"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -37432,7 +37685,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="253"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -37447,7 +37700,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="253"/>
+      <c r="A10" s="267"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -37462,7 +37715,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="253"/>
+      <c r="A11" s="267"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -37477,7 +37730,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="253"/>
+      <c r="A12" s="267"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -37493,7 +37746,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="253"/>
+      <c r="A13" s="267"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -37507,7 +37760,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="254"/>
+      <c r="A14" s="264"/>
       <c r="B14" s="110" t="s">
         <v>47</v>
       </c>
@@ -37562,7 +37815,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="253" t="s">
+      <c r="A18" s="267" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -37580,7 +37833,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="253"/>
+      <c r="A19" s="267"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -37594,7 +37847,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="254"/>
+      <c r="A20" s="264"/>
       <c r="B20" s="111" t="s">
         <v>50</v>
       </c>
@@ -37610,7 +37863,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="255" t="s">
+      <c r="A21" s="265" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -37628,7 +37881,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="256"/>
+      <c r="A22" s="269"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -37644,7 +37897,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="256"/>
+      <c r="A23" s="269"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -37660,7 +37913,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="256"/>
+      <c r="A24" s="269"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -37674,7 +37927,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="254"/>
+      <c r="A25" s="264"/>
       <c r="B25" s="111" t="s">
         <v>53</v>
       </c>
@@ -37690,7 +37943,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="253" t="s">
+      <c r="A26" s="267" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -37708,7 +37961,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="253"/>
+      <c r="A27" s="267"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -37724,7 +37977,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="253"/>
+      <c r="A28" s="267"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -37740,7 +37993,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="253"/>
+      <c r="A29" s="267"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -37756,7 +38009,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
+      <c r="A30" s="267"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -37772,7 +38025,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="253"/>
+      <c r="A31" s="267"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -37788,7 +38041,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="253"/>
+      <c r="A32" s="267"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -37804,7 +38057,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="253"/>
+      <c r="A33" s="267"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -37820,7 +38073,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="253"/>
+      <c r="A34" s="267"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -37836,7 +38089,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="253"/>
+      <c r="A35" s="267"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -37852,7 +38105,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="253"/>
+      <c r="A36" s="267"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -37868,7 +38121,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="253"/>
+      <c r="A37" s="267"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -37882,7 +38135,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="254"/>
+      <c r="A38" s="264"/>
       <c r="B38" s="111" t="s">
         <v>70</v>
       </c>
@@ -37898,7 +38151,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="255" t="s">
+      <c r="A39" s="265" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -37916,7 +38169,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="254"/>
+      <c r="A40" s="264"/>
       <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
@@ -37932,10 +38185,10 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="251" t="s">
+      <c r="A41" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="252"/>
+      <c r="B41" s="268"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -37963,10 +38216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38013,13 +38266,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="290" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="262" t="s">
+      <c r="B2" s="277" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="262" t="s">
+      <c r="C2" s="277" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="176" t="s">
@@ -38043,9 +38296,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="269"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
+      <c r="A3" s="291"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
       <c r="D3" s="176" t="s">
         <v>150</v>
       </c>
@@ -38062,16 +38315,16 @@
         <v>8265</v>
       </c>
       <c r="I3" s="177">
-        <f t="shared" ref="I3:I33" si="0">H3+G3</f>
+        <f t="shared" ref="I3:I35" si="0">H3+G3</f>
         <v>8735</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="269"/>
-      <c r="B4" s="262" t="s">
+      <c r="A4" s="291"/>
+      <c r="B4" s="277" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="262" t="s">
+      <c r="C4" s="277" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="176" t="s">
@@ -38095,9 +38348,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="269"/>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
+      <c r="A5" s="291"/>
+      <c r="B5" s="278"/>
+      <c r="C5" s="278"/>
       <c r="D5" s="176" t="s">
         <v>152</v>
       </c>
@@ -38119,11 +38372,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="269"/>
-      <c r="B6" s="262" t="s">
+      <c r="A6" s="291"/>
+      <c r="B6" s="277" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="262" t="s">
+      <c r="C6" s="277" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="176" t="s">
@@ -38147,9 +38400,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="269"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
+      <c r="A7" s="291"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="176" t="s">
         <v>154</v>
       </c>
@@ -38171,7 +38424,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="270"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -38194,13 +38447,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="293" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="277" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="304" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="160" t="s">
@@ -38224,9 +38477,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="272"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="261"/>
+      <c r="A10" s="294"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="305"/>
       <c r="D10" s="181" t="s">
         <v>156</v>
       </c>
@@ -38248,7 +38501,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="273"/>
+      <c r="A11" s="295"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -38268,13 +38521,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="296" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="280" t="s">
+      <c r="B12" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="282" t="s">
+      <c r="C12" s="270" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="176" t="s">
@@ -38290,18 +38543,18 @@
         <v>7157</v>
       </c>
       <c r="H12" s="177">
-        <v>47410</v>
+        <v>47070</v>
       </c>
       <c r="I12" s="177">
         <f t="shared" si="0"/>
-        <v>54567</v>
+        <v>54227</v>
       </c>
       <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="275"/>
-      <c r="B13" s="281"/>
-      <c r="C13" s="283"/>
+      <c r="A13" s="297"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="271"/>
       <c r="D13" s="176" t="s">
         <v>158</v>
       </c>
@@ -38315,61 +38568,71 @@
         <v>1203</v>
       </c>
       <c r="H13" s="177">
-        <v>8366</v>
+        <v>8306</v>
       </c>
       <c r="I13" s="177">
         <f t="shared" si="0"/>
-        <v>9569</v>
+        <v>9509</v>
       </c>
       <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="275"/>
-      <c r="B14" s="266" t="s">
+      <c r="A14" s="297"/>
+      <c r="B14" s="281" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="283"/>
+      <c r="C14" s="271"/>
       <c r="D14" s="176" t="s">
         <v>161</v>
       </c>
       <c r="E14" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="177"/>
-      <c r="G14" s="161"/>
+      <c r="F14" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="161">
+        <f>-2520 - 35</f>
+        <v>-2555</v>
+      </c>
       <c r="H14" s="177">
-        <v>21280</v>
+        <v>23800</v>
       </c>
       <c r="I14" s="177">
         <f t="shared" si="0"/>
-        <v>21280</v>
+        <v>21245</v>
       </c>
       <c r="J14" s="171">
         <v>-2520</v>
       </c>
       <c r="L14" s="163">
         <f>H14-K14</f>
-        <v>21280</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="275"/>
-      <c r="B15" s="320"/>
-      <c r="C15" s="283"/>
+      <c r="A15" s="297"/>
+      <c r="B15" s="286"/>
+      <c r="C15" s="271"/>
       <c r="D15" s="176" t="s">
         <v>162</v>
       </c>
       <c r="E15" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="161"/>
+      <c r="F15" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="161">
+        <f>-445 - 7</f>
+        <v>-452</v>
+      </c>
       <c r="H15" s="177">
-        <v>3755</v>
+        <v>4200</v>
       </c>
       <c r="I15" s="177">
         <f>H15+G15</f>
-        <v>3755</v>
+        <v>3748</v>
       </c>
       <c r="J15" s="171">
         <v>-445</v>
@@ -38377,45 +38640,63 @@
       <c r="L15" s="163"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="275"/>
-      <c r="B16" s="321" t="s">
+      <c r="A16" s="297"/>
+      <c r="B16" s="287" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="283"/>
+      <c r="C16" s="271"/>
       <c r="D16" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
+      <c r="E16" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="177" t="s">
+        <v>166</v>
+      </c>
       <c r="G16" s="161">
         <v>50</v>
       </c>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="H16" s="177">
+        <v>340</v>
+      </c>
+      <c r="I16" s="177">
+        <f>G16+H16</f>
+        <v>390</v>
+      </c>
       <c r="J16" s="171"/>
       <c r="L16" s="163"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="275"/>
-      <c r="B17" s="321"/>
-      <c r="C17" s="284"/>
+      <c r="A17" s="297"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="272"/>
       <c r="D17" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
+      <c r="E17" s="176" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="176" t="s">
+        <v>166</v>
+      </c>
       <c r="G17" s="176">
         <v>30</v>
       </c>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="H17" s="176">
+        <v>60</v>
+      </c>
+      <c r="I17" s="176">
+        <f>G17+H17</f>
+        <v>90</v>
+      </c>
       <c r="L17" s="163">
         <f>H15-K17</f>
-        <v>3755</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="276"/>
+      <c r="A18" s="298"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
@@ -38425,24 +38706,27 @@
       <c r="F18" s="155">
         <v>17136</v>
       </c>
-      <c r="G18" s="156"/>
+      <c r="G18" s="156">
+        <f>SUM(G12:G17)</f>
+        <v>5433</v>
+      </c>
       <c r="H18" s="155">
-        <f>SUM(H12:H15)</f>
-        <v>80811</v>
+        <f>SUM(H12:H17)</f>
+        <v>83776</v>
       </c>
       <c r="I18" s="155">
         <f>SUM(I12:I15)</f>
-        <v>89171</v>
+        <v>88729</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="277" t="s">
+      <c r="A19" s="299" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="277" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="289" t="s">
+      <c r="C19" s="279" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="160" t="s">
@@ -38467,9 +38751,9 @@
       <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="278"/>
-      <c r="B20" s="263"/>
-      <c r="C20" s="290"/>
+      <c r="A20" s="300"/>
+      <c r="B20" s="278"/>
+      <c r="C20" s="280"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -38491,11 +38775,11 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="278"/>
-      <c r="B21" s="262" t="s">
+      <c r="A21" s="300"/>
+      <c r="B21" s="277" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="266" t="s">
+      <c r="C21" s="281" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="176" t="s">
@@ -38511,17 +38795,20 @@
         <v>12138</v>
       </c>
       <c r="H21" s="162">
-        <v>20230</v>
+        <v>18636</v>
       </c>
       <c r="I21" s="162">
         <f t="shared" si="0"/>
-        <v>32368</v>
+        <v>30774</v>
+      </c>
+      <c r="J21" s="117">
+        <v>20230</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="278"/>
-      <c r="B22" s="293"/>
-      <c r="C22" s="267"/>
+      <c r="A22" s="300"/>
+      <c r="B22" s="285"/>
+      <c r="C22" s="282"/>
       <c r="D22" s="176" t="s">
         <v>162</v>
       </c>
@@ -38535,17 +38822,17 @@
         <v>2142</v>
       </c>
       <c r="H22" s="162">
-        <v>3570</v>
+        <v>3289</v>
       </c>
       <c r="I22" s="162">
         <f t="shared" si="0"/>
-        <v>5712</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="278"/>
-      <c r="B23" s="293"/>
-      <c r="C23" s="266" t="s">
+      <c r="A23" s="300"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="281" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="176" t="s">
@@ -38569,9 +38856,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="278"/>
-      <c r="B24" s="293"/>
-      <c r="C24" s="267"/>
+      <c r="A24" s="300"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="282"/>
       <c r="D24" s="176" t="s">
         <v>162</v>
       </c>
@@ -38593,9 +38880,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="278"/>
-      <c r="B25" s="293"/>
-      <c r="C25" s="266" t="s">
+      <c r="A25" s="300"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="281" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="176" t="s">
@@ -38611,17 +38898,17 @@
         <v>4855</v>
       </c>
       <c r="H25" s="162">
-        <v>25894</v>
+        <v>25724</v>
       </c>
       <c r="I25" s="162">
         <f t="shared" si="0"/>
-        <v>30749</v>
+        <v>30579</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="278"/>
-      <c r="B26" s="293"/>
-      <c r="C26" s="267"/>
+      <c r="A26" s="300"/>
+      <c r="B26" s="285"/>
+      <c r="C26" s="282"/>
       <c r="D26" s="176" t="s">
         <v>162</v>
       </c>
@@ -38635,17 +38922,17 @@
         <v>857</v>
       </c>
       <c r="H26" s="162">
-        <v>4570</v>
+        <v>4540</v>
       </c>
       <c r="I26" s="162">
         <f t="shared" si="0"/>
-        <v>5427</v>
+        <v>5397</v>
       </c>
       <c r="M26" s="170"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="278"/>
-      <c r="B27" s="263"/>
+      <c r="A27" s="300"/>
+      <c r="B27" s="278"/>
       <c r="C27" s="186"/>
       <c r="D27" s="187"/>
       <c r="E27" s="183">
@@ -38662,235 +38949,279 @@
       </c>
       <c r="H27" s="184">
         <f>SUM(H21:H26)</f>
-        <v>71400</v>
+        <v>69325</v>
       </c>
       <c r="I27" s="184">
-        <f t="shared" si="0"/>
-        <v>101388</v>
+        <f>SUM(I21:I26)</f>
+        <v>99313</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="278"/>
+      <c r="A28" s="300"/>
       <c r="B28" s="287" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="281" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="322"/>
+      <c r="F28" s="323"/>
+      <c r="G28" s="324"/>
+      <c r="H28" s="323">
+        <v>170</v>
+      </c>
+      <c r="I28" s="323"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="300"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="282"/>
+      <c r="D29" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="322"/>
+      <c r="F29" s="323"/>
+      <c r="G29" s="324"/>
+      <c r="H29" s="323">
+        <v>30</v>
+      </c>
+      <c r="I29" s="323"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="300"/>
+      <c r="B30" s="275" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="291" t="s">
+      <c r="C30" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D30" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="123">
+      <c r="E30" s="123">
         <v>8092</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F30" s="123">
         <v>4046</v>
       </c>
-      <c r="G28" s="124">
+      <c r="G30" s="124">
         <v>4046</v>
       </c>
-      <c r="H28" s="162">
+      <c r="H30" s="162">
         <v>4046</v>
       </c>
-      <c r="I28" s="162">
+      <c r="I30" s="162">
         <f t="shared" si="0"/>
         <v>8092</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="278"/>
-      <c r="B29" s="288"/>
-      <c r="C29" s="292"/>
-      <c r="D29" s="126" t="s">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="300"/>
+      <c r="B31" s="276"/>
+      <c r="C31" s="284"/>
+      <c r="D31" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E31" s="123">
         <v>1428</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F31" s="123">
         <v>714</v>
       </c>
-      <c r="G29" s="126">
+      <c r="G31" s="126">
         <v>714</v>
       </c>
-      <c r="H29" s="162">
+      <c r="H31" s="162">
         <v>714</v>
       </c>
-      <c r="I29" s="162">
+      <c r="I31" s="162">
         <f t="shared" si="0"/>
         <v>1428</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="279"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165">
-        <f>SUM(E19:E29)</f>
-        <v>226576</v>
-      </c>
-      <c r="F30" s="165">
-        <f>SUM(F19:F29)</f>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="301"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165">
+        <f>SUM(E19:E26,E30,E31)</f>
+        <v>125188</v>
+      </c>
+      <c r="F32" s="165">
+        <f>SUM(F19:F31)</f>
         <v>69496</v>
       </c>
-      <c r="G30" s="164"/>
-      <c r="H30" s="165">
-        <f>SUM(H19:H29)</f>
-        <v>157080</v>
-      </c>
-      <c r="I30" s="165">
+      <c r="G32" s="326">
+        <f>SUM(G19:G26,G28,G29,G30,G31)</f>
+        <v>39508</v>
+      </c>
+      <c r="H32" s="165">
+        <f>SUM(H19:H26,H28,H29,H30,H31)</f>
+        <v>83805</v>
+      </c>
+      <c r="I32" s="165">
         <f t="shared" si="0"/>
-        <v>157080</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="264" t="s">
+        <v>123313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B33" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="310" t="s">
+      <c r="C33" s="119"/>
+      <c r="D33" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="311">
+      <c r="E33" s="239">
         <v>0</v>
       </c>
-      <c r="F31" s="312">
+      <c r="F33" s="240">
         <v>0</v>
       </c>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314">
+      <c r="G33" s="241"/>
+      <c r="H33" s="242">
         <v>0</v>
       </c>
-      <c r="I31" s="314">
+      <c r="I33" s="242">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="265"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="315"/>
-      <c r="E32" s="316">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="289"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244">
         <v>0</v>
       </c>
-      <c r="F32" s="317">
+      <c r="F34" s="245">
         <v>0</v>
       </c>
-      <c r="G32" s="318"/>
-      <c r="H32" s="319">
+      <c r="G34" s="246"/>
+      <c r="H34" s="247">
         <v>0</v>
       </c>
-      <c r="I32" s="319">
+      <c r="I34" s="247">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A33" s="129"/>
-      <c r="B33" s="285" t="s">
+    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A35" s="129"/>
+      <c r="B35" s="273" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="285"/>
-      <c r="D33" s="286"/>
-      <c r="E33" s="157">
+      <c r="C35" s="273"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="157">
         <v>333598.7928</v>
       </c>
-      <c r="F33" s="158">
+      <c r="F35" s="158">
         <v>96248.53839999999</v>
       </c>
-      <c r="G33" s="167"/>
-      <c r="H33" s="159">
+      <c r="G35" s="167"/>
+      <c r="H35" s="159">
         <v>237349.97440000001</v>
       </c>
-      <c r="I33" s="159">
+      <c r="I35" s="159">
         <f t="shared" si="0"/>
         <v>237349.97440000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="173" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="174">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="173" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="172">
-        <v>2965.26</v>
-      </c>
-    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C38" s="173" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="174">
-        <v>2276.9</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" s="173" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="172">
+        <v>2965.26</v>
+      </c>
+      <c r="E39" s="120">
+        <v>2520</v>
+      </c>
+      <c r="F39" s="120">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="174">
+        <v>2276.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="174">
+      <c r="D41" s="174">
         <v>3015.88</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="175"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="118" t="s">
-        <v>197</v>
-      </c>
-    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="118" t="s">
-        <v>198</v>
-      </c>
+      <c r="C42" s="175"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" s="118" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="D43" s="120">
+        <v>1875</v>
+      </c>
+      <c r="E43" s="120">
+        <v>1594</v>
+      </c>
+      <c r="F43" s="120">
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" s="118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" s="118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="118" t="s">
         <v>201</v>
       </c>
+      <c r="D47" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="325" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A30"/>
+  <mergeCells count="28">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -38900,6 +39231,25 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38912,7 +39262,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="A1:R4"/>
+      <selection activeCell="O3" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38924,81 +39274,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="307" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="307" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="305" t="s">
+      <c r="C1" s="307" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="304" t="s">
+      <c r="D1" s="306" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="306" t="s">
+      <c r="E1" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="304" t="s">
+      <c r="F1" s="306" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="304" t="s">
+      <c r="G1" s="306" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="304" t="s">
+      <c r="H1" s="306" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="304" t="s">
+      <c r="I1" s="306" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="304" t="s">
+      <c r="J1" s="306" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304" t="s">
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="304"/>
-      <c r="O1" s="304"/>
-      <c r="P1" s="304"/>
-      <c r="Q1" s="304"/>
-      <c r="R1" s="304"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="305"/>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304" t="s">
+      <c r="A2" s="307"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304" t="s">
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="306"/>
+      <c r="Q2" s="306"/>
+      <c r="R2" s="306"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="305"/>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
+      <c r="A3" s="307"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
       <c r="J3" s="188">
         <v>4420</v>
       </c>
@@ -39028,35 +39378,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="295" t="s">
+      <c r="A4" s="309" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="297"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="310"/>
+      <c r="R4" s="311"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="298" t="s">
+      <c r="A5" s="312" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="302">
+      <c r="B5" s="313">
         <v>44446</v>
       </c>
-      <c r="C5" s="303">
+      <c r="C5" s="314">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
@@ -39095,9 +39445,9 @@
       <c r="R5" s="190"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="298"/>
-      <c r="B6" s="302"/>
-      <c r="C6" s="303"/>
+      <c r="A6" s="312"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="314"/>
       <c r="D6" s="190" t="s">
         <v>94</v>
       </c>
@@ -39133,9 +39483,9 @@
       <c r="R6" s="190"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="298"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="303"/>
+      <c r="A7" s="312"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="314"/>
       <c r="D7" s="190" t="s">
         <v>103</v>
       </c>
@@ -39171,9 +39521,9 @@
       <c r="R7" s="190"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="298"/>
-      <c r="B8" s="302"/>
-      <c r="C8" s="303"/>
+      <c r="A8" s="312"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="314"/>
       <c r="D8" s="190" t="s">
         <v>95</v>
       </c>
@@ -39209,9 +39559,9 @@
       <c r="R8" s="190"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="298"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="303"/>
+      <c r="A9" s="312"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="314"/>
       <c r="D9" s="190" t="s">
         <v>87</v>
       </c>
@@ -39247,9 +39597,9 @@
       <c r="R9" s="190"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="298"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="303"/>
+      <c r="A10" s="312"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="314"/>
       <c r="D10" s="190" t="s">
         <v>91</v>
       </c>
@@ -39285,9 +39635,9 @@
       <c r="R10" s="190"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="298"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="303"/>
+      <c r="A11" s="312"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="314"/>
       <c r="D11" s="190" t="s">
         <v>90</v>
       </c>
@@ -39323,9 +39673,9 @@
       <c r="R11" s="190"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="298"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="303"/>
+      <c r="A12" s="312"/>
+      <c r="B12" s="313"/>
+      <c r="C12" s="314"/>
       <c r="D12" s="190" t="s">
         <v>106</v>
       </c>
@@ -39361,9 +39711,9 @@
       <c r="R12" s="190"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="298"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="303"/>
+      <c r="A13" s="312"/>
+      <c r="B13" s="313"/>
+      <c r="C13" s="314"/>
       <c r="D13" s="190" t="s">
         <v>100</v>
       </c>
@@ -39399,9 +39749,9 @@
       <c r="R13" s="190"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="298"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="303"/>
+      <c r="A14" s="312"/>
+      <c r="B14" s="313"/>
+      <c r="C14" s="314"/>
       <c r="D14" s="190" t="s">
         <v>181</v>
       </c>
@@ -39433,9 +39783,9 @@
       <c r="R14" s="190"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="298"/>
-      <c r="B15" s="302"/>
-      <c r="C15" s="303"/>
+      <c r="A15" s="312"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="314"/>
       <c r="D15" s="190" t="s">
         <v>182</v>
       </c>
@@ -39467,13 +39817,13 @@
       <c r="R15" s="190"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="298" t="s">
+      <c r="A16" s="312" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="302">
+      <c r="B16" s="313">
         <v>44446</v>
       </c>
-      <c r="C16" s="303">
+      <c r="C16" s="314">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
@@ -39512,9 +39862,9 @@
       <c r="R16" s="190"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="298"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="303"/>
+      <c r="A17" s="312"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="314"/>
       <c r="D17" s="190" t="s">
         <v>92</v>
       </c>
@@ -39550,9 +39900,9 @@
       <c r="R17" s="190"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="298"/>
-      <c r="B18" s="302"/>
-      <c r="C18" s="303"/>
+      <c r="A18" s="312"/>
+      <c r="B18" s="313"/>
+      <c r="C18" s="314"/>
       <c r="D18" s="190" t="s">
         <v>99</v>
       </c>
@@ -39588,9 +39938,9 @@
       <c r="R18" s="190"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="298"/>
-      <c r="B19" s="302"/>
-      <c r="C19" s="303"/>
+      <c r="A19" s="312"/>
+      <c r="B19" s="313"/>
+      <c r="C19" s="314"/>
       <c r="D19" s="190" t="s">
         <v>86</v>
       </c>
@@ -39626,9 +39976,9 @@
       <c r="R19" s="190"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="298"/>
-      <c r="B20" s="302"/>
-      <c r="C20" s="303"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="313"/>
+      <c r="C20" s="314"/>
       <c r="D20" s="190" t="s">
         <v>89</v>
       </c>
@@ -39664,9 +40014,9 @@
       <c r="R20" s="190"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="298"/>
-      <c r="B21" s="302"/>
-      <c r="C21" s="303"/>
+      <c r="A21" s="312"/>
+      <c r="B21" s="313"/>
+      <c r="C21" s="314"/>
       <c r="D21" s="190" t="s">
         <v>104</v>
       </c>
@@ -39702,9 +40052,9 @@
       <c r="R21" s="206"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="298"/>
-      <c r="B22" s="302"/>
-      <c r="C22" s="303"/>
+      <c r="A22" s="312"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="314"/>
       <c r="D22" s="190" t="s">
         <v>100</v>
       </c>
@@ -39740,9 +40090,9 @@
       <c r="R22" s="206"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="298"/>
-      <c r="B23" s="302"/>
-      <c r="C23" s="303"/>
+      <c r="A23" s="312"/>
+      <c r="B23" s="313"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="190" t="s">
         <v>181</v>
       </c>
@@ -39774,9 +40124,9 @@
       <c r="R23" s="206"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="298"/>
-      <c r="B24" s="302"/>
-      <c r="C24" s="303"/>
+      <c r="A24" s="312"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="314"/>
       <c r="D24" s="190" t="s">
         <v>182</v>
       </c>
@@ -39852,35 +40202,35 @@
       <c r="R25" s="206"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="295" t="s">
+      <c r="A26" s="309" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="296"/>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
-      <c r="E26" s="296"/>
-      <c r="F26" s="296"/>
-      <c r="G26" s="296"/>
-      <c r="H26" s="296"/>
-      <c r="I26" s="296"/>
-      <c r="J26" s="296"/>
-      <c r="K26" s="296"/>
-      <c r="L26" s="296"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="296"/>
-      <c r="O26" s="296"/>
-      <c r="P26" s="296"/>
-      <c r="Q26" s="296"/>
-      <c r="R26" s="297"/>
+      <c r="B26" s="310"/>
+      <c r="C26" s="310"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="310"/>
+      <c r="F26" s="310"/>
+      <c r="G26" s="310"/>
+      <c r="H26" s="310"/>
+      <c r="I26" s="310"/>
+      <c r="J26" s="310"/>
+      <c r="K26" s="310"/>
+      <c r="L26" s="310"/>
+      <c r="M26" s="310"/>
+      <c r="N26" s="310"/>
+      <c r="O26" s="310"/>
+      <c r="P26" s="310"/>
+      <c r="Q26" s="310"/>
+      <c r="R26" s="311"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="312" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="299">
+      <c r="B27" s="316">
         <v>44516</v>
       </c>
-      <c r="C27" s="300">
+      <c r="C27" s="317">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -39919,9 +40269,9 @@
       <c r="R27" s="206"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="298"/>
-      <c r="B28" s="299"/>
-      <c r="C28" s="301"/>
+      <c r="A28" s="312"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="318"/>
       <c r="D28" s="216" t="s">
         <v>119</v>
       </c>
@@ -39957,9 +40307,9 @@
       <c r="R28" s="206"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="298"/>
-      <c r="B29" s="299"/>
-      <c r="C29" s="301"/>
+      <c r="A29" s="312"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="318"/>
       <c r="D29" s="216" t="s">
         <v>117</v>
       </c>
@@ -39995,9 +40345,9 @@
       <c r="R29" s="206"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="298"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="301"/>
+      <c r="A30" s="312"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="318"/>
       <c r="D30" s="190" t="s">
         <v>111</v>
       </c>
@@ -40033,9 +40383,9 @@
       <c r="R30" s="206"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="298"/>
-      <c r="B31" s="299"/>
-      <c r="C31" s="301"/>
+      <c r="A31" s="312"/>
+      <c r="B31" s="316"/>
+      <c r="C31" s="318"/>
       <c r="D31" s="190" t="s">
         <v>181</v>
       </c>
@@ -40067,13 +40417,13 @@
       <c r="R31" s="206"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="298" t="s">
+      <c r="A32" s="312" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="299">
+      <c r="B32" s="316">
         <v>44516</v>
       </c>
-      <c r="C32" s="300">
+      <c r="C32" s="317">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -40112,9 +40462,9 @@
       <c r="R32" s="206"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="298"/>
-      <c r="B33" s="299"/>
-      <c r="C33" s="301"/>
+      <c r="A33" s="312"/>
+      <c r="B33" s="316"/>
+      <c r="C33" s="318"/>
       <c r="D33" s="216" t="s">
         <v>114</v>
       </c>
@@ -40150,9 +40500,9 @@
       <c r="R33" s="206"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="298"/>
-      <c r="B34" s="299"/>
-      <c r="C34" s="301"/>
+      <c r="A34" s="312"/>
+      <c r="B34" s="316"/>
+      <c r="C34" s="318"/>
       <c r="D34" s="216" t="s">
         <v>113</v>
       </c>
@@ -40188,9 +40538,9 @@
       <c r="R34" s="206"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="298"/>
-      <c r="B35" s="299"/>
-      <c r="C35" s="301"/>
+      <c r="A35" s="312"/>
+      <c r="B35" s="316"/>
+      <c r="C35" s="318"/>
       <c r="D35" s="190" t="s">
         <v>181</v>
       </c>
@@ -40310,16 +40660,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="294" t="s">
+      <c r="A38" s="315" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="294"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="294"/>
-      <c r="E38" s="294"/>
-      <c r="F38" s="294"/>
-      <c r="G38" s="294"/>
-      <c r="H38" s="294"/>
+      <c r="B38" s="315"/>
+      <c r="C38" s="315"/>
+      <c r="D38" s="315"/>
+      <c r="E38" s="315"/>
+      <c r="F38" s="315"/>
+      <c r="G38" s="315"/>
+      <c r="H38" s="315"/>
       <c r="I38" s="208">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -40363,26 +40713,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -40391,6 +40721,26 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40418,71 +40768,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="307" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="307" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="305" t="s">
+      <c r="C1" s="307" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="304" t="s">
+      <c r="D1" s="306" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="306" t="s">
+      <c r="E1" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="304" t="s">
+      <c r="F1" s="306" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="304" t="s">
+      <c r="G1" s="306" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="304" t="s">
+      <c r="H1" s="306" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="304" t="s">
+      <c r="I1" s="306" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="304" t="s">
+      <c r="J1" s="306" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="304"/>
-      <c r="O1" s="304"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
     </row>
     <row r="2" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="305"/>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304" t="s">
+      <c r="A2" s="307"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
     </row>
     <row r="3" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="305"/>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
+      <c r="A3" s="307"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
       <c r="J3" s="188">
         <v>4428</v>
       </c>
@@ -40503,23 +40853,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="295" t="s">
+      <c r="A4" s="309" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="297"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="311"/>
     </row>
     <row r="5" spans="1:15" s="232" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="207" t="s">
@@ -40559,23 +40909,23 @@
       <c r="O5" s="190"/>
     </row>
     <row r="6" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="295" t="s">
+      <c r="A6" s="309" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="296"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="297"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="310"/>
+      <c r="E6" s="310"/>
+      <c r="F6" s="310"/>
+      <c r="G6" s="310"/>
+      <c r="H6" s="310"/>
+      <c r="I6" s="310"/>
+      <c r="J6" s="310"/>
+      <c r="K6" s="310"/>
+      <c r="L6" s="310"/>
+      <c r="M6" s="310"/>
+      <c r="N6" s="310"/>
+      <c r="O6" s="311"/>
     </row>
     <row r="7" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="234"/>
@@ -40867,17 +41217,17 @@
       <c r="O23" s="190"/>
     </row>
     <row r="24" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="307" t="s">
+      <c r="A24" s="319" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="308"/>
-      <c r="C24" s="308"/>
-      <c r="D24" s="308"/>
-      <c r="E24" s="308"/>
-      <c r="F24" s="308"/>
-      <c r="G24" s="308"/>
-      <c r="H24" s="308"/>
-      <c r="I24" s="309"/>
+      <c r="B24" s="320"/>
+      <c r="C24" s="320"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="321"/>
       <c r="J24" s="235"/>
       <c r="K24" s="235"/>
       <c r="L24" s="236">

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05C42C-8ED4-4369-A2A1-62A2002D2FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL BUDGET" sheetId="1" r:id="rId1"/>
     <sheet name="PP1" sheetId="3" r:id="rId2"/>
-    <sheet name="Arkusz1" sheetId="8" r:id="rId3"/>
+    <sheet name="Zbiorczy" sheetId="8" r:id="rId3"/>
     <sheet name="Budżet " sheetId="9" r:id="rId4"/>
     <sheet name="Koszty I etap" sheetId="10" r:id="rId5"/>
     <sheet name="Koszty II etap" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marion Cugnet</author>
   </authors>
   <commentList>
-    <comment ref="B38" authorId="0" shapeId="0">
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,12 +86,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jarosz Wojciech</author>
   </authors>
   <commentList>
-    <comment ref="D33" authorId="0" shapeId="0">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0">
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -224,12 +225,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>QQ Factory</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -611,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="207">
   <si>
     <r>
       <rPr>
@@ -1298,11 +1299,17 @@
   <si>
     <t>sciągnąć z 4300 obu linii</t>
   </si>
+  <si>
+    <t>2022 na dzien 25.05.2022</t>
+  </si>
+  <si>
+    <t>podsuma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1312,7 +1319,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ &quot;zł&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0\ _z_ł"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1607,14 +1614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1752,7 +1751,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1937,18 +1936,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2328,7 +2315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2628,14 +2615,14 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,22 +2634,22 @@
     <xf numFmtId="168" fontId="36" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="36" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="36" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2701,13 +2688,13 @@
     <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="34" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,9 +2730,6 @@
     <xf numFmtId="169" fontId="34" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2764,7 +2748,7 @@
     <xf numFmtId="169" fontId="37" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2774,7 +2758,7 @@
     <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2783,18 +2767,18 @@
     <xf numFmtId="0" fontId="37" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2818,188 +2802,176 @@
     <xf numFmtId="168" fontId="37" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="49" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="52" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="52" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="44" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="51" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="53" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="52" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="34" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3027,10 +2999,8 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3039,15 +3009,77 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3067,12 +3099,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3101,121 +3127,118 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="37" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3471,7 +3494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF1863A"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3494,11 +3517,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3613,11 +3636,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="255" t="s">
+      <c r="C5" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="257"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="252"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3670,12 +3693,12 @@
     </row>
     <row r="7" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="255"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3791,7 +3814,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="248" t="s">
+      <c r="A11" s="243" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3826,7 +3849,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="249"/>
+      <c r="A12" s="244"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3859,7 +3882,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="250"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3915,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="248" t="s">
+      <c r="A14" s="243" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3927,7 +3950,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="249"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3960,7 +3983,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="250"/>
+      <c r="A16" s="245"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -3993,7 +4016,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="243" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4028,7 +4051,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="250"/>
+      <c r="A18" s="245"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4084,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="243" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4096,7 +4119,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="249"/>
+      <c r="A20" s="244"/>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -4129,7 +4152,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="249"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -4162,7 +4185,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="249"/>
+      <c r="A22" s="244"/>
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -4195,7 +4218,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="249"/>
+      <c r="A23" s="244"/>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
@@ -4228,7 +4251,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="249"/>
+      <c r="A24" s="244"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -4261,7 +4284,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="250"/>
+      <c r="A25" s="245"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
@@ -4294,7 +4317,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="248" t="s">
+      <c r="A26" s="243" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4329,7 +4352,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="250"/>
+      <c r="A27" s="245"/>
       <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
@@ -4362,10 +4385,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="251" t="s">
+      <c r="A28" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="252"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="16" t="e">
         <f>C13+C16+C18+C25+C27</f>
         <v>#REF!</v>
@@ -4493,7 +4516,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="248" t="s">
+      <c r="A32" s="243" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -4537,7 +4560,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="249"/>
+      <c r="A33" s="244"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -4577,7 +4600,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="250"/>
+      <c r="A34" s="245"/>
       <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
@@ -4619,7 +4642,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="243" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4663,7 +4686,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="249"/>
+      <c r="A36" s="244"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -4705,7 +4728,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="250"/>
+      <c r="A37" s="245"/>
       <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
@@ -4747,7 +4770,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="248" t="s">
+      <c r="A38" s="243" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -4791,7 +4814,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="250"/>
+      <c r="A39" s="245"/>
       <c r="B39" s="15" t="s">
         <v>19</v>
       </c>
@@ -4833,7 +4856,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="248" t="s">
+      <c r="A40" s="243" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -4877,7 +4900,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="249"/>
+      <c r="A41" s="244"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
@@ -4919,7 +4942,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="249"/>
+      <c r="A42" s="244"/>
       <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
@@ -4961,7 +4984,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="249"/>
+      <c r="A43" s="244"/>
       <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
@@ -5003,7 +5026,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="249"/>
+      <c r="A44" s="244"/>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
@@ -5045,7 +5068,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="249"/>
+      <c r="A45" s="244"/>
       <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
@@ -5087,7 +5110,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="250"/>
+      <c r="A46" s="245"/>
       <c r="B46" s="15" t="s">
         <v>27</v>
       </c>
@@ -5129,7 +5152,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="248" t="s">
+      <c r="A47" s="243" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -5173,7 +5196,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="250"/>
+      <c r="A48" s="245"/>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
@@ -5215,10 +5238,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="251" t="s">
+      <c r="A49" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="252"/>
+      <c r="B49" s="247"/>
       <c r="C49" s="16" t="e">
         <f t="shared" ref="C49:F49" si="13">C34+C37+C39+C46+C48</f>
         <v>#REF!</v>
@@ -31919,7 +31942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF32B8C9"/>
     <pageSetUpPr fitToPage="1"/>
@@ -31984,7 +32007,7 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="243" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -31995,7 +32018,7 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
+      <c r="A7" s="244"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -32006,7 +32029,7 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="250"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -32018,7 +32041,7 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="248" t="s">
+      <c r="A9" s="243" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -32029,7 +32052,7 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="249"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -32041,7 +32064,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="250"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -32053,7 +32076,7 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="248" t="s">
+      <c r="A12" s="243" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -32066,7 +32089,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="250"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -32078,7 +32101,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="248" t="s">
+      <c r="A14" s="243" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -32089,7 +32112,7 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="249"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
@@ -32100,7 +32123,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -32111,7 +32134,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -32122,7 +32145,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="249"/>
+      <c r="A18" s="244"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -32133,7 +32156,7 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="249"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
@@ -32144,7 +32167,7 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="250"/>
+      <c r="A20" s="245"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -32156,7 +32179,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="248" t="s">
+      <c r="A21" s="243" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -32169,7 +32192,7 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="250"/>
+      <c r="A22" s="245"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
@@ -32181,10 +32204,10 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="252"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="16">
         <f>C8+C11+C13+C20+C22</f>
         <v>70083.78</v>
@@ -32232,7 +32255,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="248" t="s">
+      <c r="A27" s="243" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -32245,7 +32268,7 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="249"/>
+      <c r="A28" s="244"/>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
@@ -32266,7 +32289,7 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="250"/>
+      <c r="A29" s="245"/>
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -32289,7 +32312,7 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="248" t="s">
+      <c r="A30" s="243" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -32302,7 +32325,7 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
+      <c r="A31" s="244"/>
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -32325,7 +32348,7 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="250"/>
+      <c r="A32" s="245"/>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -32348,7 +32371,7 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="248" t="s">
+      <c r="A33" s="243" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -32371,7 +32394,7 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="250"/>
+      <c r="A34" s="245"/>
       <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
@@ -32394,7 +32417,7 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="243" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -32407,7 +32430,7 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="249"/>
+      <c r="A36" s="244"/>
       <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
@@ -32428,7 +32451,7 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="249"/>
+      <c r="A37" s="244"/>
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
@@ -32449,7 +32472,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="249"/>
+      <c r="A38" s="244"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -32470,7 +32493,7 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="249"/>
+      <c r="A39" s="244"/>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
@@ -32491,7 +32514,7 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="249"/>
+      <c r="A40" s="244"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -32512,7 +32535,7 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="250"/>
+      <c r="A41" s="245"/>
       <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
@@ -32535,7 +32558,7 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="248" t="s">
+      <c r="A42" s="243" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -32557,7 +32580,7 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="250"/>
+      <c r="A43" s="245"/>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
@@ -32579,10 +32602,10 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="251" t="s">
+      <c r="A44" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="252"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="16">
         <f t="shared" ref="C44:F44" si="9">C29+C32+C34+C41+C43</f>
         <v>70083.78</v>
@@ -32670,7 +32693,7 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="264"/>
+      <c r="A50" s="259"/>
       <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
@@ -32720,7 +32743,7 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="264"/>
+      <c r="A52" s="259"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -32744,7 +32767,7 @@
       <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="265" t="s">
+      <c r="A53" s="260" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -32770,7 +32793,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="266"/>
+      <c r="A54" s="264"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -32820,7 +32843,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="267"/>
+      <c r="A56" s="258"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -32844,7 +32867,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="267"/>
+      <c r="A57" s="258"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -32868,7 +32891,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="267"/>
+      <c r="A58" s="258"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -32892,7 +32915,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="267"/>
+      <c r="A59" s="258"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -32916,7 +32939,7 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="264"/>
+      <c r="A60" s="259"/>
       <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
@@ -32940,7 +32963,7 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="265" t="s">
+      <c r="A61" s="260" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -32963,7 +32986,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="266"/>
+      <c r="A62" s="264"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -32987,7 +33010,7 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="261" t="s">
+      <c r="A63" s="256" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="262"/>
@@ -33048,7 +33071,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="267" t="s">
+      <c r="A68" s="258" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33070,7 +33093,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="267"/>
+      <c r="A69" s="258"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33087,7 +33110,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="267"/>
+      <c r="A70" s="258"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33115,7 +33138,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="267"/>
+      <c r="A71" s="258"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33147,7 +33170,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="267"/>
+      <c r="A72" s="258"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33172,7 +33195,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="267"/>
+      <c r="A73" s="258"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33206,7 +33229,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="267"/>
+      <c r="A74" s="258"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33226,7 +33249,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="267"/>
+      <c r="A75" s="258"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33247,7 +33270,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="267"/>
+      <c r="A76" s="258"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33267,7 +33290,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="267"/>
+      <c r="A77" s="258"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -33287,7 +33310,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="267"/>
+      <c r="A78" s="258"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -33305,7 +33328,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="264"/>
+      <c r="A79" s="259"/>
       <c r="B79" s="40" t="s">
         <v>47</v>
       </c>
@@ -33373,7 +33396,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="267" t="s">
+      <c r="A83" s="258" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -33395,7 +33418,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="267"/>
+      <c r="A84" s="258"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -33413,7 +33436,7 @@
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="264"/>
+      <c r="A85" s="259"/>
       <c r="B85" s="15" t="s">
         <v>50</v>
       </c>
@@ -33433,7 +33456,7 @@
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="265" t="s">
+      <c r="A86" s="260" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -33455,7 +33478,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="269"/>
+      <c r="A87" s="261"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -33475,7 +33498,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="269"/>
+      <c r="A88" s="261"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -33495,7 +33518,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="269"/>
+      <c r="A89" s="261"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -33513,7 +33536,7 @@
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="264"/>
+      <c r="A90" s="259"/>
       <c r="B90" s="15" t="s">
         <v>53</v>
       </c>
@@ -33533,7 +33556,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="267" t="s">
+      <c r="A91" s="258" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -33555,7 +33578,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="267"/>
+      <c r="A92" s="258"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -33575,7 +33598,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="267"/>
+      <c r="A93" s="258"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -33595,7 +33618,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="267"/>
+      <c r="A94" s="258"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -33615,7 +33638,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="267"/>
+      <c r="A95" s="258"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -33635,7 +33658,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="267"/>
+      <c r="A96" s="258"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -33654,7 +33677,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="267"/>
+      <c r="A97" s="258"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -33673,7 +33696,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="267"/>
+      <c r="A98" s="258"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -33690,7 +33713,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="267"/>
+      <c r="A99" s="258"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -33707,7 +33730,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="267"/>
+      <c r="A100" s="258"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -33726,7 +33749,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="267"/>
+      <c r="A101" s="258"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -33745,7 +33768,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="267"/>
+      <c r="A102" s="258"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -33763,7 +33786,7 @@
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="264"/>
+      <c r="A103" s="259"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -33783,7 +33806,7 @@
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="265" t="s">
+      <c r="A104" s="260" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -33805,7 +33828,7 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="264"/>
+      <c r="A105" s="259"/>
       <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
@@ -33825,10 +33848,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="261" t="s">
+      <c r="A106" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="268"/>
+      <c r="B106" s="257"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -37518,18 +37541,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -37537,11 +37553,18 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37555,14 +37578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37593,7 +37616,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="258" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -37610,7 +37633,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="267"/>
+      <c r="A4" s="258"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -37625,7 +37648,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="267"/>
+      <c r="A5" s="258"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -37640,7 +37663,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="267"/>
+      <c r="A6" s="258"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -37655,7 +37678,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="267"/>
+      <c r="A7" s="258"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -37670,7 +37693,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="267"/>
+      <c r="A8" s="258"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -37685,7 +37708,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="267"/>
+      <c r="A9" s="258"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -37700,7 +37723,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="267"/>
+      <c r="A10" s="258"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -37715,7 +37738,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="267"/>
+      <c r="A11" s="258"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -37730,7 +37753,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="267"/>
+      <c r="A12" s="258"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -37746,7 +37769,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="267"/>
+      <c r="A13" s="258"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -37760,7 +37783,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="264"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="110" t="s">
         <v>47</v>
       </c>
@@ -37815,7 +37838,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="267" t="s">
+      <c r="A18" s="258" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -37833,7 +37856,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="267"/>
+      <c r="A19" s="258"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -37847,7 +37870,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="264"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="111" t="s">
         <v>50</v>
       </c>
@@ -37863,7 +37886,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="260" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -37881,7 +37904,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="269"/>
+      <c r="A22" s="261"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -37897,7 +37920,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="269"/>
+      <c r="A23" s="261"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -37913,7 +37936,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="269"/>
+      <c r="A24" s="261"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -37927,7 +37950,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="264"/>
+      <c r="A25" s="259"/>
       <c r="B25" s="111" t="s">
         <v>53</v>
       </c>
@@ -37943,7 +37966,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="258" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -37961,7 +37984,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="267"/>
+      <c r="A27" s="258"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -37977,7 +38000,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="267"/>
+      <c r="A28" s="258"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -37993,7 +38016,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="267"/>
+      <c r="A29" s="258"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38009,7 +38032,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="267"/>
+      <c r="A30" s="258"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38025,7 +38048,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="267"/>
+      <c r="A31" s="258"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38041,7 +38064,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="267"/>
+      <c r="A32" s="258"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38057,7 +38080,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
+      <c r="A33" s="258"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38073,7 +38096,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="267"/>
+      <c r="A34" s="258"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38086,10 +38109,14 @@
       <c r="E34" s="74">
         <v>10710</v>
       </c>
+      <c r="F34" s="320">
+        <f>SUM(E33:E34)</f>
+        <v>71400</v>
+      </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="267"/>
+      <c r="A35" s="258"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38105,7 +38132,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="267"/>
+      <c r="A36" s="258"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38121,7 +38148,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="267"/>
+      <c r="A37" s="258"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38135,7 +38162,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="264"/>
+      <c r="A38" s="259"/>
       <c r="B38" s="111" t="s">
         <v>70</v>
       </c>
@@ -38151,7 +38178,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="260" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -38169,7 +38196,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
+      <c r="A40" s="259"/>
       <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
@@ -38185,10 +38212,10 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="261" t="s">
+      <c r="A41" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="268"/>
+      <c r="B41" s="257"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38215,11 +38242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38230,13 +38257,14 @@
     <col min="4" max="4" width="26.5703125" style="120" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="120" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="120" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="120" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="117" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="117"/>
+    <col min="7" max="7" width="20.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="120" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="117" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="144" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="144" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="142" t="s">
         <v>135</v>
       </c>
@@ -38255,176 +38283,191 @@
       <c r="F1" s="143">
         <v>2021</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="165">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="141">
-        <v>2022</v>
-      </c>
       <c r="I1" s="141" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="141" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="177">
+      <c r="E2" s="176">
         <v>74149.614000000001</v>
       </c>
-      <c r="F2" s="177">
+      <c r="F2" s="176">
         <v>27318.149999999998</v>
       </c>
-      <c r="G2" s="177">
+      <c r="G2" s="176">
+        <v>46832</v>
+      </c>
+      <c r="H2" s="176">
         <v>2662</v>
       </c>
-      <c r="H2" s="177">
+      <c r="I2" s="176">
         <v>46831.6</v>
       </c>
-      <c r="I2" s="177">
-        <f>H2+G2</f>
-        <v>49493.599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291"/>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="176" t="s">
+      <c r="J2" s="176">
+        <v>29496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="274"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="176">
         <v>13086</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="176">
         <v>4820.8499999999995</v>
       </c>
-      <c r="G3" s="177">
+      <c r="G3" s="176">
+        <v>8265</v>
+      </c>
+      <c r="H3" s="176">
         <v>470</v>
       </c>
-      <c r="H3" s="177">
+      <c r="I3" s="176">
         <v>8265</v>
       </c>
-      <c r="I3" s="177">
-        <f t="shared" ref="I3:I35" si="0">H3+G3</f>
-        <v>8735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="291"/>
-      <c r="B4" s="277" t="s">
+      <c r="J3" s="176">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="274"/>
+      <c r="B4" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="177">
+      <c r="E4" s="176">
         <v>12746.3195</v>
       </c>
-      <c r="F4" s="177">
+      <c r="F4" s="176">
         <v>4696.25</v>
       </c>
-      <c r="G4" s="177">
+      <c r="G4" s="176">
+        <v>8050</v>
+      </c>
+      <c r="H4" s="176">
         <v>501</v>
       </c>
-      <c r="H4" s="177">
+      <c r="I4" s="176">
         <v>8050.3499999999995</v>
       </c>
-      <c r="I4" s="177">
-        <f t="shared" si="0"/>
-        <v>8551.3499999999985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="176" t="s">
+      <c r="J4" s="176">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="274"/>
+      <c r="B5" s="266"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="176">
         <v>2249.3505</v>
       </c>
-      <c r="F5" s="177">
+      <c r="F5" s="176">
         <v>828.75</v>
       </c>
-      <c r="G5" s="177">
+      <c r="G5" s="176">
+        <v>1421</v>
+      </c>
+      <c r="H5" s="176">
         <v>89</v>
       </c>
-      <c r="H5" s="177">
+      <c r="I5" s="176">
         <v>1420.6499999999999</v>
       </c>
-      <c r="I5" s="177">
-        <f t="shared" si="0"/>
-        <v>1509.6499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="291"/>
-      <c r="B6" s="277" t="s">
+      <c r="J5" s="176">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="274"/>
+      <c r="B6" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="177">
+      <c r="E6" s="176">
         <v>1816.6624999999999</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="176">
         <v>668.94999999999993</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="176">
+        <v>1147</v>
+      </c>
+      <c r="H6" s="176">
         <v>71</v>
       </c>
-      <c r="H6" s="177">
+      <c r="I6" s="176">
         <v>1146.6499999999999</v>
       </c>
-      <c r="I6" s="177">
-        <f t="shared" si="0"/>
-        <v>1217.6499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="291"/>
-      <c r="B7" s="278"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="176" t="s">
+      <c r="J6" s="176">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="274"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="176">
         <v>320.58749999999998</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="176">
         <v>118.05</v>
       </c>
-      <c r="G7" s="161">
+      <c r="G7" s="160">
+        <v>202</v>
+      </c>
+      <c r="H7" s="160">
         <v>13</v>
       </c>
-      <c r="H7" s="177">
+      <c r="I7" s="176">
         <v>202.35</v>
       </c>
-      <c r="I7" s="177">
-        <f t="shared" si="0"/>
-        <v>215.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
+      <c r="J7" s="176">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="275"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -38435,73 +38478,81 @@
         <v>38451</v>
       </c>
       <c r="G8" s="148">
-        <f>G2+G3+G4+G5+G6+G7</f>
+        <f>SUM(G2:G7)</f>
+        <v>65917</v>
+      </c>
+      <c r="H8" s="148">
+        <f>H2+H3+H4+H5+H6+H7</f>
         <v>3806</v>
       </c>
-      <c r="H8" s="121">
+      <c r="I8" s="121">
         <v>65916.600000000006</v>
       </c>
-      <c r="I8" s="121">
-        <f t="shared" si="0"/>
-        <v>69722.600000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="293" t="s">
+      <c r="J8" s="121">
+        <f>SUM(J2:J7)</f>
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="276" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="277" t="s">
+      <c r="B9" s="265" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="304" t="s">
+      <c r="C9" s="269" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="180">
+      <c r="E9" s="179">
         <v>2661.37788</v>
       </c>
-      <c r="F9" s="180">
+      <c r="F9" s="179">
         <v>980.50763999999992</v>
       </c>
-      <c r="G9" s="161">
+      <c r="G9" s="160">
+        <v>1681</v>
+      </c>
+      <c r="H9" s="160">
         <v>981</v>
       </c>
-      <c r="H9" s="180">
+      <c r="I9" s="179">
         <v>1680.8702399999997</v>
       </c>
-      <c r="I9" s="180">
-        <f t="shared" si="0"/>
-        <v>2661.8702399999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="294"/>
-      <c r="B10" s="278"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="181" t="s">
+      <c r="J9" s="179">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="277"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="182">
+      <c r="E10" s="181">
         <v>469.65491999999995</v>
       </c>
-      <c r="F10" s="182">
+      <c r="F10" s="181">
         <v>173.03075999999999</v>
       </c>
-      <c r="G10" s="161">
+      <c r="G10" s="160">
+        <v>297</v>
+      </c>
+      <c r="H10" s="160">
         <v>153</v>
       </c>
-      <c r="H10" s="180">
+      <c r="I10" s="179">
         <v>296.62415999999996</v>
       </c>
-      <c r="I10" s="180">
-        <f t="shared" si="0"/>
-        <v>449.62415999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="295"/>
+      <c r="J10" s="179">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="278"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -38511,249 +38562,273 @@
       <c r="F11" s="150">
         <v>1153.5383999999999</v>
       </c>
-      <c r="G11" s="152"/>
-      <c r="H11" s="151">
+      <c r="G11" s="152">
+        <f>SUM(G9:G10)</f>
+        <v>1978</v>
+      </c>
+      <c r="H11" s="152">
+        <f>SUM(H9:H10)</f>
+        <v>1134</v>
+      </c>
+      <c r="I11" s="151">
         <v>1977.4943999999996</v>
       </c>
-      <c r="I11" s="151">
-        <f t="shared" si="0"/>
-        <v>1977.4943999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="296" t="s">
+      <c r="J11" s="151">
+        <f>SUM(J9:J10)</f>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="279" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="302" t="s">
+      <c r="B12" s="267" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="270" t="s">
+      <c r="C12" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="177">
+      <c r="E12" s="176">
         <v>85775.2</v>
       </c>
-      <c r="F12" s="177">
+      <c r="F12" s="176">
         <v>14565.6</v>
       </c>
-      <c r="G12" s="161">
+      <c r="G12" s="160">
+        <v>71210</v>
+      </c>
+      <c r="H12" s="160">
         <v>7157</v>
       </c>
-      <c r="H12" s="177">
+      <c r="I12" s="176">
         <v>47070</v>
       </c>
-      <c r="I12" s="177">
-        <f t="shared" si="0"/>
+      <c r="J12" s="176">
+        <f>I12+H12</f>
         <v>54227</v>
       </c>
-      <c r="K12" s="163"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="297"/>
-      <c r="B13" s="303"/>
-      <c r="C13" s="271"/>
-      <c r="D13" s="176" t="s">
+      <c r="L12" s="162"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="280"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="177">
+      <c r="E13" s="176">
         <v>15136.8</v>
       </c>
-      <c r="F13" s="177">
+      <c r="F13" s="176">
         <v>2570.4</v>
       </c>
-      <c r="G13" s="161">
+      <c r="G13" s="160">
+        <v>12566</v>
+      </c>
+      <c r="H13" s="160">
         <v>1203</v>
       </c>
-      <c r="H13" s="177">
+      <c r="I13" s="176">
         <v>8306</v>
       </c>
-      <c r="I13" s="177">
-        <f t="shared" si="0"/>
+      <c r="J13" s="176">
+        <f>I13+H13</f>
         <v>9509</v>
       </c>
-      <c r="K13" s="163"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="297"/>
-      <c r="B14" s="281" t="s">
+      <c r="L13" s="162"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="280"/>
+      <c r="B14" s="294" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="271"/>
-      <c r="D14" s="176" t="s">
+      <c r="C14" s="286"/>
+      <c r="D14" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="177" t="s">
+      <c r="E14" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="177" t="s">
+      <c r="F14" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="161">
+      <c r="G14" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="160">
         <f>-2520 - 35</f>
         <v>-2555</v>
       </c>
-      <c r="H14" s="177">
+      <c r="I14" s="176">
         <v>23800</v>
       </c>
-      <c r="I14" s="177">
-        <f t="shared" si="0"/>
+      <c r="J14" s="176">
+        <f>I14+H14</f>
         <v>21245</v>
       </c>
-      <c r="J14" s="171">
-        <v>-2520</v>
-      </c>
-      <c r="L14" s="163">
-        <f>H14-K14</f>
-        <v>23800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="297"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="176" t="s">
+      <c r="K14" s="170"/>
+      <c r="M14" s="162"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="280"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="161">
+      <c r="G15" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="160">
         <f>-445 - 7</f>
         <v>-452</v>
       </c>
-      <c r="H15" s="177">
+      <c r="I15" s="176">
         <v>4200</v>
       </c>
-      <c r="I15" s="177">
-        <f>H15+G15</f>
+      <c r="J15" s="176">
+        <f>I15+H15</f>
         <v>3748</v>
       </c>
-      <c r="J15" s="171">
-        <v>-445</v>
-      </c>
-      <c r="L15" s="163"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="297"/>
-      <c r="B16" s="287" t="s">
+      <c r="K15" s="170"/>
+      <c r="M15" s="162"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="280"/>
+      <c r="B16" s="300" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="271"/>
-      <c r="D16" s="176" t="s">
+      <c r="C16" s="286"/>
+      <c r="D16" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="177" t="s">
+      <c r="F16" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="161">
+      <c r="G16" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="160">
         <v>50</v>
       </c>
-      <c r="H16" s="177">
+      <c r="I16" s="176">
         <v>340</v>
       </c>
-      <c r="I16" s="177">
-        <f>G16+H16</f>
+      <c r="J16" s="176">
+        <f>H16+I16</f>
         <v>390</v>
       </c>
-      <c r="J16" s="171"/>
-      <c r="L16" s="163"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="297"/>
-      <c r="B17" s="287"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="176" t="s">
+      <c r="K16" s="170"/>
+      <c r="M16" s="162"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="280"/>
+      <c r="B17" s="300"/>
+      <c r="C17" s="287"/>
+      <c r="D17" s="175" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="176" t="s">
+      <c r="F17" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="176">
+      <c r="G17" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="175">
         <v>30</v>
       </c>
-      <c r="H17" s="176">
+      <c r="I17" s="175">
         <v>60</v>
       </c>
-      <c r="I17" s="176">
-        <f>G17+H17</f>
+      <c r="J17" s="175">
+        <f>H17+I17</f>
         <v>90</v>
       </c>
-      <c r="L17" s="163">
-        <f>H15-K17</f>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="298"/>
+      <c r="M17" s="162"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="281"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
       <c r="E18" s="154">
+        <f>SUM(E12:E17)</f>
         <v>100912</v>
       </c>
       <c r="F18" s="155">
+        <f>SUM(F12:F17)</f>
         <v>17136</v>
       </c>
-      <c r="G18" s="156">
+      <c r="G18" s="317">
         <f>SUM(G12:G17)</f>
+        <v>83776</v>
+      </c>
+      <c r="H18" s="317">
+        <f>SUM(H12:H17)</f>
         <v>5433</v>
       </c>
-      <c r="H18" s="155">
-        <f>SUM(H12:H17)</f>
+      <c r="I18" s="155">
+        <f>SUM(I12:I17)</f>
         <v>83776</v>
       </c>
-      <c r="I18" s="155">
-        <f>SUM(I12:I15)</f>
-        <v>88729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="299" t="s">
+      <c r="J18" s="155">
+        <f>SUM(J12:J17)</f>
+        <v>89209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="282" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="277" t="s">
+      <c r="B19" s="265" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="279" t="s">
+      <c r="C19" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="159" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="125">
         <v>12138</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="161">
         <v>4046</v>
       </c>
-      <c r="G19" s="161">
+      <c r="G19" s="160">
+        <v>8092</v>
+      </c>
+      <c r="H19" s="160">
         <v>4046</v>
       </c>
-      <c r="H19" s="162">
+      <c r="I19" s="161">
         <v>8092</v>
       </c>
-      <c r="I19" s="162">
-        <f t="shared" si="0"/>
+      <c r="J19" s="161">
+        <f>I19+H19</f>
         <v>12138</v>
       </c>
-      <c r="J19" s="163"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="300"/>
-      <c r="B20" s="278"/>
-      <c r="C20" s="280"/>
+      <c r="K19" s="162"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="283"/>
+      <c r="B20" s="266"/>
+      <c r="C20" s="293"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -38764,464 +38839,623 @@
         <v>714</v>
       </c>
       <c r="G20" s="124">
+        <v>1428</v>
+      </c>
+      <c r="H20" s="124">
         <v>714</v>
       </c>
-      <c r="H20" s="162">
+      <c r="I20" s="161">
         <v>1428</v>
       </c>
-      <c r="I20" s="162">
-        <f t="shared" si="0"/>
+      <c r="J20" s="161">
+        <f>I20+H20</f>
         <v>2142</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="300"/>
-      <c r="B21" s="277" t="s">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="283"/>
+      <c r="B21" s="325"/>
+      <c r="C21" s="326"/>
+      <c r="D21" s="327" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="328">
+        <f>SUM(E19:E20)</f>
+        <v>14280</v>
+      </c>
+      <c r="F21" s="329">
+        <f>SUM(F19:F20)</f>
+        <v>4760</v>
+      </c>
+      <c r="G21" s="330">
+        <f>SUM(G19:G20)</f>
+        <v>9520</v>
+      </c>
+      <c r="H21" s="330">
+        <f>SUM(H19:H20)</f>
+        <v>4760</v>
+      </c>
+      <c r="I21" s="323"/>
+      <c r="J21" s="323"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="283"/>
+      <c r="B22" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="281" t="s">
+      <c r="C22" s="294" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="176" t="s">
+      <c r="D22" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E22" s="176">
         <v>32368</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F22" s="161">
         <v>12138</v>
       </c>
-      <c r="G21" s="178">
+      <c r="G22" s="177">
+        <v>20230</v>
+      </c>
+      <c r="H22" s="177">
         <v>12138</v>
       </c>
-      <c r="H21" s="162">
+      <c r="I22" s="161">
         <v>18636</v>
       </c>
-      <c r="I21" s="162">
-        <f t="shared" si="0"/>
+      <c r="J22" s="161">
+        <f>I22+H22</f>
         <v>30774</v>
       </c>
-      <c r="J21" s="117">
-        <v>20230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="300"/>
-      <c r="B22" s="285"/>
-      <c r="C22" s="282"/>
-      <c r="D22" s="176" t="s">
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="283"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="177">
+      <c r="E23" s="176">
         <v>5712</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F23" s="161">
         <v>2142</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G23" s="160">
+        <v>3570</v>
+      </c>
+      <c r="H23" s="160">
         <v>2142</v>
       </c>
-      <c r="H22" s="162">
+      <c r="I23" s="161">
         <v>3289</v>
       </c>
-      <c r="I22" s="162">
-        <f t="shared" si="0"/>
+      <c r="J23" s="161">
+        <f>I23+H23</f>
         <v>5431</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="300"/>
-      <c r="B23" s="285"/>
-      <c r="C23" s="281" t="s">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="283"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="294" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D24" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="177">
+      <c r="E24" s="176">
         <v>23062</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F24" s="161">
         <v>8497</v>
       </c>
-      <c r="G23" s="161">
+      <c r="G24" s="160">
+        <v>14566</v>
+      </c>
+      <c r="H24" s="160">
         <v>8497</v>
       </c>
-      <c r="H23" s="162">
+      <c r="I24" s="161">
         <v>14566</v>
       </c>
-      <c r="I23" s="162">
-        <f t="shared" si="0"/>
+      <c r="J24" s="161">
+        <f>I24+H24</f>
         <v>23063</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="300"/>
-      <c r="B24" s="285"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="176" t="s">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="283"/>
+      <c r="B25" s="298"/>
+      <c r="C25" s="295"/>
+      <c r="D25" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="177">
+      <c r="E25" s="176">
         <v>4070</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F25" s="161">
         <v>1499</v>
       </c>
-      <c r="G24" s="179">
+      <c r="G25" s="178">
+        <v>2570</v>
+      </c>
+      <c r="H25" s="178">
         <v>1499</v>
       </c>
-      <c r="H24" s="162">
+      <c r="I25" s="161">
         <v>2570</v>
       </c>
-      <c r="I24" s="162">
-        <f t="shared" si="0"/>
+      <c r="J25" s="161">
+        <f>I25+H25</f>
         <v>4069</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="300"/>
-      <c r="B25" s="285"/>
-      <c r="C25" s="281" t="s">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="283"/>
+      <c r="B26" s="298"/>
+      <c r="C26" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="177">
+      <c r="E26" s="176">
         <v>30750</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F26" s="161">
         <v>4855</v>
       </c>
-      <c r="G25" s="161">
+      <c r="G26" s="160">
+        <v>25894</v>
+      </c>
+      <c r="H26" s="160">
         <v>4855</v>
       </c>
-      <c r="H25" s="162">
+      <c r="I26" s="161">
         <v>25724</v>
       </c>
-      <c r="I25" s="162">
-        <f t="shared" si="0"/>
+      <c r="J26" s="161">
+        <f>I26+H26</f>
         <v>30579</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="300"/>
-      <c r="B26" s="285"/>
-      <c r="C26" s="282"/>
-      <c r="D26" s="176" t="s">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="283"/>
+      <c r="B27" s="298"/>
+      <c r="C27" s="295"/>
+      <c r="D27" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="177">
+      <c r="E27" s="176">
         <v>5426</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F27" s="161">
         <v>857</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G27" s="177">
+        <v>4570</v>
+      </c>
+      <c r="H27" s="177">
         <v>857</v>
       </c>
-      <c r="H26" s="162">
+      <c r="I27" s="161">
         <v>4540</v>
       </c>
-      <c r="I26" s="162">
-        <f t="shared" si="0"/>
+      <c r="J27" s="161">
+        <f>I27+H27</f>
         <v>5397</v>
       </c>
-      <c r="M26" s="170"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="300"/>
-      <c r="B27" s="278"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="183">
-        <f>SUM(E21:E26)</f>
+      <c r="N27" s="169"/>
+    </row>
+    <row r="28" spans="1:14" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="283"/>
+      <c r="B28" s="331"/>
+      <c r="C28" s="326"/>
+      <c r="D28" s="321" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="322">
+        <f>SUM(E22:E27)</f>
         <v>101388</v>
       </c>
-      <c r="F27" s="184">
-        <f>SUM(F21:F26)</f>
+      <c r="F28" s="323">
+        <f>SUM(F22:F27)</f>
         <v>29988</v>
       </c>
-      <c r="G27" s="185">
-        <f>SUM(G21:G26)</f>
+      <c r="G28" s="324">
+        <f>SUM(G22:G27)</f>
+        <v>71400</v>
+      </c>
+      <c r="H28" s="324">
+        <f>SUM(H22:H27)</f>
         <v>29988</v>
       </c>
-      <c r="H27" s="184">
-        <f>SUM(H21:H26)</f>
+      <c r="I28" s="323">
+        <f>SUM(I22:I27)</f>
         <v>69325</v>
       </c>
-      <c r="I27" s="184">
-        <f>SUM(I21:I26)</f>
+      <c r="J28" s="323">
+        <f>SUM(J22:J27)</f>
         <v>99313</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="300"/>
-      <c r="B28" s="287" t="s">
+      <c r="N28" s="319"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="283"/>
+      <c r="B29" s="300" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="281" t="s">
+      <c r="C29" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="176" t="s">
+      <c r="D29" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="322"/>
-      <c r="F28" s="323"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="323">
+      <c r="E29" s="238"/>
+      <c r="F29" s="239" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="240" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="240" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="161">
         <v>170</v>
       </c>
-      <c r="I28" s="323"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="300"/>
-      <c r="B29" s="287"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="176" t="s">
+      <c r="J29" s="161">
+        <f>I29</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="283"/>
+      <c r="B30" s="300"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="322"/>
-      <c r="F29" s="323"/>
-      <c r="G29" s="324"/>
-      <c r="H29" s="323">
+      <c r="E30" s="238"/>
+      <c r="F30" s="239" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="240" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="240" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="161">
         <v>30</v>
       </c>
-      <c r="I29" s="323"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="300"/>
-      <c r="B30" s="275" t="s">
+      <c r="J30" s="161">
+        <f>I30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="283"/>
+      <c r="B31" s="332"/>
+      <c r="C31" s="333"/>
+      <c r="D31" s="334" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="335"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="337"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="323">
+        <f>SUM(I29:I30)</f>
+        <v>200</v>
+      </c>
+      <c r="J31" s="323">
+        <f>SUM(J29:J30)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="283"/>
+      <c r="B32" s="290" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="283" t="s">
+      <c r="C32" s="296" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D32" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="123">
+      <c r="E32" s="123">
         <v>8092</v>
       </c>
-      <c r="F30" s="123">
+      <c r="F32" s="123">
         <v>4046</v>
       </c>
-      <c r="G30" s="124">
+      <c r="G32" s="124">
         <v>4046</v>
       </c>
-      <c r="H30" s="162">
+      <c r="H32" s="124">
         <v>4046</v>
       </c>
-      <c r="I30" s="162">
-        <f t="shared" si="0"/>
+      <c r="I32" s="161">
+        <v>4046</v>
+      </c>
+      <c r="J32" s="161">
+        <f>I32+H32</f>
         <v>8092</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="300"/>
-      <c r="B31" s="276"/>
-      <c r="C31" s="284"/>
-      <c r="D31" s="126" t="s">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="283"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="297"/>
+      <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="123">
+      <c r="E33" s="123">
         <v>1428</v>
       </c>
-      <c r="F31" s="123">
+      <c r="F33" s="123">
         <v>714</v>
       </c>
-      <c r="G31" s="126">
+      <c r="G33" s="126">
         <v>714</v>
       </c>
-      <c r="H31" s="162">
+      <c r="H33" s="126">
         <v>714</v>
       </c>
-      <c r="I31" s="162">
-        <f t="shared" si="0"/>
+      <c r="I33" s="161">
+        <v>714</v>
+      </c>
+      <c r="J33" s="161">
+        <f>I33+H33</f>
         <v>1428</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="301"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165">
-        <f>SUM(E19:E26,E30,E31)</f>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="283"/>
+      <c r="B34" s="338"/>
+      <c r="C34" s="339"/>
+      <c r="D34" s="340" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="328">
+        <f>SUM(E32:E33)</f>
+        <v>9520</v>
+      </c>
+      <c r="F34" s="328">
+        <f>SUM(F32:F33)</f>
+        <v>4760</v>
+      </c>
+      <c r="G34" s="340">
+        <f>SUM(G32:G33)</f>
+        <v>4760</v>
+      </c>
+      <c r="H34" s="340">
+        <f>SUM(H32:H33)</f>
+        <v>4760</v>
+      </c>
+      <c r="I34" s="323">
+        <f>SUM(I32:I33)</f>
+        <v>4760</v>
+      </c>
+      <c r="J34" s="323">
+        <f>SUM(J32:J33)</f>
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="284"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="164">
+        <f>SUM(E19:E20,E22:E27,E29:E30,E32:E33)</f>
         <v>125188</v>
       </c>
-      <c r="F32" s="165">
-        <f>SUM(F19:F31)</f>
-        <v>69496</v>
-      </c>
-      <c r="G32" s="326">
-        <f>SUM(G19:G26,G28,G29,G30,G31)</f>
+      <c r="F35" s="164">
+        <f>SUM(F19:F20,F22:F27,F29:F30,F32:F33)</f>
         <v>39508</v>
       </c>
-      <c r="H32" s="165">
-        <f>SUM(H19:H26,H28,H29,H30,H31)</f>
+      <c r="G35" s="242">
+        <f>SUM(G19:G20,G22:G27,G29:G30,G32:G33)</f>
+        <v>85680</v>
+      </c>
+      <c r="H35" s="242">
+        <f>SUM(H19:H20,H22:H27,H29:H30,H32:H33)</f>
+        <v>39508</v>
+      </c>
+      <c r="I35" s="164">
+        <f>SUM(I19:I20,I22:I27,I29:I30,I32:I33)</f>
         <v>83805</v>
       </c>
-      <c r="I32" s="165">
-        <f t="shared" si="0"/>
+      <c r="J35" s="164">
+        <f>SUM(J19:J20,J22:J27,J29:J30,J32:J33)</f>
         <v>123313</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="288" t="s">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="271" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B36" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="238" t="s">
+      <c r="C36" s="119"/>
+      <c r="D36" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="239">
+      <c r="E36" s="233">
         <v>0</v>
       </c>
-      <c r="F33" s="240">
+      <c r="F36" s="234">
         <v>0</v>
       </c>
-      <c r="G33" s="241"/>
-      <c r="H33" s="242">
+      <c r="G36" s="234">
         <v>0</v>
       </c>
-      <c r="I33" s="242">
-        <f t="shared" si="0"/>
+      <c r="H36" s="234">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="289"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="244">
+      <c r="I36" s="234">
         <v>0</v>
       </c>
-      <c r="F34" s="245">
+      <c r="J36" s="234">
         <v>0</v>
       </c>
-      <c r="G34" s="246"/>
-      <c r="H34" s="247">
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="272"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="235"/>
+      <c r="E37" s="236">
         <v>0</v>
       </c>
-      <c r="I34" s="247">
-        <f t="shared" si="0"/>
+      <c r="F37" s="237">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="273" t="s">
+      <c r="G37" s="237">
+        <v>0</v>
+      </c>
+      <c r="H37" s="237">
+        <v>0</v>
+      </c>
+      <c r="I37" s="237">
+        <v>0</v>
+      </c>
+      <c r="J37" s="237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="A38" s="129"/>
+      <c r="B38" s="288" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="273"/>
-      <c r="D35" s="274"/>
-      <c r="E35" s="157">
+      <c r="C38" s="288"/>
+      <c r="D38" s="289"/>
+      <c r="E38" s="156">
         <v>333598.7928</v>
       </c>
-      <c r="F35" s="158">
+      <c r="F38" s="157">
         <v>96248.53839999999</v>
       </c>
-      <c r="G35" s="167"/>
-      <c r="H35" s="159">
-        <v>237349.97440000001</v>
-      </c>
-      <c r="I35" s="159">
-        <f t="shared" si="0"/>
-        <v>237349.97440000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="173" t="s">
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="158">
+        <f>SUM(I8,I11,I18,I35)</f>
+        <v>235475.0944</v>
+      </c>
+      <c r="J38" s="158">
+        <f>SUM(J8,J11,J18,J35)</f>
+        <v>255422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="174">
+      <c r="D41" s="173">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="173" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="172" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="172">
+      <c r="D42" s="171">
         <v>2965.26</v>
       </c>
-      <c r="E39" s="120">
+      <c r="E42" s="120">
         <v>2520</v>
       </c>
-      <c r="F39" s="120">
+      <c r="F42" s="120">
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="173" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="174">
+      <c r="D43" s="173">
         <v>2276.9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="173" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="172" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="174">
+      <c r="D44" s="173">
         <v>3015.88</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="175"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="118" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="174"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="120">
+      <c r="D46" s="120">
         <v>1875</v>
       </c>
-      <c r="E43" s="120">
+      <c r="E46" s="120">
         <v>1594</v>
       </c>
-      <c r="F43" s="120">
+      <c r="F46" s="120">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="118" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="118" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="118" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="118" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="118" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="118" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="118" t="s">
+    <row r="50" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="120" t="s">
+      <c r="D50" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="120" t="s">
+      <c r="E50" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="325" t="s">
+      <c r="F50" s="241" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -39231,25 +39465,9 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A32"/>
     <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B21:B27"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39258,7 +39476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39274,1445 +39492,1465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="312" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="306" t="s">
+      <c r="D1" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="308" t="s">
+      <c r="E1" s="313" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="306" t="s">
+      <c r="F1" s="311" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="306" t="s">
+      <c r="G1" s="311" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="306" t="s">
+      <c r="H1" s="311" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="306" t="s">
+      <c r="I1" s="311" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="306" t="s">
+      <c r="J1" s="311" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306" t="s">
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="306"/>
-      <c r="Q1" s="306"/>
-      <c r="R1" s="306"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="307"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
-      <c r="J2" s="306" t="s">
+      <c r="A2" s="312"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="306"/>
-      <c r="L2" s="306"/>
-      <c r="M2" s="306" t="s">
+      <c r="K2" s="311"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="306"/>
-      <c r="O2" s="306"/>
-      <c r="P2" s="306"/>
-      <c r="Q2" s="306"/>
-      <c r="R2" s="306"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
+      <c r="P2" s="311"/>
+      <c r="Q2" s="311"/>
+      <c r="R2" s="311"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="307"/>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="306"/>
-      <c r="J3" s="188">
+      <c r="A3" s="312"/>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="182">
         <v>4420</v>
       </c>
-      <c r="K3" s="188">
+      <c r="K3" s="182">
         <v>4300</v>
       </c>
-      <c r="L3" s="189">
+      <c r="L3" s="183">
         <v>4430</v>
       </c>
-      <c r="M3" s="188">
+      <c r="M3" s="182">
         <v>4428</v>
       </c>
-      <c r="N3" s="188">
+      <c r="N3" s="182">
         <v>4429</v>
       </c>
-      <c r="O3" s="188">
+      <c r="O3" s="182">
         <v>4308</v>
       </c>
-      <c r="P3" s="188">
+      <c r="P3" s="182">
         <v>4309</v>
       </c>
-      <c r="Q3" s="189">
+      <c r="Q3" s="183">
         <v>4438</v>
       </c>
-      <c r="R3" s="189">
+      <c r="R3" s="183">
         <v>4439</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="302" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="310"/>
-      <c r="Q4" s="310"/>
-      <c r="R4" s="311"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
+      <c r="Q4" s="303"/>
+      <c r="R4" s="304"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="312" t="s">
+      <c r="A5" s="305" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="313">
+      <c r="B5" s="309">
         <v>44446</v>
       </c>
-      <c r="C5" s="314">
+      <c r="C5" s="310">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="191" t="s">
+      <c r="E5" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="192">
+      <c r="F5" s="186">
         <v>44455</v>
       </c>
-      <c r="G5" s="193">
+      <c r="G5" s="187">
         <v>196.5</v>
       </c>
-      <c r="H5" s="194" t="s">
+      <c r="H5" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="195">
+      <c r="I5" s="189">
         <v>1092.93</v>
       </c>
-      <c r="J5" s="196">
+      <c r="J5" s="190">
         <v>1092.93</v>
       </c>
-      <c r="K5" s="197"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="196">
+      <c r="K5" s="191"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="190">
         <v>928.9905</v>
       </c>
-      <c r="N5" s="196">
+      <c r="N5" s="190">
         <v>163.93950000000007</v>
       </c>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="190"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="312"/>
-      <c r="B6" s="313"/>
-      <c r="C6" s="314"/>
-      <c r="D6" s="190" t="s">
+      <c r="A6" s="305"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="191">
+      <c r="E6" s="185">
         <v>94100</v>
       </c>
-      <c r="F6" s="192">
+      <c r="F6" s="186">
         <v>44455</v>
       </c>
-      <c r="G6" s="193">
+      <c r="G6" s="187">
         <v>4</v>
       </c>
-      <c r="H6" s="194" t="s">
+      <c r="H6" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="195">
+      <c r="I6" s="189">
         <v>22.25</v>
       </c>
-      <c r="J6" s="196">
+      <c r="J6" s="190">
         <v>22.25</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="196">
+      <c r="K6" s="191"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="190">
         <v>18.912499999999998</v>
       </c>
-      <c r="N6" s="196">
+      <c r="N6" s="190">
         <v>3.3375000000000021</v>
       </c>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="190"/>
-      <c r="R6" s="190"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="312"/>
-      <c r="B7" s="313"/>
-      <c r="C7" s="314"/>
-      <c r="D7" s="190" t="s">
+      <c r="A7" s="305"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="191">
+      <c r="E7" s="185">
         <v>159918</v>
       </c>
-      <c r="F7" s="192">
+      <c r="F7" s="186">
         <v>44453</v>
       </c>
-      <c r="G7" s="193">
+      <c r="G7" s="187">
         <v>150</v>
       </c>
-      <c r="H7" s="194" t="s">
+      <c r="H7" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="195">
+      <c r="I7" s="189">
         <v>834.3</v>
       </c>
-      <c r="J7" s="196">
+      <c r="J7" s="190">
         <v>834.3</v>
       </c>
-      <c r="K7" s="197"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="196">
+      <c r="K7" s="191"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="190">
         <v>709.15499999999997</v>
       </c>
-      <c r="N7" s="196">
+      <c r="N7" s="190">
         <v>125.14499999999998</v>
       </c>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="190"/>
-      <c r="R7" s="190"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="190" t="s">
+      <c r="A8" s="305"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="310"/>
+      <c r="D8" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="192">
+      <c r="F8" s="186">
         <v>44445</v>
       </c>
-      <c r="G8" s="193">
+      <c r="G8" s="187">
         <v>70.66</v>
       </c>
-      <c r="H8" s="194" t="s">
+      <c r="H8" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="195">
+      <c r="I8" s="189">
         <v>393.01</v>
       </c>
-      <c r="J8" s="196">
+      <c r="J8" s="190">
         <v>393.01</v>
       </c>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="196">
+      <c r="K8" s="191"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="190">
         <v>334.05849999999998</v>
       </c>
-      <c r="N8" s="196">
+      <c r="N8" s="190">
         <v>58.95150000000001</v>
       </c>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="190"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="312"/>
-      <c r="B9" s="313"/>
-      <c r="C9" s="314"/>
-      <c r="D9" s="190" t="s">
+      <c r="A9" s="305"/>
+      <c r="B9" s="309"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="191">
+      <c r="E9" s="185">
         <v>620785004091</v>
       </c>
-      <c r="F9" s="192">
+      <c r="F9" s="186">
         <v>44452</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="187">
         <v>43.75</v>
       </c>
-      <c r="H9" s="199" t="s">
+      <c r="H9" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="196">
+      <c r="I9" s="190">
         <v>43.75</v>
       </c>
-      <c r="J9" s="196">
+      <c r="J9" s="190">
         <v>43.75</v>
       </c>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="196">
+      <c r="K9" s="191"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="190">
         <v>37.1875</v>
       </c>
-      <c r="N9" s="196">
+      <c r="N9" s="190">
         <v>6.5625</v>
       </c>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="190"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="312"/>
-      <c r="B10" s="313"/>
-      <c r="C10" s="314"/>
-      <c r="D10" s="190" t="s">
+      <c r="A10" s="305"/>
+      <c r="B10" s="309"/>
+      <c r="C10" s="310"/>
+      <c r="D10" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="191">
+      <c r="E10" s="185">
         <v>101320211722073</v>
       </c>
-      <c r="F10" s="192">
+      <c r="F10" s="186">
         <v>44456</v>
       </c>
-      <c r="G10" s="193">
+      <c r="G10" s="187">
         <v>12</v>
       </c>
-      <c r="H10" s="199" t="s">
+      <c r="H10" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="196">
+      <c r="I10" s="190">
         <v>12</v>
       </c>
-      <c r="J10" s="196">
+      <c r="J10" s="190">
         <v>12</v>
       </c>
-      <c r="K10" s="197"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="196">
+      <c r="K10" s="191"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="190">
         <v>10.199999999999999</v>
       </c>
-      <c r="N10" s="196">
+      <c r="N10" s="190">
         <v>1.8000000000000007</v>
       </c>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="312"/>
-      <c r="B11" s="313"/>
-      <c r="C11" s="314"/>
-      <c r="D11" s="190" t="s">
+      <c r="A11" s="305"/>
+      <c r="B11" s="309"/>
+      <c r="C11" s="310"/>
+      <c r="D11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="191" t="s">
+      <c r="E11" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="192">
+      <c r="F11" s="186">
         <v>44456</v>
       </c>
-      <c r="G11" s="193">
+      <c r="G11" s="187">
         <v>30</v>
       </c>
-      <c r="H11" s="199" t="s">
+      <c r="H11" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="196">
+      <c r="I11" s="190">
         <v>30</v>
       </c>
-      <c r="J11" s="196">
+      <c r="J11" s="190">
         <v>30</v>
       </c>
-      <c r="K11" s="197"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="196">
+      <c r="K11" s="191"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="190">
         <v>25.5</v>
       </c>
-      <c r="N11" s="196">
+      <c r="N11" s="190">
         <v>4.5</v>
       </c>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="184"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="312"/>
-      <c r="B12" s="313"/>
-      <c r="C12" s="314"/>
-      <c r="D12" s="190" t="s">
+      <c r="A12" s="305"/>
+      <c r="B12" s="309"/>
+      <c r="C12" s="310"/>
+      <c r="D12" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="191" t="s">
+      <c r="E12" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="192">
+      <c r="F12" s="186">
         <v>44460</v>
       </c>
-      <c r="G12" s="193">
+      <c r="G12" s="187">
         <v>130</v>
       </c>
-      <c r="H12" s="199" t="s">
+      <c r="H12" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="196">
+      <c r="I12" s="190">
         <v>130</v>
       </c>
-      <c r="J12" s="196">
+      <c r="J12" s="190">
         <v>130</v>
       </c>
-      <c r="K12" s="197"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="196">
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="190">
         <v>110.5</v>
       </c>
-      <c r="N12" s="196">
+      <c r="N12" s="190">
         <v>19.5</v>
       </c>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="190"/>
-      <c r="R12" s="190"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="184"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="312"/>
-      <c r="B13" s="313"/>
-      <c r="C13" s="314"/>
-      <c r="D13" s="190" t="s">
+      <c r="A13" s="305"/>
+      <c r="B13" s="309"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="191" t="s">
+      <c r="E13" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="192">
+      <c r="F13" s="186">
         <v>44452</v>
       </c>
-      <c r="G13" s="193">
+      <c r="G13" s="187">
         <v>50</v>
       </c>
-      <c r="H13" s="199" t="s">
+      <c r="H13" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="196">
+      <c r="I13" s="190">
         <v>50</v>
       </c>
-      <c r="J13" s="196">
+      <c r="J13" s="190">
         <v>50</v>
       </c>
-      <c r="K13" s="197"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="196">
+      <c r="K13" s="191"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="190">
         <v>42.5</v>
       </c>
-      <c r="N13" s="196">
+      <c r="N13" s="190">
         <v>7.5</v>
       </c>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="312"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="314"/>
-      <c r="D14" s="190" t="s">
+      <c r="A14" s="305"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="310"/>
+      <c r="D14" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193">
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187">
         <v>124.25</v>
       </c>
-      <c r="H14" s="194" t="s">
+      <c r="H14" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="195">
+      <c r="I14" s="189">
         <v>691.08</v>
       </c>
-      <c r="J14" s="196">
+      <c r="J14" s="190">
         <v>691.08</v>
       </c>
-      <c r="K14" s="197"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="196">
+      <c r="K14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="190">
         <v>587.41800000000001</v>
       </c>
-      <c r="N14" s="196">
+      <c r="N14" s="190">
         <v>103.66200000000003</v>
       </c>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="190"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="184"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="312"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="314"/>
-      <c r="D15" s="190" t="s">
+      <c r="A15" s="305"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="184" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="193">
+      <c r="E15" s="185"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187">
         <v>14</v>
       </c>
-      <c r="H15" s="194" t="s">
+      <c r="H15" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="195">
+      <c r="I15" s="189">
         <v>77.87</v>
       </c>
-      <c r="J15" s="196">
+      <c r="J15" s="190">
         <v>77.87</v>
       </c>
-      <c r="K15" s="197"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="196">
+      <c r="K15" s="191"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="190">
         <v>66.189499999999995</v>
       </c>
-      <c r="N15" s="196">
+      <c r="N15" s="190">
         <v>11.680500000000009</v>
       </c>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="190"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="312" t="s">
+      <c r="A16" s="305" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="313">
+      <c r="B16" s="309">
         <v>44446</v>
       </c>
-      <c r="C16" s="314">
+      <c r="C16" s="310">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
-      <c r="D16" s="190" t="s">
+      <c r="D16" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="191">
+      <c r="E16" s="185">
         <v>94099</v>
       </c>
-      <c r="F16" s="192">
+      <c r="F16" s="186">
         <v>44455</v>
       </c>
-      <c r="G16" s="193">
+      <c r="G16" s="187">
         <v>4</v>
       </c>
-      <c r="H16" s="200" t="s">
+      <c r="H16" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="201">
+      <c r="I16" s="195">
         <v>22.25</v>
       </c>
-      <c r="J16" s="193">
+      <c r="J16" s="187">
         <v>22.25</v>
       </c>
-      <c r="K16" s="197"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="196">
+      <c r="K16" s="191"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="190">
         <v>18.912499999999998</v>
       </c>
-      <c r="N16" s="196">
+      <c r="N16" s="190">
         <v>3.3375000000000021</v>
       </c>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="190"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="184"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="312"/>
-      <c r="B17" s="313"/>
-      <c r="C17" s="314"/>
-      <c r="D17" s="190" t="s">
+      <c r="A17" s="305"/>
+      <c r="B17" s="309"/>
+      <c r="C17" s="310"/>
+      <c r="D17" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="191">
+      <c r="E17" s="185">
         <v>101320211722074</v>
       </c>
-      <c r="F17" s="192">
+      <c r="F17" s="186">
         <v>44456</v>
       </c>
-      <c r="G17" s="193">
+      <c r="G17" s="187">
         <v>12</v>
       </c>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="201">
+      <c r="I17" s="195">
         <v>12</v>
       </c>
-      <c r="J17" s="193">
+      <c r="J17" s="187">
         <v>12</v>
       </c>
-      <c r="K17" s="197"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="196">
+      <c r="K17" s="191"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="190">
         <v>10.199999999999999</v>
       </c>
-      <c r="N17" s="196">
+      <c r="N17" s="190">
         <v>1.8000000000000007</v>
       </c>
-      <c r="O17" s="197"/>
-      <c r="P17" s="197"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="190"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="184"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="314"/>
-      <c r="D18" s="190" t="s">
+      <c r="A18" s="305"/>
+      <c r="B18" s="309"/>
+      <c r="C18" s="310"/>
+      <c r="D18" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="191" t="s">
+      <c r="E18" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="192">
+      <c r="F18" s="186">
         <v>44455</v>
       </c>
-      <c r="G18" s="193">
+      <c r="G18" s="187">
         <v>190.5</v>
       </c>
-      <c r="H18" s="200" t="s">
+      <c r="H18" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="201">
+      <c r="I18" s="195">
         <v>1059.56</v>
       </c>
-      <c r="J18" s="193">
+      <c r="J18" s="187">
         <v>1059.56</v>
       </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="196">
+      <c r="K18" s="191"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="190">
         <v>900.62599999999998</v>
       </c>
-      <c r="N18" s="196">
+      <c r="N18" s="190">
         <v>158.93399999999997</v>
       </c>
-      <c r="O18" s="197"/>
-      <c r="P18" s="197"/>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="190"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="312"/>
-      <c r="B19" s="313"/>
-      <c r="C19" s="314"/>
-      <c r="D19" s="190" t="s">
+      <c r="A19" s="305"/>
+      <c r="B19" s="309"/>
+      <c r="C19" s="310"/>
+      <c r="D19" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="203" t="s">
+      <c r="E19" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="192">
+      <c r="F19" s="186">
         <v>44452</v>
       </c>
-      <c r="G19" s="193">
+      <c r="G19" s="187">
         <v>43.75</v>
       </c>
-      <c r="H19" s="202" t="s">
+      <c r="H19" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="201">
+      <c r="I19" s="195">
         <v>43.75</v>
       </c>
-      <c r="J19" s="193">
+      <c r="J19" s="187">
         <v>43.75</v>
       </c>
-      <c r="K19" s="197"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="196">
+      <c r="K19" s="191"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="190">
         <v>37.1875</v>
       </c>
-      <c r="N19" s="196">
+      <c r="N19" s="190">
         <v>6.5625</v>
       </c>
-      <c r="O19" s="197"/>
-      <c r="P19" s="197"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="190"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="184"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="314"/>
-      <c r="D20" s="190" t="s">
+      <c r="A20" s="305"/>
+      <c r="B20" s="309"/>
+      <c r="C20" s="310"/>
+      <c r="D20" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="191" t="s">
+      <c r="E20" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="192">
+      <c r="F20" s="186">
         <v>44456</v>
       </c>
-      <c r="G20" s="193">
+      <c r="G20" s="187">
         <v>30</v>
       </c>
-      <c r="H20" s="202" t="s">
+      <c r="H20" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="195">
         <v>30</v>
       </c>
-      <c r="J20" s="193">
+      <c r="J20" s="187">
         <v>30</v>
       </c>
-      <c r="K20" s="197"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="196">
+      <c r="K20" s="191"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="190">
         <v>25.5</v>
       </c>
-      <c r="N20" s="196">
+      <c r="N20" s="190">
         <v>4.5</v>
       </c>
-      <c r="O20" s="197"/>
-      <c r="P20" s="197"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="184"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="314"/>
-      <c r="D21" s="190" t="s">
+      <c r="A21" s="305"/>
+      <c r="B21" s="309"/>
+      <c r="C21" s="310"/>
+      <c r="D21" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="191" t="s">
+      <c r="E21" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="192">
+      <c r="F21" s="186">
         <v>44460</v>
       </c>
-      <c r="G21" s="193">
+      <c r="G21" s="187">
         <v>130</v>
       </c>
-      <c r="H21" s="202" t="s">
+      <c r="H21" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="193">
+      <c r="I21" s="187">
         <v>130</v>
       </c>
-      <c r="J21" s="193">
+      <c r="J21" s="187">
         <v>130</v>
       </c>
-      <c r="K21" s="204"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="196">
+      <c r="K21" s="198"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="190">
         <v>110.5</v>
       </c>
-      <c r="N21" s="196">
+      <c r="N21" s="190">
         <v>19.5</v>
       </c>
-      <c r="O21" s="204"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="206"/>
-      <c r="R21" s="206"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="314"/>
-      <c r="D22" s="190" t="s">
+      <c r="A22" s="305"/>
+      <c r="B22" s="309"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="191" t="s">
+      <c r="E22" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="192">
+      <c r="F22" s="186">
         <v>44452</v>
       </c>
-      <c r="G22" s="193">
+      <c r="G22" s="187">
         <v>50</v>
       </c>
-      <c r="H22" s="202" t="s">
+      <c r="H22" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="193">
+      <c r="I22" s="187">
         <v>50</v>
       </c>
-      <c r="J22" s="193">
+      <c r="J22" s="187">
         <v>50</v>
       </c>
-      <c r="K22" s="204"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="196">
+      <c r="K22" s="198"/>
+      <c r="L22" s="199"/>
+      <c r="M22" s="190">
         <v>42.5</v>
       </c>
-      <c r="N22" s="196">
+      <c r="N22" s="190">
         <v>7.5</v>
       </c>
-      <c r="O22" s="204"/>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="206"/>
-      <c r="R22" s="206"/>
+      <c r="O22" s="198"/>
+      <c r="P22" s="198"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="314"/>
-      <c r="D23" s="190" t="s">
+      <c r="A23" s="305"/>
+      <c r="B23" s="309"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="191"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="193">
+      <c r="E23" s="185"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="187">
         <v>124.25</v>
       </c>
-      <c r="H23" s="200" t="s">
+      <c r="H23" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="201">
+      <c r="I23" s="195">
         <v>691.08</v>
       </c>
-      <c r="J23" s="193">
+      <c r="J23" s="187">
         <v>691.08</v>
       </c>
-      <c r="K23" s="204"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="196">
+      <c r="K23" s="198"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="190">
         <v>587.41800000000001</v>
       </c>
-      <c r="N23" s="196">
+      <c r="N23" s="190">
         <v>103.66200000000003</v>
       </c>
-      <c r="O23" s="204"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="206"/>
-      <c r="R23" s="206"/>
+      <c r="O23" s="198"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="200"/>
+      <c r="R23" s="200"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="312"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="314"/>
-      <c r="D24" s="190" t="s">
+      <c r="A24" s="305"/>
+      <c r="B24" s="309"/>
+      <c r="C24" s="310"/>
+      <c r="D24" s="184" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="191"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="193">
+      <c r="E24" s="185"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="187">
         <v>14</v>
       </c>
-      <c r="H24" s="200" t="s">
+      <c r="H24" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="201">
+      <c r="I24" s="195">
         <v>77.87</v>
       </c>
-      <c r="J24" s="193">
+      <c r="J24" s="187">
         <v>77.87</v>
       </c>
-      <c r="K24" s="204"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="196">
+      <c r="K24" s="198"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="190">
         <v>66.189499999999995</v>
       </c>
-      <c r="N24" s="196">
+      <c r="N24" s="190">
         <v>11.680500000000009</v>
       </c>
-      <c r="O24" s="204"/>
-      <c r="P24" s="204"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
     </row>
     <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="201" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="192">
+      <c r="B25" s="186">
         <v>44459</v>
       </c>
-      <c r="C25" s="208">
+      <c r="C25" s="202">
         <v>942.98</v>
       </c>
-      <c r="D25" s="190" t="s">
+      <c r="D25" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="191" t="s">
+      <c r="E25" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="192">
+      <c r="F25" s="186">
         <v>44459</v>
       </c>
-      <c r="G25" s="197">
+      <c r="G25" s="191">
         <v>942.98</v>
       </c>
-      <c r="H25" s="199" t="s">
+      <c r="H25" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="204">
+      <c r="I25" s="198">
         <v>942.98</v>
       </c>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204">
+      <c r="J25" s="198"/>
+      <c r="K25" s="198">
         <v>942.98</v>
       </c>
-      <c r="L25" s="205"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="196">
+      <c r="L25" s="199"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="190">
         <v>801.53300000000002</v>
       </c>
-      <c r="P25" s="196">
+      <c r="P25" s="190">
         <v>141.447</v>
       </c>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="309" t="s">
+      <c r="A26" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="310"/>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
-      <c r="E26" s="310"/>
-      <c r="F26" s="310"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="310"/>
-      <c r="I26" s="310"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="310"/>
-      <c r="L26" s="310"/>
-      <c r="M26" s="310"/>
-      <c r="N26" s="310"/>
-      <c r="O26" s="310"/>
-      <c r="P26" s="310"/>
-      <c r="Q26" s="310"/>
-      <c r="R26" s="311"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
+      <c r="G26" s="303"/>
+      <c r="H26" s="303"/>
+      <c r="I26" s="303"/>
+      <c r="J26" s="303"/>
+      <c r="K26" s="303"/>
+      <c r="L26" s="303"/>
+      <c r="M26" s="303"/>
+      <c r="N26" s="303"/>
+      <c r="O26" s="303"/>
+      <c r="P26" s="303"/>
+      <c r="Q26" s="303"/>
+      <c r="R26" s="304"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="312" t="s">
+      <c r="A27" s="305" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="316">
+      <c r="B27" s="306">
         <v>44516</v>
       </c>
-      <c r="C27" s="317">
+      <c r="C27" s="307">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
-      <c r="D27" s="209" t="s">
+      <c r="D27" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="210" t="s">
+      <c r="E27" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="211">
+      <c r="F27" s="205">
         <v>44524</v>
       </c>
-      <c r="G27" s="212">
+      <c r="G27" s="206">
         <v>680</v>
       </c>
-      <c r="H27" s="213" t="s">
+      <c r="H27" s="207" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="214">
+      <c r="I27" s="208">
         <v>440.56</v>
       </c>
-      <c r="J27" s="215">
+      <c r="J27" s="209">
         <v>440.56</v>
       </c>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="196">
+      <c r="K27" s="209"/>
+      <c r="L27" s="209"/>
+      <c r="M27" s="190">
         <v>374.476</v>
       </c>
-      <c r="N27" s="196">
+      <c r="N27" s="190">
         <v>66.084000000000003</v>
       </c>
-      <c r="O27" s="215"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="206"/>
-      <c r="R27" s="206"/>
+      <c r="O27" s="209"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="312"/>
-      <c r="B28" s="316"/>
-      <c r="C28" s="318"/>
-      <c r="D28" s="216" t="s">
+      <c r="A28" s="305"/>
+      <c r="B28" s="306"/>
+      <c r="C28" s="308"/>
+      <c r="D28" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="217" t="s">
+      <c r="E28" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="218">
+      <c r="F28" s="212">
         <v>44525</v>
       </c>
-      <c r="G28" s="219">
+      <c r="G28" s="213">
         <v>981.15</v>
       </c>
-      <c r="H28" s="220" t="s">
+      <c r="H28" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="214">
+      <c r="I28" s="208">
         <v>635.66</v>
       </c>
-      <c r="J28" s="215">
+      <c r="J28" s="209">
         <v>635.66</v>
       </c>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="196">
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="190">
         <v>540.31099999999992</v>
       </c>
-      <c r="N28" s="196">
+      <c r="N28" s="190">
         <v>95.349000000000046</v>
       </c>
-      <c r="O28" s="215"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="206"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="200"/>
+      <c r="R28" s="200"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="312"/>
-      <c r="B29" s="316"/>
-      <c r="C29" s="318"/>
-      <c r="D29" s="216" t="s">
+      <c r="A29" s="305"/>
+      <c r="B29" s="306"/>
+      <c r="C29" s="308"/>
+      <c r="D29" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="217" t="s">
+      <c r="E29" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="218">
+      <c r="F29" s="212">
         <v>44524</v>
       </c>
-      <c r="G29" s="219">
+      <c r="G29" s="213">
         <v>400</v>
       </c>
-      <c r="H29" s="220" t="s">
+      <c r="H29" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="214">
+      <c r="I29" s="208">
         <v>259.16000000000003</v>
       </c>
-      <c r="J29" s="215">
+      <c r="J29" s="209">
         <v>259.16000000000003</v>
       </c>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="196">
+      <c r="K29" s="209"/>
+      <c r="L29" s="209"/>
+      <c r="M29" s="190">
         <v>220.286</v>
       </c>
-      <c r="N29" s="196">
+      <c r="N29" s="190">
         <v>38.874000000000024</v>
       </c>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
+      <c r="O29" s="209"/>
+      <c r="P29" s="209"/>
+      <c r="Q29" s="200"/>
+      <c r="R29" s="200"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="312"/>
-      <c r="B30" s="316"/>
-      <c r="C30" s="318"/>
-      <c r="D30" s="190" t="s">
+      <c r="A30" s="305"/>
+      <c r="B30" s="306"/>
+      <c r="C30" s="308"/>
+      <c r="D30" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="191">
+      <c r="E30" s="185">
         <v>333056419474</v>
       </c>
-      <c r="F30" s="192">
+      <c r="F30" s="186">
         <v>44525</v>
       </c>
-      <c r="G30" s="221">
+      <c r="G30" s="215">
         <v>6</v>
       </c>
-      <c r="H30" s="220" t="s">
+      <c r="H30" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="214">
+      <c r="I30" s="208">
         <v>3.9</v>
       </c>
-      <c r="J30" s="215">
+      <c r="J30" s="209">
         <v>3.9</v>
       </c>
-      <c r="K30" s="215"/>
-      <c r="L30" s="215"/>
-      <c r="M30" s="196">
+      <c r="K30" s="209"/>
+      <c r="L30" s="209"/>
+      <c r="M30" s="190">
         <v>3.3149999999999999</v>
       </c>
-      <c r="N30" s="196">
+      <c r="N30" s="190">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O30" s="215"/>
-      <c r="P30" s="215"/>
-      <c r="Q30" s="206"/>
-      <c r="R30" s="206"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="200"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="312"/>
-      <c r="B31" s="316"/>
-      <c r="C31" s="318"/>
-      <c r="D31" s="190" t="s">
+      <c r="A31" s="305"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="308"/>
+      <c r="D31" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="222"/>
-      <c r="F31" s="222"/>
-      <c r="G31" s="215">
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="209">
         <v>121.1</v>
       </c>
-      <c r="H31" s="202" t="s">
+      <c r="H31" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="214">
+      <c r="I31" s="208">
         <v>590.38</v>
       </c>
-      <c r="J31" s="215">
+      <c r="J31" s="209">
         <v>590.38</v>
       </c>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="196">
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="190">
         <v>501.82299999999998</v>
       </c>
-      <c r="N31" s="196">
+      <c r="N31" s="190">
         <v>88.557000000000016</v>
       </c>
-      <c r="O31" s="215"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="206"/>
-      <c r="R31" s="206"/>
+      <c r="O31" s="209"/>
+      <c r="P31" s="209"/>
+      <c r="Q31" s="200"/>
+      <c r="R31" s="200"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="312" t="s">
+      <c r="A32" s="305" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="316">
+      <c r="B32" s="306">
         <v>44516</v>
       </c>
-      <c r="C32" s="317">
+      <c r="C32" s="307">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
-      <c r="D32" s="209" t="s">
+      <c r="D32" s="203" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="210" t="s">
+      <c r="E32" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="211">
+      <c r="F32" s="205">
         <v>44524</v>
       </c>
-      <c r="G32" s="212">
+      <c r="G32" s="206">
         <v>680</v>
       </c>
-      <c r="H32" s="213" t="s">
+      <c r="H32" s="207" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="214">
+      <c r="I32" s="208">
         <v>440.56</v>
       </c>
-      <c r="J32" s="212">
+      <c r="J32" s="206">
         <v>440.56</v>
       </c>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
-      <c r="M32" s="196">
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="190">
         <v>374.476</v>
       </c>
-      <c r="N32" s="196">
+      <c r="N32" s="190">
         <v>66.084000000000003</v>
       </c>
-      <c r="O32" s="215"/>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="206"/>
+      <c r="O32" s="209"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="312"/>
-      <c r="B33" s="316"/>
-      <c r="C33" s="318"/>
-      <c r="D33" s="216" t="s">
+      <c r="A33" s="305"/>
+      <c r="B33" s="306"/>
+      <c r="C33" s="308"/>
+      <c r="D33" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="217" t="s">
+      <c r="E33" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="218">
+      <c r="F33" s="212">
         <v>44524</v>
       </c>
-      <c r="G33" s="219" t="s">
+      <c r="G33" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="220" t="s">
+      <c r="H33" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="214">
+      <c r="I33" s="208">
         <v>259.16000000000003</v>
       </c>
-      <c r="J33" s="212">
+      <c r="J33" s="206">
         <v>259.16000000000003</v>
       </c>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="196">
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="190">
         <v>220.286</v>
       </c>
-      <c r="N33" s="196">
+      <c r="N33" s="190">
         <v>38.874000000000024</v>
       </c>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="206"/>
-      <c r="R33" s="206"/>
+      <c r="O33" s="209"/>
+      <c r="P33" s="209"/>
+      <c r="Q33" s="200"/>
+      <c r="R33" s="200"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="312"/>
-      <c r="B34" s="316"/>
-      <c r="C34" s="318"/>
-      <c r="D34" s="216" t="s">
+      <c r="A34" s="305"/>
+      <c r="B34" s="306"/>
+      <c r="C34" s="308"/>
+      <c r="D34" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="191">
+      <c r="E34" s="185">
         <v>333056419480</v>
       </c>
-      <c r="F34" s="192">
+      <c r="F34" s="186">
         <v>44525</v>
       </c>
-      <c r="G34" s="221">
+      <c r="G34" s="215">
         <v>6</v>
       </c>
-      <c r="H34" s="220" t="s">
+      <c r="H34" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="214">
+      <c r="I34" s="208">
         <v>3.9</v>
       </c>
-      <c r="J34" s="212">
+      <c r="J34" s="206">
         <v>3.9</v>
       </c>
-      <c r="K34" s="219"/>
-      <c r="L34" s="219"/>
-      <c r="M34" s="196">
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="190">
         <v>3.3149999999999999</v>
       </c>
-      <c r="N34" s="196">
+      <c r="N34" s="190">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O34" s="219"/>
-      <c r="P34" s="219"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="206"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="200"/>
+      <c r="R34" s="200"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="312"/>
-      <c r="B35" s="316"/>
-      <c r="C35" s="318"/>
-      <c r="D35" s="190" t="s">
+      <c r="A35" s="305"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="308"/>
+      <c r="D35" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="223"/>
-      <c r="F35" s="224"/>
-      <c r="G35" s="212">
+      <c r="E35" s="217"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="206">
         <v>121.1</v>
       </c>
-      <c r="H35" s="224" t="s">
+      <c r="H35" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="214">
+      <c r="I35" s="208">
         <v>590.38</v>
       </c>
-      <c r="J35" s="212">
+      <c r="J35" s="206">
         <v>590.38</v>
       </c>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="196">
+      <c r="K35" s="213"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="190">
         <v>501.82299999999998</v>
       </c>
-      <c r="N35" s="196">
+      <c r="N35" s="190">
         <v>88.557000000000016</v>
       </c>
-      <c r="O35" s="219"/>
-      <c r="P35" s="219"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="206"/>
+      <c r="O35" s="213"/>
+      <c r="P35" s="213"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="200"/>
     </row>
     <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="207" t="s">
+      <c r="A36" s="201" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="225">
+      <c r="B36" s="219">
         <v>44510</v>
       </c>
-      <c r="C36" s="226">
+      <c r="C36" s="220">
         <v>2022.28</v>
       </c>
-      <c r="D36" s="227" t="s">
+      <c r="D36" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="228" t="s">
+      <c r="E36" s="222" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="211">
+      <c r="F36" s="205">
         <v>44510</v>
       </c>
-      <c r="G36" s="229">
+      <c r="G36" s="223">
         <v>2022.28</v>
       </c>
-      <c r="H36" s="199" t="s">
+      <c r="H36" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="212">
+      <c r="I36" s="206">
         <v>2022.28</v>
       </c>
-      <c r="J36" s="212"/>
-      <c r="K36" s="219">
+      <c r="J36" s="206"/>
+      <c r="K36" s="213">
         <v>2022.28</v>
       </c>
-      <c r="L36" s="219"/>
-      <c r="M36" s="212"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="196">
+      <c r="L36" s="213"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="206"/>
+      <c r="O36" s="190">
         <v>1718.9379999999999</v>
       </c>
-      <c r="P36" s="196">
+      <c r="P36" s="190">
         <v>303.3420000000001</v>
       </c>
-      <c r="Q36" s="206"/>
-      <c r="R36" s="206"/>
+      <c r="Q36" s="200"/>
+      <c r="R36" s="200"/>
     </row>
     <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="216" t="s">
+      <c r="A37" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="218">
+      <c r="B37" s="212">
         <v>44518</v>
       </c>
-      <c r="C37" s="230">
+      <c r="C37" s="224">
         <v>40.799999999999997</v>
       </c>
-      <c r="D37" s="227" t="s">
+      <c r="D37" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="231">
+      <c r="E37" s="225">
         <v>1066369367</v>
       </c>
-      <c r="F37" s="211">
+      <c r="F37" s="205">
         <v>44522</v>
       </c>
-      <c r="G37" s="229">
+      <c r="G37" s="223">
         <v>40.799999999999997</v>
       </c>
-      <c r="H37" s="199" t="s">
+      <c r="H37" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="212">
+      <c r="I37" s="206">
         <v>40.799999999999997</v>
       </c>
-      <c r="J37" s="212"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="219">
+      <c r="J37" s="206"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213">
         <v>40.799999999999997</v>
       </c>
-      <c r="M37" s="212"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="219"/>
-      <c r="P37" s="219"/>
-      <c r="Q37" s="196">
+      <c r="M37" s="206"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="190">
         <v>34.68</v>
       </c>
-      <c r="R37" s="196">
+      <c r="R37" s="190">
         <v>6.1199999999999974</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="315" t="s">
+      <c r="A38" s="301" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="315"/>
-      <c r="C38" s="315"/>
-      <c r="D38" s="315"/>
-      <c r="E38" s="315"/>
-      <c r="F38" s="315"/>
-      <c r="G38" s="315"/>
-      <c r="H38" s="315"/>
-      <c r="I38" s="208">
+      <c r="B38" s="301"/>
+      <c r="C38" s="301"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="301"/>
+      <c r="F38" s="301"/>
+      <c r="G38" s="301"/>
+      <c r="H38" s="301"/>
+      <c r="I38" s="202">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
       </c>
-      <c r="J38" s="208">
+      <c r="J38" s="202">
         <f t="shared" ref="J38:R38" si="0">SUM(J5:J37)</f>
         <v>8717.3599999999988</v>
       </c>
-      <c r="K38" s="208">
+      <c r="K38" s="202">
         <f t="shared" si="0"/>
         <v>2965.26</v>
       </c>
-      <c r="L38" s="208">
+      <c r="L38" s="202">
         <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="M38" s="208">
+      <c r="M38" s="202">
         <f t="shared" si="0"/>
         <v>7409.7559999999985</v>
       </c>
-      <c r="N38" s="208">
+      <c r="N38" s="202">
         <f t="shared" si="0"/>
         <v>1307.6040000000003</v>
       </c>
-      <c r="O38" s="208">
+      <c r="O38" s="202">
         <f t="shared" si="0"/>
         <v>2520.471</v>
       </c>
-      <c r="P38" s="208">
+      <c r="P38" s="202">
         <f t="shared" si="0"/>
         <v>444.7890000000001</v>
       </c>
-      <c r="Q38" s="208">
+      <c r="Q38" s="202">
         <f t="shared" si="0"/>
         <v>34.68</v>
       </c>
-      <c r="R38" s="208">
+      <c r="R38" s="202">
         <f t="shared" si="0"/>
         <v>6.1199999999999974</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -40721,33 +40959,13 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40756,502 +40974,502 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="232" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="232" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="232"/>
-    <col min="4" max="4" width="13.85546875" style="232" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="232"/>
-    <col min="6" max="6" width="10.5703125" style="232" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="9.140625" style="232"/>
-    <col min="19" max="21" width="9.140625" style="237"/>
-    <col min="22" max="16384" width="9.140625" style="232"/>
+    <col min="1" max="1" width="9.5703125" style="226" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="226" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="226"/>
+    <col min="4" max="4" width="13.85546875" style="226" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="226"/>
+    <col min="6" max="6" width="10.5703125" style="226" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="9.140625" style="226"/>
+    <col min="19" max="21" width="9.140625" style="231"/>
+    <col min="22" max="16384" width="9.140625" style="226"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="307" t="s">
+    <row r="1" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="312" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="306" t="s">
+      <c r="D1" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="308" t="s">
+      <c r="E1" s="313" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="306" t="s">
+      <c r="F1" s="311" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="306" t="s">
+      <c r="G1" s="311" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="306" t="s">
+      <c r="H1" s="311" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="306" t="s">
+      <c r="I1" s="311" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="306" t="s">
+      <c r="J1" s="311" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
-    </row>
-    <row r="2" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="307"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
-      <c r="J2" s="306" t="s">
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+    </row>
+    <row r="2" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="312"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="306"/>
-      <c r="L2" s="306"/>
-      <c r="M2" s="306"/>
-      <c r="N2" s="306"/>
-      <c r="O2" s="306"/>
-    </row>
-    <row r="3" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="307"/>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="306"/>
-      <c r="J3" s="188">
+      <c r="K2" s="311"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="311"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
+    </row>
+    <row r="3" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="312"/>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="182">
         <v>4428</v>
       </c>
-      <c r="K3" s="188">
+      <c r="K3" s="182">
         <v>4429</v>
       </c>
-      <c r="L3" s="188">
+      <c r="L3" s="182">
         <v>4308</v>
       </c>
-      <c r="M3" s="188">
+      <c r="M3" s="182">
         <v>4309</v>
       </c>
-      <c r="N3" s="189">
+      <c r="N3" s="183">
         <v>4438</v>
       </c>
-      <c r="O3" s="189">
+      <c r="O3" s="183">
         <v>4439</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="309" t="s">
+    <row r="4" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="302" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="311"/>
-    </row>
-    <row r="5" spans="1:15" s="232" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="207" t="s">
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="304"/>
+    </row>
+    <row r="5" spans="1:15" s="226" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="192">
+      <c r="B5" s="186">
         <v>44636</v>
       </c>
-      <c r="C5" s="233">
+      <c r="C5" s="227">
         <v>1857</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="184" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="191" t="s">
+      <c r="E5" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="192">
+      <c r="F5" s="186">
         <v>44636</v>
       </c>
-      <c r="G5" s="193" t="s">
+      <c r="G5" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="194"/>
-      <c r="I5" s="233">
+      <c r="H5" s="188"/>
+      <c r="I5" s="227">
         <v>1857</v>
       </c>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196"/>
-      <c r="L5" s="197">
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="191">
         <v>1593.75</v>
       </c>
-      <c r="M5" s="197">
+      <c r="M5" s="191">
         <v>281.25</v>
       </c>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
-    </row>
-    <row r="6" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="309" t="s">
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+    </row>
+    <row r="6" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="302" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="310"/>
-      <c r="E6" s="310"/>
-      <c r="F6" s="310"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="310"/>
-      <c r="I6" s="310"/>
-      <c r="J6" s="310"/>
-      <c r="K6" s="310"/>
-      <c r="L6" s="310"/>
-      <c r="M6" s="310"/>
-      <c r="N6" s="310"/>
-      <c r="O6" s="311"/>
-    </row>
-    <row r="7" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="234"/>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="234"/>
-      <c r="M7" s="234"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="234"/>
-    </row>
-    <row r="8" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="234"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="234"/>
-    </row>
-    <row r="9" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="234"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-    </row>
-    <row r="10" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="234"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-    </row>
-    <row r="11" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="234"/>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-    </row>
-    <row r="12" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="234"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-    </row>
-    <row r="13" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="234"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-    </row>
-    <row r="14" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="234"/>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-    </row>
-    <row r="15" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="234"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-    </row>
-    <row r="16" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="234"/>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-    </row>
-    <row r="17" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="234"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-    </row>
-    <row r="18" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="234"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-    </row>
-    <row r="19" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="234"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-    </row>
-    <row r="20" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="234"/>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-    </row>
-    <row r="21" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="234"/>
-      <c r="B21" s="234"/>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-    </row>
-    <row r="22" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="234"/>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-    </row>
-    <row r="23" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="207"/>
-      <c r="B23" s="207"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="190"/>
-      <c r="O23" s="190"/>
-    </row>
-    <row r="24" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="319" t="s">
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="303"/>
+      <c r="K6" s="303"/>
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="303"/>
+      <c r="O6" s="304"/>
+    </row>
+    <row r="7" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="228"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+    </row>
+    <row r="8" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="228"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+    </row>
+    <row r="9" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="228"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="228"/>
+      <c r="N9" s="228"/>
+      <c r="O9" s="228"/>
+    </row>
+    <row r="10" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="228"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+    </row>
+    <row r="11" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="228"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="228"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="228"/>
+      <c r="N11" s="228"/>
+      <c r="O11" s="228"/>
+    </row>
+    <row r="12" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="228"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="228"/>
+    </row>
+    <row r="13" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="228"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="228"/>
+    </row>
+    <row r="14" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="228"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="228"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="228"/>
+      <c r="O14" s="228"/>
+    </row>
+    <row r="15" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="228"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="228"/>
+      <c r="M15" s="228"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="228"/>
+    </row>
+    <row r="16" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="228"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="228"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="228"/>
+      <c r="O16" s="228"/>
+    </row>
+    <row r="17" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="228"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="228"/>
+      <c r="O17" s="228"/>
+    </row>
+    <row r="18" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="228"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="228"/>
+      <c r="O18" s="228"/>
+    </row>
+    <row r="19" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="228"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="228"/>
+    </row>
+    <row r="20" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="228"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="228"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="228"/>
+      <c r="O20" s="228"/>
+    </row>
+    <row r="21" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="228"/>
+      <c r="B21" s="228"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="228"/>
+      <c r="N21" s="228"/>
+      <c r="O21" s="228"/>
+    </row>
+    <row r="22" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="228"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="228"/>
+    </row>
+    <row r="23" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="201"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+    </row>
+    <row r="24" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="314" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="320"/>
-      <c r="C24" s="320"/>
-      <c r="D24" s="320"/>
-      <c r="E24" s="320"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="320"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="235"/>
-      <c r="K24" s="235"/>
-      <c r="L24" s="236">
+      <c r="B24" s="315"/>
+      <c r="C24" s="315"/>
+      <c r="D24" s="315"/>
+      <c r="E24" s="315"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="315"/>
+      <c r="H24" s="315"/>
+      <c r="I24" s="316"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="229"/>
+      <c r="L24" s="230">
         <f>SUM(L5)</f>
         <v>1593.75</v>
       </c>
-      <c r="M24" s="236">
+      <c r="M24" s="230">
         <f>SUM(M5)</f>
         <v>281.25</v>
       </c>
-      <c r="N24" s="235"/>
-      <c r="O24" s="235"/>
-    </row>
-    <row r="25" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:15" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" s="232" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="N24" s="229"/>
+      <c r="O24" s="229"/>
+    </row>
+    <row r="25" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A6:O6"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05C42C-8ED4-4369-A2A1-62A2002D2FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A4FCB-A4CA-43D4-A276-21E812ADCB1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>QQ Factory</author>
+    <author>Jarosz Wojciech</author>
   </authors>
   <commentList>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{228589D0-44FC-418A-9AB4-45CD922DE5FB}">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 20 na ubezpieczenia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{E6DC5F01-2D82-471F-B692-F75DBB749FAD}">
       <text>
         <r>
           <rPr>
@@ -313,7 +341,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 60 przesunięcia na ubezpieczenia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{25F7261F-6DB3-49B6-8616-C4D718F3A1E0}">
       <text>
         <r>
           <rPr>
@@ -367,7 +422,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+2520 bilety + 35 ubezpieczenie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{DA125923-CF25-4E04-8227-6FA2710E2E62}">
       <text>
         <r>
           <rPr>
@@ -421,7 +502,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+445 bilety + 7 ubezpieczenie
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{BBB6CD36-46BF-40B6-8F33-5D1F484C9261}">
       <text>
         <r>
           <rPr>
@@ -475,7 +583,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Przesunięte z 4420 60 zł, 4210 20 zł
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{C394F001-F221-45B5-943A-A6F1148D9723}">
       <text>
         <r>
           <rPr>
@@ -501,7 +636,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Przesunięte z 4420 60 zł, 4210 20 zł</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -553,7 +714,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="J26" authorId="1" shapeId="0" xr:uid="{043903CE-C9DA-43E3-BE9D-1BAC45FC90BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Jarosz Wojciech:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+zwrot 2556
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +768,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="J27" authorId="1" shapeId="0" xr:uid="{03A60BB3-2E8C-49A5-B661-8061F168A21F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jarosz Wojciech:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+zwrot 451
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -612,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="210">
   <si>
     <r>
       <rPr>
@@ -1300,10 +1513,19 @@
     <t>sciągnąć z 4300 obu linii</t>
   </si>
   <si>
-    <t>2022 na dzien 25.05.2022</t>
+    <t>podsuma</t>
   </si>
   <si>
-    <t>podsuma</t>
+    <t>Wyrównanie</t>
+  </si>
+  <si>
+    <t>Przesunięcie 05.2022</t>
+  </si>
+  <si>
+    <t>Do realizacji 2022</t>
+  </si>
+  <si>
+    <t>2022 na dzien 20.05.2022</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2730,15 +2952,6 @@
     <xf numFmtId="169" fontId="34" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2756,9 +2969,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2973,208 +3183,6 @@
     <xf numFmtId="3" fontId="34" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3240,6 +3248,217 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3517,11 +3736,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3636,11 +3855,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="250" t="s">
+      <c r="C5" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="251"/>
-      <c r="E5" s="252"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="272"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3693,12 +3912,12 @@
     </row>
     <row r="7" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="255"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="275"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3814,7 +4033,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="263" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3849,7 +4068,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="244"/>
+      <c r="A12" s="264"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3882,7 +4101,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +4134,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="243" t="s">
+      <c r="A14" s="263" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3950,7 +4169,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="244"/>
+      <c r="A15" s="264"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3983,7 +4202,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
+      <c r="A16" s="265"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -4016,7 +4235,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="243" t="s">
+      <c r="A17" s="263" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4051,7 +4270,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="245"/>
+      <c r="A18" s="265"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -4084,7 +4303,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="243" t="s">
+      <c r="A19" s="263" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4119,7 +4338,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="244"/>
+      <c r="A20" s="264"/>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -4152,7 +4371,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="244"/>
+      <c r="A21" s="264"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -4185,7 +4404,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="244"/>
+      <c r="A22" s="264"/>
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -4218,7 +4437,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="244"/>
+      <c r="A23" s="264"/>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
@@ -4251,7 +4470,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="244"/>
+      <c r="A24" s="264"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -4284,7 +4503,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="245"/>
+      <c r="A25" s="265"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
@@ -4317,7 +4536,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="243" t="s">
+      <c r="A26" s="263" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4352,7 +4571,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="245"/>
+      <c r="A27" s="265"/>
       <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
@@ -4385,10 +4604,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="246" t="s">
+      <c r="A28" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="247"/>
+      <c r="B28" s="267"/>
       <c r="C28" s="16" t="e">
         <f>C13+C16+C18+C25+C27</f>
         <v>#REF!</v>
@@ -4516,7 +4735,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="263" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -4560,7 +4779,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="244"/>
+      <c r="A33" s="264"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -4600,7 +4819,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="245"/>
+      <c r="A34" s="265"/>
       <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
@@ -4642,7 +4861,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="243" t="s">
+      <c r="A35" s="263" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4686,7 +4905,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="244"/>
+      <c r="A36" s="264"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -4728,7 +4947,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="245"/>
+      <c r="A37" s="265"/>
       <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
@@ -4770,7 +4989,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="243" t="s">
+      <c r="A38" s="263" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -4814,7 +5033,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="245"/>
+      <c r="A39" s="265"/>
       <c r="B39" s="15" t="s">
         <v>19</v>
       </c>
@@ -4856,7 +5075,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="243" t="s">
+      <c r="A40" s="263" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -4900,7 +5119,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="244"/>
+      <c r="A41" s="264"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
@@ -4942,7 +5161,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="244"/>
+      <c r="A42" s="264"/>
       <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
@@ -4984,7 +5203,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="244"/>
+      <c r="A43" s="264"/>
       <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
@@ -5026,7 +5245,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
+      <c r="A44" s="264"/>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
@@ -5068,7 +5287,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="244"/>
+      <c r="A45" s="264"/>
       <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
@@ -5110,7 +5329,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
+      <c r="A46" s="265"/>
       <c r="B46" s="15" t="s">
         <v>27</v>
       </c>
@@ -5152,7 +5371,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="243" t="s">
+      <c r="A47" s="263" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -5196,7 +5415,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
+      <c r="A48" s="265"/>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
@@ -5238,10 +5457,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="246" t="s">
+      <c r="A49" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="247"/>
+      <c r="B49" s="267"/>
       <c r="C49" s="16" t="e">
         <f t="shared" ref="C49:F49" si="13">C34+C37+C39+C46+C48</f>
         <v>#REF!</v>
@@ -32007,7 +32226,7 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="263" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -32018,7 +32237,7 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="244"/>
+      <c r="A7" s="264"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -32029,7 +32248,7 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="245"/>
+      <c r="A8" s="265"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -32041,7 +32260,7 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="243" t="s">
+      <c r="A9" s="263" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -32052,7 +32271,7 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="244"/>
+      <c r="A10" s="264"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -32064,7 +32283,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="245"/>
+      <c r="A11" s="265"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -32076,7 +32295,7 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="263" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -32089,7 +32308,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -32101,7 +32320,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="243" t="s">
+      <c r="A14" s="263" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -32112,7 +32331,7 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="244"/>
+      <c r="A15" s="264"/>
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
@@ -32123,7 +32342,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="244"/>
+      <c r="A16" s="264"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -32134,7 +32353,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="244"/>
+      <c r="A17" s="264"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -32145,7 +32364,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="244"/>
+      <c r="A18" s="264"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -32156,7 +32375,7 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="244"/>
+      <c r="A19" s="264"/>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
@@ -32167,7 +32386,7 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="245"/>
+      <c r="A20" s="265"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -32179,7 +32398,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="243" t="s">
+      <c r="A21" s="263" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -32192,7 +32411,7 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="245"/>
+      <c r="A22" s="265"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
@@ -32204,10 +32423,10 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246" t="s">
+      <c r="A23" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="247"/>
+      <c r="B23" s="267"/>
       <c r="C23" s="16">
         <f>C8+C11+C13+C20+C22</f>
         <v>70083.78</v>
@@ -32255,7 +32474,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="263" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -32268,7 +32487,7 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="244"/>
+      <c r="A28" s="264"/>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
@@ -32289,7 +32508,7 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="245"/>
+      <c r="A29" s="265"/>
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -32312,7 +32531,7 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="263" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -32325,7 +32544,7 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="244"/>
+      <c r="A31" s="264"/>
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -32348,7 +32567,7 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="245"/>
+      <c r="A32" s="265"/>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -32371,7 +32590,7 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="243" t="s">
+      <c r="A33" s="263" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -32394,7 +32613,7 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="245"/>
+      <c r="A34" s="265"/>
       <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
@@ -32417,7 +32636,7 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="243" t="s">
+      <c r="A35" s="263" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -32430,7 +32649,7 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="244"/>
+      <c r="A36" s="264"/>
       <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
@@ -32451,7 +32670,7 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="244"/>
+      <c r="A37" s="264"/>
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
@@ -32472,7 +32691,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="244"/>
+      <c r="A38" s="264"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -32493,7 +32712,7 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="244"/>
+      <c r="A39" s="264"/>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
@@ -32514,7 +32733,7 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="244"/>
+      <c r="A40" s="264"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -32535,7 +32754,7 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="245"/>
+      <c r="A41" s="265"/>
       <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
@@ -32558,7 +32777,7 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="243" t="s">
+      <c r="A42" s="263" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -32580,7 +32799,7 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="245"/>
+      <c r="A43" s="265"/>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
@@ -32602,10 +32821,10 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="246" t="s">
+      <c r="A44" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="247"/>
+      <c r="B44" s="267"/>
       <c r="C44" s="16">
         <f t="shared" ref="C44:F44" si="9">C29+C32+C34+C41+C43</f>
         <v>70083.78</v>
@@ -32667,7 +32886,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="263" t="s">
+      <c r="A49" s="278" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -32693,7 +32912,7 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="259"/>
+      <c r="A50" s="279"/>
       <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
@@ -32717,7 +32936,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="263" t="s">
+      <c r="A51" s="278" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -32743,7 +32962,7 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="259"/>
+      <c r="A52" s="279"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -32767,7 +32986,7 @@
       <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="260" t="s">
+      <c r="A53" s="280" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -32793,7 +33012,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="264"/>
+      <c r="A54" s="281"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -32817,7 +33036,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="263" t="s">
+      <c r="A55" s="278" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -32843,7 +33062,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="258"/>
+      <c r="A56" s="282"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -32867,7 +33086,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="258"/>
+      <c r="A57" s="282"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -32891,7 +33110,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="258"/>
+      <c r="A58" s="282"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -32915,7 +33134,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="258"/>
+      <c r="A59" s="282"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -32939,7 +33158,7 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="259"/>
+      <c r="A60" s="279"/>
       <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
@@ -32963,7 +33182,7 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="260" t="s">
+      <c r="A61" s="280" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -32986,7 +33205,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="264"/>
+      <c r="A62" s="281"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33010,10 +33229,10 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="256" t="s">
+      <c r="A63" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="262"/>
+      <c r="B63" s="277"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33071,7 +33290,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="258" t="s">
+      <c r="A68" s="282" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33093,7 +33312,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="258"/>
+      <c r="A69" s="282"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33110,7 +33329,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="258"/>
+      <c r="A70" s="282"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33138,7 +33357,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="258"/>
+      <c r="A71" s="282"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33170,7 +33389,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="258"/>
+      <c r="A72" s="282"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33195,7 +33414,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="258"/>
+      <c r="A73" s="282"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33229,7 +33448,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="258"/>
+      <c r="A74" s="282"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33249,7 +33468,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="258"/>
+      <c r="A75" s="282"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33270,7 +33489,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="258"/>
+      <c r="A76" s="282"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33290,7 +33509,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="258"/>
+      <c r="A77" s="282"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -33310,7 +33529,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="258"/>
+      <c r="A78" s="282"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -33328,7 +33547,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="259"/>
+      <c r="A79" s="279"/>
       <c r="B79" s="40" t="s">
         <v>47</v>
       </c>
@@ -33396,7 +33615,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="258" t="s">
+      <c r="A83" s="282" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -33418,7 +33637,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="258"/>
+      <c r="A84" s="282"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -33436,7 +33655,7 @@
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="259"/>
+      <c r="A85" s="279"/>
       <c r="B85" s="15" t="s">
         <v>50</v>
       </c>
@@ -33456,7 +33675,7 @@
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="260" t="s">
+      <c r="A86" s="280" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -33478,7 +33697,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="261"/>
+      <c r="A87" s="284"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -33498,7 +33717,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="261"/>
+      <c r="A88" s="284"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -33518,7 +33737,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="261"/>
+      <c r="A89" s="284"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -33536,7 +33755,7 @@
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="259"/>
+      <c r="A90" s="279"/>
       <c r="B90" s="15" t="s">
         <v>53</v>
       </c>
@@ -33556,7 +33775,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="258" t="s">
+      <c r="A91" s="282" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -33578,7 +33797,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="258"/>
+      <c r="A92" s="282"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -33598,7 +33817,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="258"/>
+      <c r="A93" s="282"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -33618,7 +33837,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="258"/>
+      <c r="A94" s="282"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -33638,7 +33857,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="258"/>
+      <c r="A95" s="282"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -33658,7 +33877,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="258"/>
+      <c r="A96" s="282"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -33677,7 +33896,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="258"/>
+      <c r="A97" s="282"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -33696,7 +33915,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="258"/>
+      <c r="A98" s="282"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -33713,7 +33932,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="258"/>
+      <c r="A99" s="282"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -33730,7 +33949,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="258"/>
+      <c r="A100" s="282"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -33749,7 +33968,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="258"/>
+      <c r="A101" s="282"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -33768,7 +33987,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="258"/>
+      <c r="A102" s="282"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -33786,7 +34005,7 @@
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="259"/>
+      <c r="A103" s="279"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -33806,7 +34025,7 @@
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="260" t="s">
+      <c r="A104" s="280" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -33828,7 +34047,7 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="259"/>
+      <c r="A105" s="279"/>
       <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
@@ -33848,10 +34067,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="256" t="s">
+      <c r="A106" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="257"/>
+      <c r="B106" s="283"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -37541,11 +37760,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -37553,18 +37779,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37616,7 +37835,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="282" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -37633,7 +37852,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="258"/>
+      <c r="A4" s="282"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -37648,7 +37867,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="258"/>
+      <c r="A5" s="282"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -37663,7 +37882,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="258"/>
+      <c r="A6" s="282"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -37678,7 +37897,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="258"/>
+      <c r="A7" s="282"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -37693,7 +37912,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="258"/>
+      <c r="A8" s="282"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -37708,7 +37927,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="258"/>
+      <c r="A9" s="282"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -37723,7 +37942,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="258"/>
+      <c r="A10" s="282"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -37738,7 +37957,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="258"/>
+      <c r="A11" s="282"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -37753,7 +37972,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="258"/>
+      <c r="A12" s="282"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -37769,7 +37988,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="258"/>
+      <c r="A13" s="282"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -37783,7 +38002,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="259"/>
+      <c r="A14" s="279"/>
       <c r="B14" s="110" t="s">
         <v>47</v>
       </c>
@@ -37838,7 +38057,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="282" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -37856,7 +38075,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="258"/>
+      <c r="A19" s="282"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -37870,7 +38089,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="259"/>
+      <c r="A20" s="279"/>
       <c r="B20" s="111" t="s">
         <v>50</v>
       </c>
@@ -37886,7 +38105,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="280" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -37904,7 +38123,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="261"/>
+      <c r="A22" s="284"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -37920,7 +38139,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="261"/>
+      <c r="A23" s="284"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -37936,7 +38155,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="261"/>
+      <c r="A24" s="284"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -37950,7 +38169,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="259"/>
+      <c r="A25" s="279"/>
       <c r="B25" s="111" t="s">
         <v>53</v>
       </c>
@@ -37966,7 +38185,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="258" t="s">
+      <c r="A26" s="282" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -37984,7 +38203,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="258"/>
+      <c r="A27" s="282"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38000,7 +38219,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="258"/>
+      <c r="A28" s="282"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38016,7 +38235,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="258"/>
+      <c r="A29" s="282"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38032,7 +38251,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="258"/>
+      <c r="A30" s="282"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38048,7 +38267,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="258"/>
+      <c r="A31" s="282"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38064,7 +38283,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="258"/>
+      <c r="A32" s="282"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38080,7 +38299,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="258"/>
+      <c r="A33" s="282"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38096,7 +38315,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="258"/>
+      <c r="A34" s="282"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38109,14 +38328,14 @@
       <c r="E34" s="74">
         <v>10710</v>
       </c>
-      <c r="F34" s="320">
+      <c r="F34" s="242">
         <f>SUM(E33:E34)</f>
         <v>71400</v>
       </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="258"/>
+      <c r="A35" s="282"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38132,7 +38351,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="258"/>
+      <c r="A36" s="282"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38148,7 +38367,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="258"/>
+      <c r="A37" s="282"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38162,7 +38381,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="259"/>
+      <c r="A38" s="279"/>
       <c r="B38" s="111" t="s">
         <v>70</v>
       </c>
@@ -38178,7 +38397,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="260" t="s">
+      <c r="A39" s="280" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -38196,7 +38415,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="259"/>
+      <c r="A40" s="279"/>
       <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
@@ -38212,10 +38431,10 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="256" t="s">
+      <c r="A41" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="257"/>
+      <c r="B41" s="283"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38243,28 +38462,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="128"/>
-    <col min="2" max="2" width="43.42578125" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="118" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="118" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="118" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="120" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="120" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="120" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="120" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="120" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="120" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="117"/>
+    <col min="9" max="9" width="19.140625" style="120" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="120" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="120" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="117" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="117" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="144" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="144" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="142" t="s">
         <v>135</v>
       </c>
@@ -38283,191 +38506,236 @@
       <c r="F1" s="143">
         <v>2021</v>
       </c>
-      <c r="G1" s="165">
+      <c r="G1" s="162">
         <v>2022</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="141" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="162" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="162" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="162" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="141" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="273" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="301" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="289" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="176">
+      <c r="E2" s="172">
         <v>74149.614000000001</v>
       </c>
-      <c r="F2" s="176">
+      <c r="F2" s="172">
         <v>27318.149999999998</v>
       </c>
-      <c r="G2" s="176">
+      <c r="G2" s="172">
         <v>46832</v>
       </c>
-      <c r="H2" s="176">
+      <c r="H2" s="172">
         <v>2662</v>
       </c>
-      <c r="I2" s="176">
-        <v>46831.6</v>
-      </c>
-      <c r="J2" s="176">
+      <c r="I2" s="172">
+        <f>H2+G2</f>
+        <v>49494</v>
+      </c>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172">
         <v>29496</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="274"/>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="175" t="s">
+      <c r="L2" s="172"/>
+      <c r="M2" s="172">
+        <v>29496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="302"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="176">
+      <c r="E3" s="172">
         <v>13086</v>
       </c>
-      <c r="F3" s="176">
+      <c r="F3" s="172">
         <v>4820.8499999999995</v>
       </c>
-      <c r="G3" s="176">
+      <c r="G3" s="172">
         <v>8265</v>
       </c>
-      <c r="H3" s="176">
+      <c r="H3" s="172">
         <v>470</v>
       </c>
-      <c r="I3" s="176">
-        <v>8265</v>
-      </c>
-      <c r="J3" s="176">
+      <c r="I3" s="172">
+        <f>H3+G3</f>
+        <v>8735</v>
+      </c>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172">
         <v>5206</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="274"/>
-      <c r="B4" s="265" t="s">
+      <c r="L3" s="172"/>
+      <c r="M3" s="172">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="302"/>
+      <c r="B4" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="175" t="s">
+      <c r="D4" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="176">
+      <c r="E4" s="172">
         <v>12746.3195</v>
       </c>
-      <c r="F4" s="176">
+      <c r="F4" s="172">
         <v>4696.25</v>
       </c>
-      <c r="G4" s="176">
+      <c r="G4" s="172">
         <v>8050</v>
       </c>
-      <c r="H4" s="176">
+      <c r="H4" s="172">
         <v>501</v>
       </c>
-      <c r="I4" s="176">
-        <v>8050.3499999999995</v>
-      </c>
-      <c r="J4" s="176">
-        <v>5179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="274"/>
-      <c r="B5" s="266"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="175" t="s">
+      <c r="I4" s="172">
+        <f>H4+G4</f>
+        <v>8551</v>
+      </c>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172">
+        <v>5197</v>
+      </c>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="302"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="176">
+      <c r="E5" s="172">
         <v>2249.3505</v>
       </c>
-      <c r="F5" s="176">
+      <c r="F5" s="172">
         <v>828.75</v>
       </c>
-      <c r="G5" s="176">
+      <c r="G5" s="172">
         <v>1421</v>
       </c>
-      <c r="H5" s="176">
+      <c r="H5" s="172">
         <v>89</v>
       </c>
-      <c r="I5" s="176">
-        <v>1420.6499999999999</v>
-      </c>
-      <c r="J5" s="176">
+      <c r="I5" s="172">
+        <f>H5+G5</f>
+        <v>1510</v>
+      </c>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172">
         <v>918</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="274"/>
-      <c r="B6" s="265" t="s">
+      <c r="L5" s="172"/>
+      <c r="M5" s="172">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="302"/>
+      <c r="B6" s="289" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="265" t="s">
+      <c r="C6" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="175" t="s">
+      <c r="D6" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="176">
+      <c r="E6" s="172">
         <v>1816.6624999999999</v>
       </c>
-      <c r="F6" s="176">
+      <c r="F6" s="172">
         <v>668.94999999999993</v>
       </c>
-      <c r="G6" s="176">
+      <c r="G6" s="172">
         <v>1147</v>
       </c>
-      <c r="H6" s="176">
+      <c r="H6" s="172">
         <v>71</v>
       </c>
-      <c r="I6" s="176">
-        <v>1146.6499999999999</v>
-      </c>
-      <c r="J6" s="176">
+      <c r="I6" s="172">
+        <f>H6+G6</f>
+        <v>1218</v>
+      </c>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172">
         <v>740</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="175" t="s">
+      <c r="L6" s="172"/>
+      <c r="M6" s="172">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="302"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="176">
+      <c r="E7" s="172">
         <v>320.58749999999998</v>
       </c>
-      <c r="F7" s="176">
+      <c r="F7" s="172">
         <v>118.05</v>
       </c>
-      <c r="G7" s="160">
+      <c r="G7" s="157">
         <v>202</v>
       </c>
-      <c r="H7" s="160">
+      <c r="H7" s="157">
         <v>13</v>
       </c>
-      <c r="I7" s="176">
-        <v>202.35</v>
-      </c>
-      <c r="J7" s="176">
+      <c r="I7" s="157">
+        <f>H7+G7</f>
+        <v>215</v>
+      </c>
+      <c r="J7" s="157"/>
+      <c r="K7" s="172">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="275"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="172">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="303"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -38485,74 +38753,96 @@
         <f>H2+H3+H4+H5+H6+H7</f>
         <v>3806</v>
       </c>
-      <c r="I8" s="121">
-        <v>65916.600000000006</v>
-      </c>
-      <c r="J8" s="121">
-        <f>SUM(J2:J7)</f>
-        <v>41670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="276" t="s">
+      <c r="I8" s="148">
+        <f>SUM(I2:I7)</f>
+        <v>69723</v>
+      </c>
+      <c r="J8" s="148">
+        <f>J2+J3+J4+J5+J6+J7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="121">
+        <f>SUM(K2:K7)</f>
+        <v>41688</v>
+      </c>
+      <c r="L8" s="148"/>
+      <c r="M8" s="121">
+        <f>SUM(M2:M7)</f>
+        <v>41688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="304" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="265" t="s">
+      <c r="B9" s="289" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="315" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="179">
+      <c r="E9" s="175">
         <v>2661.37788</v>
       </c>
-      <c r="F9" s="179">
+      <c r="F9" s="175">
         <v>980.50763999999992</v>
       </c>
-      <c r="G9" s="160">
+      <c r="G9" s="157">
         <v>1681</v>
       </c>
-      <c r="H9" s="160">
+      <c r="H9" s="157">
         <v>981</v>
       </c>
-      <c r="I9" s="179">
-        <v>1680.8702399999997</v>
-      </c>
-      <c r="J9" s="179">
+      <c r="I9" s="157">
+        <f>H9+G9</f>
+        <v>2662</v>
+      </c>
+      <c r="J9" s="157"/>
+      <c r="K9" s="175">
         <v>1063</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="277"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="180" t="s">
+      <c r="L9" s="157"/>
+      <c r="M9" s="175">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="305"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="181">
+      <c r="E10" s="177">
         <v>469.65491999999995</v>
       </c>
-      <c r="F10" s="181">
+      <c r="F10" s="177">
         <v>173.03075999999999</v>
       </c>
-      <c r="G10" s="160">
+      <c r="G10" s="157">
         <v>297</v>
       </c>
-      <c r="H10" s="160">
+      <c r="H10" s="157">
         <v>153</v>
       </c>
-      <c r="I10" s="179">
-        <v>296.62415999999996</v>
-      </c>
-      <c r="J10" s="179">
+      <c r="I10" s="157">
+        <f>H10+G10</f>
+        <v>450</v>
+      </c>
+      <c r="J10" s="157"/>
+      <c r="K10" s="175">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="278"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="175">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="306"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -38570,265 +38860,330 @@
         <f>SUM(H9:H10)</f>
         <v>1134</v>
       </c>
-      <c r="I11" s="151">
-        <v>1977.4943999999996</v>
-      </c>
-      <c r="J11" s="151">
+      <c r="I11" s="152">
+        <f>SUM(I9:I10)</f>
+        <v>3112</v>
+      </c>
+      <c r="J11" s="152">
         <f>SUM(J9:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="151">
+        <f>SUM(K9:K10)</f>
         <v>1230</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="279" t="s">
+      <c r="L11" s="152"/>
+      <c r="M11" s="151">
+        <f>SUM(M9:M10)</f>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="307" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="313" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="285" t="s">
+      <c r="C12" s="317" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="175" t="s">
+      <c r="D12" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="176">
+      <c r="E12" s="172">
         <v>85775.2</v>
       </c>
-      <c r="F12" s="176">
+      <c r="F12" s="172">
         <v>14565.6</v>
       </c>
-      <c r="G12" s="160">
+      <c r="G12" s="157">
         <v>71210</v>
       </c>
-      <c r="H12" s="160">
+      <c r="H12" s="157">
         <v>7157</v>
       </c>
-      <c r="I12" s="176">
-        <v>47070</v>
-      </c>
-      <c r="J12" s="176">
-        <f>I12+H12</f>
-        <v>54227</v>
-      </c>
-      <c r="L12" s="162"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="280"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="175" t="s">
+      <c r="I12" s="157">
+        <f>H12+G12</f>
+        <v>78367</v>
+      </c>
+      <c r="J12" s="157"/>
+      <c r="K12" s="172">
+        <v>76662</v>
+      </c>
+      <c r="L12" s="157">
+        <v>-24310</v>
+      </c>
+      <c r="M12" s="172">
+        <f>K12+L12</f>
+        <v>52352</v>
+      </c>
+      <c r="O12" s="159"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="308"/>
+      <c r="B13" s="314"/>
+      <c r="C13" s="318"/>
+      <c r="D13" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="176">
+      <c r="E13" s="172">
         <v>15136.8</v>
       </c>
-      <c r="F13" s="176">
+      <c r="F13" s="172">
         <v>2570.4</v>
       </c>
-      <c r="G13" s="160">
+      <c r="G13" s="157">
         <v>12566</v>
       </c>
-      <c r="H13" s="160">
+      <c r="H13" s="157">
         <v>1203</v>
       </c>
-      <c r="I13" s="176">
-        <v>8306</v>
-      </c>
-      <c r="J13" s="176">
-        <f>I13+H13</f>
-        <v>9509</v>
-      </c>
-      <c r="L13" s="162"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="280"/>
-      <c r="B14" s="294" t="s">
+      <c r="I13" s="157">
+        <f>H13+G13</f>
+        <v>13769</v>
+      </c>
+      <c r="J13" s="157"/>
+      <c r="K13" s="172">
+        <v>13468</v>
+      </c>
+      <c r="L13" s="157">
+        <v>-4290</v>
+      </c>
+      <c r="M13" s="172">
+        <f>K13+L13</f>
+        <v>9178</v>
+      </c>
+      <c r="O13" s="159"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="308"/>
+      <c r="B14" s="293" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="286"/>
-      <c r="D14" s="175" t="s">
+      <c r="C14" s="318"/>
+      <c r="D14" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="176" t="s">
+      <c r="E14" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="176" t="s">
+      <c r="F14" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="160" t="s">
+      <c r="G14" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="160">
-        <f>-2520 - 35</f>
-        <v>-2555</v>
-      </c>
-      <c r="I14" s="176">
+      <c r="H14" s="157"/>
+      <c r="I14" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="157">
+        <v>-2556</v>
+      </c>
+      <c r="K14" s="172"/>
+      <c r="L14" s="157">
         <v>23800</v>
       </c>
-      <c r="J14" s="176">
-        <f>I14+H14</f>
-        <v>21245</v>
-      </c>
-      <c r="K14" s="170"/>
-      <c r="M14" s="162"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="280"/>
-      <c r="B15" s="299"/>
-      <c r="C15" s="286"/>
-      <c r="D15" s="175" t="s">
+      <c r="M14" s="172">
+        <f>J14+L14</f>
+        <v>21244</v>
+      </c>
+      <c r="N14" s="166"/>
+      <c r="P14" s="159"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="308"/>
+      <c r="B15" s="320"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="176" t="s">
+      <c r="F15" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="160">
-        <f>-445 - 7</f>
-        <v>-452</v>
-      </c>
-      <c r="I15" s="176">
+      <c r="H15" s="157"/>
+      <c r="I15" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="157">
+        <v>-451</v>
+      </c>
+      <c r="K15" s="172"/>
+      <c r="L15" s="157">
         <v>4200</v>
       </c>
-      <c r="J15" s="176">
-        <f>I15+H15</f>
-        <v>3748</v>
-      </c>
-      <c r="K15" s="170"/>
-      <c r="M15" s="162"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="280"/>
-      <c r="B16" s="300" t="s">
+      <c r="M15" s="172">
+        <f>J15+L15</f>
+        <v>3749</v>
+      </c>
+      <c r="N15" s="166"/>
+      <c r="P15" s="159"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="308"/>
+      <c r="B16" s="298" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="286"/>
-      <c r="D16" s="175" t="s">
+      <c r="C16" s="318"/>
+      <c r="D16" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="176" t="s">
+      <c r="F16" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="160" t="s">
+      <c r="G16" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="160">
+      <c r="H16" s="157">
         <v>50</v>
       </c>
-      <c r="I16" s="176">
+      <c r="I16" s="157">
+        <f>H16</f>
+        <v>50</v>
+      </c>
+      <c r="J16" s="157"/>
+      <c r="K16" s="172">
+        <v>50</v>
+      </c>
+      <c r="L16" s="157">
         <v>340</v>
       </c>
-      <c r="J16" s="176">
-        <f>H16+I16</f>
+      <c r="M16" s="172">
+        <f>L16+K16</f>
         <v>390</v>
       </c>
-      <c r="K16" s="170"/>
-      <c r="M16" s="162"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="280"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="175" t="s">
+      <c r="N16" s="166"/>
+      <c r="P16" s="159"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="308"/>
+      <c r="B17" s="298"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="175" t="s">
+      <c r="E17" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="175" t="s">
+      <c r="F17" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="175" t="s">
+      <c r="G17" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="175">
+      <c r="H17" s="171">
         <v>30</v>
       </c>
-      <c r="I17" s="175">
+      <c r="I17" s="171">
+        <f>H17</f>
+        <v>30</v>
+      </c>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171">
+        <v>30</v>
+      </c>
+      <c r="L17" s="171">
         <v>60</v>
       </c>
-      <c r="J17" s="175">
-        <f>H17+I17</f>
+      <c r="M17" s="171">
+        <f>K17+L17</f>
         <v>90</v>
       </c>
-      <c r="M17" s="162"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="281"/>
+      <c r="P17" s="159"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="309"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
       <c r="E18" s="154">
-        <f>SUM(E12:E17)</f>
+        <f t="shared" ref="E18:M18" si="0">SUM(E12:E17)</f>
         <v>100912</v>
       </c>
       <c r="F18" s="155">
-        <f>SUM(F12:F17)</f>
+        <f t="shared" si="0"/>
         <v>17136</v>
       </c>
-      <c r="G18" s="317">
-        <f>SUM(G12:G17)</f>
+      <c r="G18" s="239">
+        <f t="shared" si="0"/>
         <v>83776</v>
       </c>
-      <c r="H18" s="317">
-        <f>SUM(H12:H17)</f>
-        <v>5433</v>
-      </c>
-      <c r="I18" s="155">
+      <c r="H18" s="239">
+        <f t="shared" si="0"/>
+        <v>8440</v>
+      </c>
+      <c r="I18" s="239">
         <f>SUM(I12:I17)</f>
-        <v>83776</v>
-      </c>
-      <c r="J18" s="155">
-        <f>SUM(J12:J17)</f>
-        <v>89209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="282" t="s">
+        <v>92216</v>
+      </c>
+      <c r="J18" s="239">
+        <f t="shared" si="0"/>
+        <v>-3007</v>
+      </c>
+      <c r="K18" s="155">
+        <f>SUM(K12:K17)</f>
+        <v>90210</v>
+      </c>
+      <c r="L18" s="239"/>
+      <c r="M18" s="155">
+        <f t="shared" si="0"/>
+        <v>87003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="310" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="289" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="292" t="s">
+      <c r="C19" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="156" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="125">
         <v>12138</v>
       </c>
-      <c r="F19" s="161">
+      <c r="F19" s="158">
         <v>4046</v>
       </c>
-      <c r="G19" s="160">
+      <c r="G19" s="157">
         <v>8092</v>
       </c>
-      <c r="H19" s="160">
+      <c r="H19" s="157">
         <v>4046</v>
       </c>
-      <c r="I19" s="161">
-        <v>8092</v>
-      </c>
-      <c r="J19" s="161">
-        <f>I19+H19</f>
+      <c r="I19" s="157">
+        <f>H19+G19</f>
         <v>12138</v>
       </c>
-      <c r="K19" s="162"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="283"/>
-      <c r="B20" s="266"/>
-      <c r="C20" s="293"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="158">
+        <v>12138</v>
+      </c>
+      <c r="L19" s="157"/>
+      <c r="M19" s="158">
+        <f>K19+J19</f>
+        <v>12138</v>
+      </c>
+      <c r="N19" s="159"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="311"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="292"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -38844,324 +39199,416 @@
       <c r="H20" s="124">
         <v>714</v>
       </c>
-      <c r="I20" s="161">
-        <v>1428</v>
-      </c>
-      <c r="J20" s="161">
-        <f>I20+H20</f>
+      <c r="I20" s="124">
+        <f>H20+G20</f>
         <v>2142</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="283"/>
-      <c r="B21" s="325"/>
-      <c r="C21" s="326"/>
-      <c r="D21" s="327" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="328">
+      <c r="J20" s="124"/>
+      <c r="K20" s="158">
+        <v>2142</v>
+      </c>
+      <c r="L20" s="124"/>
+      <c r="M20" s="158">
+        <f>K20+J20</f>
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="311"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="249" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="250">
         <f>SUM(E19:E20)</f>
         <v>14280</v>
       </c>
-      <c r="F21" s="329">
+      <c r="F21" s="251">
         <f>SUM(F19:F20)</f>
         <v>4760</v>
       </c>
-      <c r="G21" s="330">
+      <c r="G21" s="252">
         <f>SUM(G19:G20)</f>
         <v>9520</v>
       </c>
-      <c r="H21" s="330">
+      <c r="H21" s="252">
         <f>SUM(H19:H20)</f>
         <v>4760</v>
       </c>
-      <c r="I21" s="323"/>
-      <c r="J21" s="323"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="283"/>
-      <c r="B22" s="265" t="s">
+      <c r="I21" s="252">
+        <f>SUM(I19:I20)</f>
+        <v>14280</v>
+      </c>
+      <c r="J21" s="252">
+        <f>SUM(J19:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="245"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="245"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="311"/>
+      <c r="B22" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="294" t="s">
+      <c r="C22" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="175" t="s">
+      <c r="D22" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="176">
+      <c r="E22" s="172">
         <v>32368</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="158">
         <v>12138</v>
       </c>
-      <c r="G22" s="177">
+      <c r="G22" s="173">
         <v>20230</v>
       </c>
-      <c r="H22" s="177">
+      <c r="H22" s="173">
         <v>12138</v>
       </c>
-      <c r="I22" s="161">
-        <v>18636</v>
-      </c>
-      <c r="J22" s="161">
-        <f>I22+H22</f>
+      <c r="I22" s="173">
+        <f>H22+G22</f>
+        <v>32368</v>
+      </c>
+      <c r="J22" s="173"/>
+      <c r="K22" s="158">
         <v>30774</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="283"/>
-      <c r="B23" s="298"/>
-      <c r="C23" s="295"/>
-      <c r="D23" s="175" t="s">
+      <c r="L22" s="173"/>
+      <c r="M22" s="158">
+        <f>K22+J22</f>
+        <v>30774</v>
+      </c>
+      <c r="N22" s="165"/>
+      <c r="O22" s="166"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="311"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="176">
+      <c r="E23" s="172">
         <v>5712</v>
       </c>
-      <c r="F23" s="161">
+      <c r="F23" s="158">
         <v>2142</v>
       </c>
-      <c r="G23" s="160">
+      <c r="G23" s="157">
         <v>3570</v>
       </c>
-      <c r="H23" s="160">
+      <c r="H23" s="157">
         <v>2142</v>
       </c>
-      <c r="I23" s="161">
-        <v>3289</v>
-      </c>
-      <c r="J23" s="161">
-        <f>I23+H23</f>
+      <c r="I23" s="173">
+        <f t="shared" ref="I23:I27" si="1">H23+G23</f>
+        <v>5712</v>
+      </c>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158">
         <v>5431</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="283"/>
-      <c r="B24" s="298"/>
-      <c r="C24" s="294" t="s">
+      <c r="L23" s="157"/>
+      <c r="M23" s="158">
+        <f>K23+J23</f>
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="311"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="293" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="175" t="s">
+      <c r="D24" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="176">
+      <c r="E24" s="172">
         <v>23062</v>
       </c>
-      <c r="F24" s="161">
+      <c r="F24" s="158">
         <v>8497</v>
       </c>
-      <c r="G24" s="160">
+      <c r="G24" s="157">
         <v>14566</v>
       </c>
-      <c r="H24" s="160">
+      <c r="H24" s="157">
         <v>8497</v>
       </c>
-      <c r="I24" s="161">
-        <v>14566</v>
-      </c>
-      <c r="J24" s="161">
-        <f>I24+H24</f>
+      <c r="I24" s="173">
+        <f t="shared" si="1"/>
         <v>23063</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="283"/>
-      <c r="B25" s="298"/>
-      <c r="C25" s="295"/>
-      <c r="D25" s="175" t="s">
+      <c r="J24" s="157"/>
+      <c r="K24" s="158">
+        <v>23063</v>
+      </c>
+      <c r="L24" s="157"/>
+      <c r="M24" s="158">
+        <f>K24+J24</f>
+        <v>23063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="311"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="176">
+      <c r="E25" s="172">
         <v>4070</v>
       </c>
-      <c r="F25" s="161">
+      <c r="F25" s="158">
         <v>1499</v>
       </c>
-      <c r="G25" s="178">
+      <c r="G25" s="174">
         <v>2570</v>
       </c>
-      <c r="H25" s="178">
+      <c r="H25" s="174">
         <v>1499</v>
       </c>
-      <c r="I25" s="161">
-        <v>2570</v>
-      </c>
-      <c r="J25" s="161">
-        <f>I25+H25</f>
+      <c r="I25" s="173">
+        <f t="shared" si="1"/>
         <v>4069</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="283"/>
-      <c r="B26" s="298"/>
-      <c r="C26" s="294" t="s">
+      <c r="J25" s="174"/>
+      <c r="K25" s="158">
+        <v>4069</v>
+      </c>
+      <c r="L25" s="174"/>
+      <c r="M25" s="158">
+        <f>K25+J25</f>
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="311"/>
+      <c r="B26" s="297"/>
+      <c r="C26" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="176">
+      <c r="E26" s="172">
         <v>30750</v>
       </c>
-      <c r="F26" s="161">
+      <c r="F26" s="158">
         <v>4855</v>
       </c>
-      <c r="G26" s="160">
+      <c r="G26" s="157">
         <v>25894</v>
       </c>
-      <c r="H26" s="160">
-        <v>4855</v>
-      </c>
-      <c r="I26" s="161">
-        <v>25724</v>
-      </c>
-      <c r="J26" s="161">
-        <f>I26+H26</f>
-        <v>30579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="283"/>
-      <c r="B27" s="298"/>
-      <c r="C27" s="295"/>
-      <c r="D27" s="175" t="s">
+      <c r="H26" s="157">
+        <v>2299</v>
+      </c>
+      <c r="I26" s="173">
+        <f t="shared" si="1"/>
+        <v>28193</v>
+      </c>
+      <c r="J26" s="157">
+        <v>2556</v>
+      </c>
+      <c r="K26" s="158">
+        <v>28193</v>
+      </c>
+      <c r="L26" s="157"/>
+      <c r="M26" s="158">
+        <f>K26+J26</f>
+        <v>30749</v>
+      </c>
+      <c r="N26" s="165"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="311"/>
+      <c r="B27" s="297"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="176">
+      <c r="E27" s="172">
         <v>5426</v>
       </c>
-      <c r="F27" s="161">
+      <c r="F27" s="158">
         <v>857</v>
       </c>
-      <c r="G27" s="177">
+      <c r="G27" s="173">
         <v>4570</v>
       </c>
-      <c r="H27" s="177">
-        <v>857</v>
-      </c>
-      <c r="I27" s="161">
-        <v>4540</v>
-      </c>
-      <c r="J27" s="161">
-        <f>I27+H27</f>
-        <v>5397</v>
-      </c>
-      <c r="N27" s="169"/>
-    </row>
-    <row r="28" spans="1:14" s="318" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="283"/>
-      <c r="B28" s="331"/>
-      <c r="C28" s="326"/>
-      <c r="D28" s="321" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="322">
-        <f>SUM(E22:E27)</f>
+      <c r="H27" s="173">
+        <v>406</v>
+      </c>
+      <c r="I27" s="173">
+        <f t="shared" si="1"/>
+        <v>4976</v>
+      </c>
+      <c r="J27" s="173">
+        <v>451</v>
+      </c>
+      <c r="K27" s="158">
+        <v>4976</v>
+      </c>
+      <c r="L27" s="173"/>
+      <c r="M27" s="158">
+        <f>K27+J27</f>
+        <v>5427</v>
+      </c>
+      <c r="N27" s="166"/>
+      <c r="Q27" s="165"/>
+    </row>
+    <row r="28" spans="1:17" s="240" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="311"/>
+      <c r="B28" s="253"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="243" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="244">
+        <f t="shared" ref="E28:M28" si="2">SUM(E22:E27)</f>
         <v>101388</v>
       </c>
-      <c r="F28" s="323">
-        <f>SUM(F22:F27)</f>
+      <c r="F28" s="245">
+        <f t="shared" si="2"/>
         <v>29988</v>
       </c>
-      <c r="G28" s="324">
-        <f>SUM(G22:G27)</f>
+      <c r="G28" s="246">
+        <f t="shared" si="2"/>
         <v>71400</v>
       </c>
-      <c r="H28" s="324">
+      <c r="H28" s="246">
         <f>SUM(H22:H27)</f>
-        <v>29988</v>
-      </c>
-      <c r="I28" s="323">
+        <v>26981</v>
+      </c>
+      <c r="I28" s="246">
         <f>SUM(I22:I27)</f>
-        <v>69325</v>
-      </c>
-      <c r="J28" s="323">
-        <f>SUM(J22:J27)</f>
-        <v>99313</v>
-      </c>
-      <c r="N28" s="319"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="283"/>
-      <c r="B29" s="300" t="s">
+        <v>98381</v>
+      </c>
+      <c r="J28" s="246">
+        <f t="shared" si="2"/>
+        <v>3007</v>
+      </c>
+      <c r="K28" s="245">
+        <f>SUM(K22:K27)</f>
+        <v>96506</v>
+      </c>
+      <c r="L28" s="246"/>
+      <c r="M28" s="245">
+        <f t="shared" si="2"/>
+        <v>99513</v>
+      </c>
+      <c r="N28" s="241"/>
+      <c r="Q28" s="241"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="311"/>
+      <c r="B29" s="298" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="294" t="s">
+      <c r="C29" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="238"/>
-      <c r="F29" s="239" t="s">
+      <c r="E29" s="234"/>
+      <c r="F29" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="240" t="s">
+      <c r="G29" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="240" t="s">
+      <c r="H29" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="161">
+      <c r="I29" s="236" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="236" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="158">
+        <v>0</v>
+      </c>
+      <c r="L29" s="173">
         <v>170</v>
       </c>
-      <c r="J29" s="161">
-        <f>I29</f>
+      <c r="M29" s="158">
+        <f>L29</f>
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="283"/>
-      <c r="B30" s="300"/>
-      <c r="C30" s="295"/>
-      <c r="D30" s="175" t="s">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="311"/>
+      <c r="B30" s="298"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="238"/>
-      <c r="F30" s="239" t="s">
+      <c r="E30" s="234"/>
+      <c r="F30" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="240" t="s">
+      <c r="G30" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="240" t="s">
+      <c r="H30" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="I30" s="161">
+      <c r="I30" s="236" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" s="236" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="158">
+        <v>0</v>
+      </c>
+      <c r="L30" s="173">
         <v>30</v>
       </c>
-      <c r="J30" s="161">
-        <f>I30</f>
+      <c r="M30" s="158">
+        <f>L30</f>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="283"/>
-      <c r="B31" s="332"/>
-      <c r="C31" s="333"/>
-      <c r="D31" s="334" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="335"/>
-      <c r="F31" s="336"/>
-      <c r="G31" s="337"/>
-      <c r="H31" s="337"/>
-      <c r="I31" s="323">
-        <f>SUM(I29:I30)</f>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="311"/>
+      <c r="B31" s="254"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="256" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="257"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="259" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="259"/>
+      <c r="K31" s="245">
+        <f>SUM(K29:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="259"/>
+      <c r="M31" s="245">
+        <f>SUM(M29:M30)</f>
         <v>200</v>
       </c>
-      <c r="J31" s="323">
-        <f>SUM(J29:J30)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="283"/>
-      <c r="B32" s="290" t="s">
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="311"/>
+      <c r="B32" s="287" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="296" t="s">
+      <c r="C32" s="295" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -39179,18 +39626,24 @@
       <c r="H32" s="124">
         <v>4046</v>
       </c>
-      <c r="I32" s="161">
-        <v>4046</v>
-      </c>
-      <c r="J32" s="161">
-        <f>I32+H32</f>
+      <c r="I32" s="124">
+        <f>H32+G32</f>
         <v>8092</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="283"/>
-      <c r="B33" s="291"/>
-      <c r="C33" s="297"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="158">
+        <v>8092</v>
+      </c>
+      <c r="L32" s="124"/>
+      <c r="M32" s="158">
+        <f>K32+J32</f>
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="311"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="296"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -39206,167 +39659,216 @@
       <c r="H33" s="126">
         <v>714</v>
       </c>
-      <c r="I33" s="161">
-        <v>714</v>
-      </c>
-      <c r="J33" s="161">
-        <f>I33+H33</f>
+      <c r="I33" s="126">
+        <f>H33+G33</f>
         <v>1428</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="283"/>
-      <c r="B34" s="338"/>
-      <c r="C34" s="339"/>
-      <c r="D34" s="340" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="328">
-        <f>SUM(E32:E33)</f>
+      <c r="J33" s="126"/>
+      <c r="K33" s="158">
+        <v>1428</v>
+      </c>
+      <c r="L33" s="126"/>
+      <c r="M33" s="158">
+        <f>K33+J33</f>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="311"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="262" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="250">
+        <f t="shared" ref="E34:M34" si="3">SUM(E32:E33)</f>
         <v>9520</v>
       </c>
-      <c r="F34" s="328">
-        <f>SUM(F32:F33)</f>
+      <c r="F34" s="250">
+        <f t="shared" si="3"/>
         <v>4760</v>
       </c>
-      <c r="G34" s="340">
-        <f>SUM(G32:G33)</f>
+      <c r="G34" s="262">
+        <f t="shared" si="3"/>
         <v>4760</v>
       </c>
-      <c r="H34" s="340">
-        <f>SUM(H32:H33)</f>
+      <c r="H34" s="262">
+        <f t="shared" si="3"/>
         <v>4760</v>
       </c>
-      <c r="I34" s="323">
+      <c r="I34" s="262">
         <f>SUM(I32:I33)</f>
-        <v>4760</v>
-      </c>
-      <c r="J34" s="323">
-        <f>SUM(J32:J33)</f>
         <v>9520</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="284"/>
+      <c r="J34" s="262">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="245">
+        <f>SUM(K32:K33)</f>
+        <v>9520</v>
+      </c>
+      <c r="L34" s="262"/>
+      <c r="M34" s="245">
+        <f t="shared" si="3"/>
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="312"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="164">
-        <f>SUM(E19:E20,E22:E27,E29:E30,E32:E33)</f>
+      <c r="D35" s="160"/>
+      <c r="E35" s="161">
+        <f t="shared" ref="E35:M35" si="4">SUM(E19:E20,E22:E27,E29:E30,E32:E33)</f>
         <v>125188</v>
       </c>
-      <c r="F35" s="164">
-        <f>SUM(F19:F20,F22:F27,F29:F30,F32:F33)</f>
+      <c r="F35" s="161">
+        <f t="shared" si="4"/>
         <v>39508</v>
       </c>
-      <c r="G35" s="242">
-        <f>SUM(G19:G20,G22:G27,G29:G30,G32:G33)</f>
+      <c r="G35" s="238">
+        <f t="shared" si="4"/>
         <v>85680</v>
       </c>
-      <c r="H35" s="242">
-        <f>SUM(H19:H20,H22:H27,H29:H30,H32:H33)</f>
-        <v>39508</v>
-      </c>
-      <c r="I35" s="164">
-        <f>SUM(I19:I20,I22:I27,I29:I30,I32:I33)</f>
-        <v>83805</v>
-      </c>
-      <c r="J35" s="164">
-        <f>SUM(J19:J20,J22:J27,J29:J30,J32:J33)</f>
-        <v>123313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="271" t="s">
+      <c r="H35" s="238">
+        <f t="shared" ref="H35" si="5">SUM(H19:H20,H22:H27,H29:H30,H32:H33)</f>
+        <v>36501</v>
+      </c>
+      <c r="I35" s="238">
+        <f>SUM(I19:I20,I22:I27,I32:I33)</f>
+        <v>122181</v>
+      </c>
+      <c r="J35" s="238">
+        <f t="shared" si="4"/>
+        <v>3007</v>
+      </c>
+      <c r="K35" s="161">
+        <f>SUM(K19:K20,K22:K27,K29:K30,K32:K33)</f>
+        <v>120306</v>
+      </c>
+      <c r="L35" s="238"/>
+      <c r="M35" s="161">
+        <f t="shared" si="4"/>
+        <v>123513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="299" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="119"/>
-      <c r="D36" s="232" t="s">
+      <c r="D36" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="233">
+      <c r="E36" s="229">
         <v>0</v>
       </c>
-      <c r="F36" s="234">
+      <c r="F36" s="230">
         <v>0</v>
       </c>
-      <c r="G36" s="234">
+      <c r="G36" s="230">
         <v>0</v>
       </c>
-      <c r="H36" s="234">
+      <c r="H36" s="230">
         <v>0</v>
       </c>
-      <c r="I36" s="234">
+      <c r="I36" s="230"/>
+      <c r="J36" s="230">
         <v>0</v>
       </c>
-      <c r="J36" s="234">
+      <c r="K36" s="230">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="272"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="235"/>
-      <c r="E37" s="236">
+      <c r="L36" s="230"/>
+      <c r="M36" s="230">
         <v>0</v>
       </c>
-      <c r="F37" s="237">
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="300"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232">
         <v>0</v>
       </c>
-      <c r="G37" s="237">
+      <c r="F37" s="233">
         <v>0</v>
       </c>
-      <c r="H37" s="237">
+      <c r="G37" s="233">
         <v>0</v>
       </c>
-      <c r="I37" s="237">
+      <c r="H37" s="233">
         <v>0</v>
       </c>
-      <c r="J37" s="237">
+      <c r="I37" s="233"/>
+      <c r="J37" s="233">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="K37" s="233">
+        <v>0</v>
+      </c>
+      <c r="L37" s="233"/>
+      <c r="M37" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="288" t="s">
+      <c r="B38" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="289"/>
-      <c r="E38" s="156">
+      <c r="C38" s="285"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
-      <c r="F38" s="157">
+      <c r="F38" s="337">
         <v>96248.53839999999</v>
       </c>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="158">
-        <f>SUM(I8,I11,I18,I35)</f>
-        <v>235475.0944</v>
-      </c>
-      <c r="J38" s="158">
-        <f>SUM(J8,J11,J18,J35)</f>
-        <v>255422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="172" t="s">
+      <c r="G38" s="339">
+        <f>SUM(G35,G18,G11,G8)</f>
+        <v>237351</v>
+      </c>
+      <c r="H38" s="339">
+        <f>SUM(H35,H18,H11,H8)</f>
+        <v>49881</v>
+      </c>
+      <c r="I38" s="339">
+        <f>SUM(I8+I11+I18+I35)</f>
+        <v>287232</v>
+      </c>
+      <c r="J38" s="339">
+        <f>SUM(J35,J18,J11,J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="338">
+        <f>SUM(K8,K11,K18,K35)</f>
+        <v>253434</v>
+      </c>
+      <c r="L38" s="339"/>
+      <c r="M38" s="338">
+        <f>SUM(M8,M11,M18,M35)</f>
+        <v>253434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="173">
+      <c r="D41" s="169">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="172" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="171">
+      <c r="D42" s="167">
         <v>2965.26</v>
       </c>
       <c r="E42" s="120">
@@ -39376,26 +39878,26 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="172" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="173">
+      <c r="D43" s="169">
         <v>2276.9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="172" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="173">
+      <c r="D44" s="169">
         <v>3015.88</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="174"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="170"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C46" s="118" t="s">
         <v>197</v>
       </c>
@@ -39409,12 +39911,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C47" s="118" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C48" s="118" t="s">
         <v>199</v>
       </c>
@@ -39434,28 +39936,12 @@
       <c r="E50" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="F50" s="241" t="s">
+      <c r="F50" s="237" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -39468,6 +39954,22 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39492,1465 +39994,1445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="322" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="312" t="s">
+      <c r="C1" s="322" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="311" t="s">
+      <c r="D1" s="321" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="313" t="s">
+      <c r="E1" s="323" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="311" t="s">
+      <c r="F1" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="311" t="s">
+      <c r="G1" s="321" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="311" t="s">
+      <c r="H1" s="321" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="311" t="s">
+      <c r="I1" s="321" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="311" t="s">
+      <c r="J1" s="321" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311" t="s">
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
-      <c r="R1" s="311"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="321"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="312"/>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311" t="s">
+      <c r="A2" s="322"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="311"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311" t="s">
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-      <c r="P2" s="311"/>
-      <c r="Q2" s="311"/>
-      <c r="R2" s="311"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="321"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="312"/>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="182">
+      <c r="A3" s="322"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="178">
         <v>4420</v>
       </c>
-      <c r="K3" s="182">
+      <c r="K3" s="178">
         <v>4300</v>
       </c>
-      <c r="L3" s="183">
+      <c r="L3" s="179">
         <v>4430</v>
       </c>
-      <c r="M3" s="182">
+      <c r="M3" s="178">
         <v>4428</v>
       </c>
-      <c r="N3" s="182">
+      <c r="N3" s="178">
         <v>4429</v>
       </c>
-      <c r="O3" s="182">
+      <c r="O3" s="178">
         <v>4308</v>
       </c>
-      <c r="P3" s="182">
+      <c r="P3" s="178">
         <v>4309</v>
       </c>
-      <c r="Q3" s="183">
+      <c r="Q3" s="179">
         <v>4438</v>
       </c>
-      <c r="R3" s="183">
+      <c r="R3" s="179">
         <v>4439</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="324" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="304"/>
+      <c r="B4" s="325"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="325"/>
+      <c r="N4" s="325"/>
+      <c r="O4" s="325"/>
+      <c r="P4" s="325"/>
+      <c r="Q4" s="325"/>
+      <c r="R4" s="326"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="305" t="s">
+      <c r="A5" s="327" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="309">
+      <c r="B5" s="328">
         <v>44446</v>
       </c>
-      <c r="C5" s="310">
+      <c r="C5" s="329">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="186">
+      <c r="F5" s="182">
         <v>44455</v>
       </c>
-      <c r="G5" s="187">
+      <c r="G5" s="183">
         <v>196.5</v>
       </c>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="189">
+      <c r="I5" s="185">
         <v>1092.93</v>
       </c>
-      <c r="J5" s="190">
+      <c r="J5" s="186">
         <v>1092.93</v>
       </c>
-      <c r="K5" s="191"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="190">
+      <c r="K5" s="187"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="186">
         <v>928.9905</v>
       </c>
-      <c r="N5" s="190">
+      <c r="N5" s="186">
         <v>163.93950000000007</v>
       </c>
-      <c r="O5" s="191"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="305"/>
-      <c r="B6" s="309"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="184" t="s">
+      <c r="A6" s="327"/>
+      <c r="B6" s="328"/>
+      <c r="C6" s="329"/>
+      <c r="D6" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="185">
+      <c r="E6" s="181">
         <v>94100</v>
       </c>
-      <c r="F6" s="186">
+      <c r="F6" s="182">
         <v>44455</v>
       </c>
-      <c r="G6" s="187">
+      <c r="G6" s="183">
         <v>4</v>
       </c>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="189">
+      <c r="I6" s="185">
         <v>22.25</v>
       </c>
-      <c r="J6" s="190">
+      <c r="J6" s="186">
         <v>22.25</v>
       </c>
-      <c r="K6" s="191"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="190">
+      <c r="K6" s="187"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="186">
         <v>18.912499999999998</v>
       </c>
-      <c r="N6" s="190">
+      <c r="N6" s="186">
         <v>3.3375000000000021</v>
       </c>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="305"/>
-      <c r="B7" s="309"/>
-      <c r="C7" s="310"/>
-      <c r="D7" s="184" t="s">
+      <c r="A7" s="327"/>
+      <c r="B7" s="328"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="185">
+      <c r="E7" s="181">
         <v>159918</v>
       </c>
-      <c r="F7" s="186">
+      <c r="F7" s="182">
         <v>44453</v>
       </c>
-      <c r="G7" s="187">
+      <c r="G7" s="183">
         <v>150</v>
       </c>
-      <c r="H7" s="188" t="s">
+      <c r="H7" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="189">
+      <c r="I7" s="185">
         <v>834.3</v>
       </c>
-      <c r="J7" s="190">
+      <c r="J7" s="186">
         <v>834.3</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="190">
+      <c r="K7" s="187"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="186">
         <v>709.15499999999997</v>
       </c>
-      <c r="N7" s="190">
+      <c r="N7" s="186">
         <v>125.14499999999998</v>
       </c>
-      <c r="O7" s="191"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="305"/>
-      <c r="B8" s="309"/>
-      <c r="C8" s="310"/>
-      <c r="D8" s="184" t="s">
+      <c r="A8" s="327"/>
+      <c r="B8" s="328"/>
+      <c r="C8" s="329"/>
+      <c r="D8" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="185" t="s">
+      <c r="E8" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="186">
+      <c r="F8" s="182">
         <v>44445</v>
       </c>
-      <c r="G8" s="187">
+      <c r="G8" s="183">
         <v>70.66</v>
       </c>
-      <c r="H8" s="188" t="s">
+      <c r="H8" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="189">
+      <c r="I8" s="185">
         <v>393.01</v>
       </c>
-      <c r="J8" s="190">
+      <c r="J8" s="186">
         <v>393.01</v>
       </c>
-      <c r="K8" s="191"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="190">
+      <c r="K8" s="187"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="186">
         <v>334.05849999999998</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="186">
         <v>58.95150000000001</v>
       </c>
-      <c r="O8" s="191"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="305"/>
-      <c r="B9" s="309"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="184" t="s">
+      <c r="A9" s="327"/>
+      <c r="B9" s="328"/>
+      <c r="C9" s="329"/>
+      <c r="D9" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="185">
+      <c r="E9" s="181">
         <v>620785004091</v>
       </c>
-      <c r="F9" s="186">
+      <c r="F9" s="182">
         <v>44452</v>
       </c>
-      <c r="G9" s="187">
+      <c r="G9" s="183">
         <v>43.75</v>
       </c>
-      <c r="H9" s="193" t="s">
+      <c r="H9" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="190">
+      <c r="I9" s="186">
         <v>43.75</v>
       </c>
-      <c r="J9" s="190">
+      <c r="J9" s="186">
         <v>43.75</v>
       </c>
-      <c r="K9" s="191"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="190">
+      <c r="K9" s="187"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="186">
         <v>37.1875</v>
       </c>
-      <c r="N9" s="190">
+      <c r="N9" s="186">
         <v>6.5625</v>
       </c>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="305"/>
-      <c r="B10" s="309"/>
-      <c r="C10" s="310"/>
-      <c r="D10" s="184" t="s">
+      <c r="A10" s="327"/>
+      <c r="B10" s="328"/>
+      <c r="C10" s="329"/>
+      <c r="D10" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="185">
+      <c r="E10" s="181">
         <v>101320211722073</v>
       </c>
-      <c r="F10" s="186">
+      <c r="F10" s="182">
         <v>44456</v>
       </c>
-      <c r="G10" s="187">
+      <c r="G10" s="183">
         <v>12</v>
       </c>
-      <c r="H10" s="193" t="s">
+      <c r="H10" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="190">
+      <c r="I10" s="186">
         <v>12</v>
       </c>
-      <c r="J10" s="190">
+      <c r="J10" s="186">
         <v>12</v>
       </c>
-      <c r="K10" s="191"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="190">
+      <c r="K10" s="187"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="186">
         <v>10.199999999999999</v>
       </c>
-      <c r="N10" s="190">
+      <c r="N10" s="186">
         <v>1.8000000000000007</v>
       </c>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="187"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="305"/>
-      <c r="B11" s="309"/>
-      <c r="C11" s="310"/>
-      <c r="D11" s="184" t="s">
+      <c r="A11" s="327"/>
+      <c r="B11" s="328"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="E11" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="186">
+      <c r="F11" s="182">
         <v>44456</v>
       </c>
-      <c r="G11" s="187">
+      <c r="G11" s="183">
         <v>30</v>
       </c>
-      <c r="H11" s="193" t="s">
+      <c r="H11" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="190">
+      <c r="I11" s="186">
         <v>30</v>
       </c>
-      <c r="J11" s="190">
+      <c r="J11" s="186">
         <v>30</v>
       </c>
-      <c r="K11" s="191"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="190">
+      <c r="K11" s="187"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="186">
         <v>25.5</v>
       </c>
-      <c r="N11" s="190">
+      <c r="N11" s="186">
         <v>4.5</v>
       </c>
-      <c r="O11" s="191"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="184"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="305"/>
-      <c r="B12" s="309"/>
-      <c r="C12" s="310"/>
-      <c r="D12" s="184" t="s">
+      <c r="A12" s="327"/>
+      <c r="B12" s="328"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="185" t="s">
+      <c r="E12" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="186">
+      <c r="F12" s="182">
         <v>44460</v>
       </c>
-      <c r="G12" s="187">
+      <c r="G12" s="183">
         <v>130</v>
       </c>
-      <c r="H12" s="193" t="s">
+      <c r="H12" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="190">
+      <c r="I12" s="186">
         <v>130</v>
       </c>
-      <c r="J12" s="190">
+      <c r="J12" s="186">
         <v>130</v>
       </c>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="190">
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="186">
         <v>110.5</v>
       </c>
-      <c r="N12" s="190">
+      <c r="N12" s="186">
         <v>19.5</v>
       </c>
-      <c r="O12" s="191"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="184"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="180"/>
+      <c r="R12" s="180"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="305"/>
-      <c r="B13" s="309"/>
-      <c r="C13" s="310"/>
-      <c r="D13" s="184" t="s">
+      <c r="A13" s="327"/>
+      <c r="B13" s="328"/>
+      <c r="C13" s="329"/>
+      <c r="D13" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="185" t="s">
+      <c r="E13" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="186">
+      <c r="F13" s="182">
         <v>44452</v>
       </c>
-      <c r="G13" s="187">
+      <c r="G13" s="183">
         <v>50</v>
       </c>
-      <c r="H13" s="193" t="s">
+      <c r="H13" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="190">
+      <c r="I13" s="186">
         <v>50</v>
       </c>
-      <c r="J13" s="190">
+      <c r="J13" s="186">
         <v>50</v>
       </c>
-      <c r="K13" s="191"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="190">
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="186">
         <v>42.5</v>
       </c>
-      <c r="N13" s="190">
+      <c r="N13" s="186">
         <v>7.5</v>
       </c>
-      <c r="O13" s="191"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="184"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="180"/>
+      <c r="R13" s="180"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="305"/>
-      <c r="B14" s="309"/>
-      <c r="C14" s="310"/>
-      <c r="D14" s="184" t="s">
+      <c r="A14" s="327"/>
+      <c r="B14" s="328"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187">
+      <c r="E14" s="181"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183">
         <v>124.25</v>
       </c>
-      <c r="H14" s="188" t="s">
+      <c r="H14" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="189">
+      <c r="I14" s="185">
         <v>691.08</v>
       </c>
-      <c r="J14" s="190">
+      <c r="J14" s="186">
         <v>691.08</v>
       </c>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="190">
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="186">
         <v>587.41800000000001</v>
       </c>
-      <c r="N14" s="190">
+      <c r="N14" s="186">
         <v>103.66200000000003</v>
       </c>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="184"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="180"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="305"/>
-      <c r="B15" s="309"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="184" t="s">
+      <c r="A15" s="327"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="329"/>
+      <c r="D15" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="185"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="187">
+      <c r="E15" s="181"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183">
         <v>14</v>
       </c>
-      <c r="H15" s="188" t="s">
+      <c r="H15" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="189">
+      <c r="I15" s="185">
         <v>77.87</v>
       </c>
-      <c r="J15" s="190">
+      <c r="J15" s="186">
         <v>77.87</v>
       </c>
-      <c r="K15" s="191"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="190">
+      <c r="K15" s="187"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="186">
         <v>66.189499999999995</v>
       </c>
-      <c r="N15" s="190">
+      <c r="N15" s="186">
         <v>11.680500000000009</v>
       </c>
-      <c r="O15" s="191"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="184"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="187"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="180"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="305" t="s">
+      <c r="A16" s="327" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="309">
+      <c r="B16" s="328">
         <v>44446</v>
       </c>
-      <c r="C16" s="310">
+      <c r="C16" s="329">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
-      <c r="D16" s="184" t="s">
+      <c r="D16" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="185">
+      <c r="E16" s="181">
         <v>94099</v>
       </c>
-      <c r="F16" s="186">
+      <c r="F16" s="182">
         <v>44455</v>
       </c>
-      <c r="G16" s="187">
+      <c r="G16" s="183">
         <v>4</v>
       </c>
-      <c r="H16" s="194" t="s">
+      <c r="H16" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="195">
+      <c r="I16" s="191">
         <v>22.25</v>
       </c>
-      <c r="J16" s="187">
+      <c r="J16" s="183">
         <v>22.25</v>
       </c>
-      <c r="K16" s="191"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="190">
+      <c r="K16" s="187"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="186">
         <v>18.912499999999998</v>
       </c>
-      <c r="N16" s="190">
+      <c r="N16" s="186">
         <v>3.3375000000000021</v>
       </c>
-      <c r="O16" s="191"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="184"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="187"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="180"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="305"/>
-      <c r="B17" s="309"/>
-      <c r="C17" s="310"/>
-      <c r="D17" s="184" t="s">
+      <c r="A17" s="327"/>
+      <c r="B17" s="328"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="185">
+      <c r="E17" s="181">
         <v>101320211722074</v>
       </c>
-      <c r="F17" s="186">
+      <c r="F17" s="182">
         <v>44456</v>
       </c>
-      <c r="G17" s="187">
+      <c r="G17" s="183">
         <v>12</v>
       </c>
-      <c r="H17" s="196" t="s">
+      <c r="H17" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="195">
+      <c r="I17" s="191">
         <v>12</v>
       </c>
-      <c r="J17" s="187">
+      <c r="J17" s="183">
         <v>12</v>
       </c>
-      <c r="K17" s="191"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="190">
+      <c r="K17" s="187"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="186">
         <v>10.199999999999999</v>
       </c>
-      <c r="N17" s="190">
+      <c r="N17" s="186">
         <v>1.8000000000000007</v>
       </c>
-      <c r="O17" s="191"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="184"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="187"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="305"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="310"/>
-      <c r="D18" s="184" t="s">
+      <c r="A18" s="327"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="329"/>
+      <c r="D18" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="185" t="s">
+      <c r="E18" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="186">
+      <c r="F18" s="182">
         <v>44455</v>
       </c>
-      <c r="G18" s="187">
+      <c r="G18" s="183">
         <v>190.5</v>
       </c>
-      <c r="H18" s="194" t="s">
+      <c r="H18" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="195">
+      <c r="I18" s="191">
         <v>1059.56</v>
       </c>
-      <c r="J18" s="187">
+      <c r="J18" s="183">
         <v>1059.56</v>
       </c>
-      <c r="K18" s="191"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="190">
+      <c r="K18" s="187"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="186">
         <v>900.62599999999998</v>
       </c>
-      <c r="N18" s="190">
+      <c r="N18" s="186">
         <v>158.93399999999997</v>
       </c>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="184"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="180"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="305"/>
-      <c r="B19" s="309"/>
-      <c r="C19" s="310"/>
-      <c r="D19" s="184" t="s">
+      <c r="A19" s="327"/>
+      <c r="B19" s="328"/>
+      <c r="C19" s="329"/>
+      <c r="D19" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="197" t="s">
+      <c r="E19" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="186">
+      <c r="F19" s="182">
         <v>44452</v>
       </c>
-      <c r="G19" s="187">
+      <c r="G19" s="183">
         <v>43.75</v>
       </c>
-      <c r="H19" s="196" t="s">
+      <c r="H19" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="195">
+      <c r="I19" s="191">
         <v>43.75</v>
       </c>
-      <c r="J19" s="187">
+      <c r="J19" s="183">
         <v>43.75</v>
       </c>
-      <c r="K19" s="191"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="190">
+      <c r="K19" s="187"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="186">
         <v>37.1875</v>
       </c>
-      <c r="N19" s="190">
+      <c r="N19" s="186">
         <v>6.5625</v>
       </c>
-      <c r="O19" s="191"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="184"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="187"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="180"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="305"/>
-      <c r="B20" s="309"/>
-      <c r="C20" s="310"/>
-      <c r="D20" s="184" t="s">
+      <c r="A20" s="327"/>
+      <c r="B20" s="328"/>
+      <c r="C20" s="329"/>
+      <c r="D20" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="185" t="s">
+      <c r="E20" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="186">
+      <c r="F20" s="182">
         <v>44456</v>
       </c>
-      <c r="G20" s="187">
+      <c r="G20" s="183">
         <v>30</v>
       </c>
-      <c r="H20" s="196" t="s">
+      <c r="H20" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="195">
+      <c r="I20" s="191">
         <v>30</v>
       </c>
-      <c r="J20" s="187">
+      <c r="J20" s="183">
         <v>30</v>
       </c>
-      <c r="K20" s="191"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="190">
+      <c r="K20" s="187"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="186">
         <v>25.5</v>
       </c>
-      <c r="N20" s="190">
+      <c r="N20" s="186">
         <v>4.5</v>
       </c>
-      <c r="O20" s="191"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="184"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="187"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="305"/>
-      <c r="B21" s="309"/>
-      <c r="C21" s="310"/>
-      <c r="D21" s="184" t="s">
+      <c r="A21" s="327"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="329"/>
+      <c r="D21" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="185" t="s">
+      <c r="E21" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="186">
+      <c r="F21" s="182">
         <v>44460</v>
       </c>
-      <c r="G21" s="187">
+      <c r="G21" s="183">
         <v>130</v>
       </c>
-      <c r="H21" s="196" t="s">
+      <c r="H21" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="187">
+      <c r="I21" s="183">
         <v>130</v>
       </c>
-      <c r="J21" s="187">
+      <c r="J21" s="183">
         <v>130</v>
       </c>
-      <c r="K21" s="198"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="190">
+      <c r="K21" s="194"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="186">
         <v>110.5</v>
       </c>
-      <c r="N21" s="190">
+      <c r="N21" s="186">
         <v>19.5</v>
       </c>
-      <c r="O21" s="198"/>
-      <c r="P21" s="198"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="200"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="196"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="305"/>
-      <c r="B22" s="309"/>
-      <c r="C22" s="310"/>
-      <c r="D22" s="184" t="s">
+      <c r="A22" s="327"/>
+      <c r="B22" s="328"/>
+      <c r="C22" s="329"/>
+      <c r="D22" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="186">
+      <c r="F22" s="182">
         <v>44452</v>
       </c>
-      <c r="G22" s="187">
+      <c r="G22" s="183">
         <v>50</v>
       </c>
-      <c r="H22" s="196" t="s">
+      <c r="H22" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="187">
+      <c r="I22" s="183">
         <v>50</v>
       </c>
-      <c r="J22" s="187">
+      <c r="J22" s="183">
         <v>50</v>
       </c>
-      <c r="K22" s="198"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="190">
+      <c r="K22" s="194"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="186">
         <v>42.5</v>
       </c>
-      <c r="N22" s="190">
+      <c r="N22" s="186">
         <v>7.5</v>
       </c>
-      <c r="O22" s="198"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="200"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="196"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="305"/>
-      <c r="B23" s="309"/>
-      <c r="C23" s="310"/>
-      <c r="D23" s="184" t="s">
+      <c r="A23" s="327"/>
+      <c r="B23" s="328"/>
+      <c r="C23" s="329"/>
+      <c r="D23" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="185"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="187">
+      <c r="E23" s="181"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="183">
         <v>124.25</v>
       </c>
-      <c r="H23" s="194" t="s">
+      <c r="H23" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="195">
+      <c r="I23" s="191">
         <v>691.08</v>
       </c>
-      <c r="J23" s="187">
+      <c r="J23" s="183">
         <v>691.08</v>
       </c>
-      <c r="K23" s="198"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="190">
+      <c r="K23" s="194"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="186">
         <v>587.41800000000001</v>
       </c>
-      <c r="N23" s="190">
+      <c r="N23" s="186">
         <v>103.66200000000003</v>
       </c>
-      <c r="O23" s="198"/>
-      <c r="P23" s="198"/>
-      <c r="Q23" s="200"/>
-      <c r="R23" s="200"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="196"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="305"/>
-      <c r="B24" s="309"/>
-      <c r="C24" s="310"/>
-      <c r="D24" s="184" t="s">
+      <c r="A24" s="327"/>
+      <c r="B24" s="328"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="185"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="187">
+      <c r="E24" s="181"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="183">
         <v>14</v>
       </c>
-      <c r="H24" s="194" t="s">
+      <c r="H24" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="195">
+      <c r="I24" s="191">
         <v>77.87</v>
       </c>
-      <c r="J24" s="187">
+      <c r="J24" s="183">
         <v>77.87</v>
       </c>
-      <c r="K24" s="198"/>
-      <c r="L24" s="199"/>
-      <c r="M24" s="190">
+      <c r="K24" s="194"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="186">
         <v>66.189499999999995</v>
       </c>
-      <c r="N24" s="190">
+      <c r="N24" s="186">
         <v>11.680500000000009</v>
       </c>
-      <c r="O24" s="198"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="200"/>
-      <c r="R24" s="200"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="196"/>
+      <c r="R24" s="196"/>
     </row>
     <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="197" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="186">
+      <c r="B25" s="182">
         <v>44459</v>
       </c>
-      <c r="C25" s="202">
+      <c r="C25" s="198">
         <v>942.98</v>
       </c>
-      <c r="D25" s="184" t="s">
+      <c r="D25" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="185" t="s">
+      <c r="E25" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="186">
+      <c r="F25" s="182">
         <v>44459</v>
       </c>
-      <c r="G25" s="191">
+      <c r="G25" s="187">
         <v>942.98</v>
       </c>
-      <c r="H25" s="193" t="s">
+      <c r="H25" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="198">
+      <c r="I25" s="194">
         <v>942.98</v>
       </c>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198">
+      <c r="J25" s="194"/>
+      <c r="K25" s="194">
         <v>942.98</v>
       </c>
-      <c r="L25" s="199"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="190">
+      <c r="L25" s="195"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="186">
         <v>801.53300000000002</v>
       </c>
-      <c r="P25" s="190">
+      <c r="P25" s="186">
         <v>141.447</v>
       </c>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="200"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="196"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="302" t="s">
+      <c r="A26" s="324" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="303"/>
-      <c r="C26" s="303"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="303"/>
-      <c r="G26" s="303"/>
-      <c r="H26" s="303"/>
-      <c r="I26" s="303"/>
-      <c r="J26" s="303"/>
-      <c r="K26" s="303"/>
-      <c r="L26" s="303"/>
-      <c r="M26" s="303"/>
-      <c r="N26" s="303"/>
-      <c r="O26" s="303"/>
-      <c r="P26" s="303"/>
-      <c r="Q26" s="303"/>
-      <c r="R26" s="304"/>
+      <c r="B26" s="325"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="325"/>
+      <c r="N26" s="325"/>
+      <c r="O26" s="325"/>
+      <c r="P26" s="325"/>
+      <c r="Q26" s="325"/>
+      <c r="R26" s="326"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="305" t="s">
+      <c r="A27" s="327" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="306">
+      <c r="B27" s="331">
         <v>44516</v>
       </c>
-      <c r="C27" s="307">
+      <c r="C27" s="332">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
-      <c r="D27" s="203" t="s">
+      <c r="D27" s="199" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="205">
+      <c r="F27" s="201">
         <v>44524</v>
       </c>
-      <c r="G27" s="206">
+      <c r="G27" s="202">
         <v>680</v>
       </c>
-      <c r="H27" s="207" t="s">
+      <c r="H27" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="208">
+      <c r="I27" s="204">
         <v>440.56</v>
       </c>
-      <c r="J27" s="209">
+      <c r="J27" s="205">
         <v>440.56</v>
       </c>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="190">
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="186">
         <v>374.476</v>
       </c>
-      <c r="N27" s="190">
+      <c r="N27" s="186">
         <v>66.084000000000003</v>
       </c>
-      <c r="O27" s="209"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="196"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="305"/>
-      <c r="B28" s="306"/>
-      <c r="C28" s="308"/>
-      <c r="D28" s="210" t="s">
+      <c r="A28" s="327"/>
+      <c r="B28" s="331"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="211" t="s">
+      <c r="E28" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="212">
+      <c r="F28" s="208">
         <v>44525</v>
       </c>
-      <c r="G28" s="213">
+      <c r="G28" s="209">
         <v>981.15</v>
       </c>
-      <c r="H28" s="214" t="s">
+      <c r="H28" s="210" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="208">
+      <c r="I28" s="204">
         <v>635.66</v>
       </c>
-      <c r="J28" s="209">
+      <c r="J28" s="205">
         <v>635.66</v>
       </c>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="190">
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="186">
         <v>540.31099999999992</v>
       </c>
-      <c r="N28" s="190">
+      <c r="N28" s="186">
         <v>95.349000000000046</v>
       </c>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="200"/>
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="196"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="305"/>
-      <c r="B29" s="306"/>
-      <c r="C29" s="308"/>
-      <c r="D29" s="210" t="s">
+      <c r="A29" s="327"/>
+      <c r="B29" s="331"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="212">
+      <c r="F29" s="208">
         <v>44524</v>
       </c>
-      <c r="G29" s="213">
+      <c r="G29" s="209">
         <v>400</v>
       </c>
-      <c r="H29" s="214" t="s">
+      <c r="H29" s="210" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="208">
+      <c r="I29" s="204">
         <v>259.16000000000003</v>
       </c>
-      <c r="J29" s="209">
+      <c r="J29" s="205">
         <v>259.16000000000003</v>
       </c>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="190">
+      <c r="K29" s="205"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="186">
         <v>220.286</v>
       </c>
-      <c r="N29" s="190">
+      <c r="N29" s="186">
         <v>38.874000000000024</v>
       </c>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="200"/>
-      <c r="R29" s="200"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="205"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="196"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="305"/>
-      <c r="B30" s="306"/>
-      <c r="C30" s="308"/>
-      <c r="D30" s="184" t="s">
+      <c r="A30" s="327"/>
+      <c r="B30" s="331"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="185">
+      <c r="E30" s="181">
         <v>333056419474</v>
       </c>
-      <c r="F30" s="186">
+      <c r="F30" s="182">
         <v>44525</v>
       </c>
-      <c r="G30" s="215">
+      <c r="G30" s="211">
         <v>6</v>
       </c>
-      <c r="H30" s="214" t="s">
+      <c r="H30" s="210" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="208">
+      <c r="I30" s="204">
         <v>3.9</v>
       </c>
-      <c r="J30" s="209">
+      <c r="J30" s="205">
         <v>3.9</v>
       </c>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="190">
+      <c r="K30" s="205"/>
+      <c r="L30" s="205"/>
+      <c r="M30" s="186">
         <v>3.3149999999999999</v>
       </c>
-      <c r="N30" s="190">
+      <c r="N30" s="186">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O30" s="209"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="200"/>
+      <c r="O30" s="205"/>
+      <c r="P30" s="205"/>
+      <c r="Q30" s="196"/>
+      <c r="R30" s="196"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="305"/>
-      <c r="B31" s="306"/>
-      <c r="C31" s="308"/>
-      <c r="D31" s="184" t="s">
+      <c r="A31" s="327"/>
+      <c r="B31" s="331"/>
+      <c r="C31" s="333"/>
+      <c r="D31" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="209">
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="205">
         <v>121.1</v>
       </c>
-      <c r="H31" s="196" t="s">
+      <c r="H31" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="208">
+      <c r="I31" s="204">
         <v>590.38</v>
       </c>
-      <c r="J31" s="209">
+      <c r="J31" s="205">
         <v>590.38</v>
       </c>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="190">
+      <c r="K31" s="205"/>
+      <c r="L31" s="205"/>
+      <c r="M31" s="186">
         <v>501.82299999999998</v>
       </c>
-      <c r="N31" s="190">
+      <c r="N31" s="186">
         <v>88.557000000000016</v>
       </c>
-      <c r="O31" s="209"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="200"/>
+      <c r="O31" s="205"/>
+      <c r="P31" s="205"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="305" t="s">
+      <c r="A32" s="327" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="306">
+      <c r="B32" s="331">
         <v>44516</v>
       </c>
-      <c r="C32" s="307">
+      <c r="C32" s="332">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
-      <c r="D32" s="203" t="s">
+      <c r="D32" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="204" t="s">
+      <c r="E32" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="205">
+      <c r="F32" s="201">
         <v>44524</v>
       </c>
-      <c r="G32" s="206">
+      <c r="G32" s="202">
         <v>680</v>
       </c>
-      <c r="H32" s="207" t="s">
+      <c r="H32" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="208">
+      <c r="I32" s="204">
         <v>440.56</v>
       </c>
-      <c r="J32" s="206">
+      <c r="J32" s="202">
         <v>440.56</v>
       </c>
-      <c r="K32" s="209"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="190">
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="186">
         <v>374.476</v>
       </c>
-      <c r="N32" s="190">
+      <c r="N32" s="186">
         <v>66.084000000000003</v>
       </c>
-      <c r="O32" s="209"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="200"/>
+      <c r="O32" s="205"/>
+      <c r="P32" s="205"/>
+      <c r="Q32" s="196"/>
+      <c r="R32" s="196"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="305"/>
-      <c r="B33" s="306"/>
-      <c r="C33" s="308"/>
-      <c r="D33" s="210" t="s">
+      <c r="A33" s="327"/>
+      <c r="B33" s="331"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="211" t="s">
+      <c r="E33" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="212">
+      <c r="F33" s="208">
         <v>44524</v>
       </c>
-      <c r="G33" s="213" t="s">
+      <c r="G33" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="214" t="s">
+      <c r="H33" s="210" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="208">
+      <c r="I33" s="204">
         <v>259.16000000000003</v>
       </c>
-      <c r="J33" s="206">
+      <c r="J33" s="202">
         <v>259.16000000000003</v>
       </c>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="190">
+      <c r="K33" s="205"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="186">
         <v>220.286</v>
       </c>
-      <c r="N33" s="190">
+      <c r="N33" s="186">
         <v>38.874000000000024</v>
       </c>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="200"/>
+      <c r="O33" s="205"/>
+      <c r="P33" s="205"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="196"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="305"/>
-      <c r="B34" s="306"/>
-      <c r="C34" s="308"/>
-      <c r="D34" s="210" t="s">
+      <c r="A34" s="327"/>
+      <c r="B34" s="331"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="185">
+      <c r="E34" s="181">
         <v>333056419480</v>
       </c>
-      <c r="F34" s="186">
+      <c r="F34" s="182">
         <v>44525</v>
       </c>
-      <c r="G34" s="215">
+      <c r="G34" s="211">
         <v>6</v>
       </c>
-      <c r="H34" s="214" t="s">
+      <c r="H34" s="210" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="208">
+      <c r="I34" s="204">
         <v>3.9</v>
       </c>
-      <c r="J34" s="206">
+      <c r="J34" s="202">
         <v>3.9</v>
       </c>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="190">
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="186">
         <v>3.3149999999999999</v>
       </c>
-      <c r="N34" s="190">
+      <c r="N34" s="186">
         <v>0.58499999999999996</v>
       </c>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
-      <c r="Q34" s="200"/>
-      <c r="R34" s="200"/>
+      <c r="O34" s="209"/>
+      <c r="P34" s="209"/>
+      <c r="Q34" s="196"/>
+      <c r="R34" s="196"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="305"/>
-      <c r="B35" s="306"/>
-      <c r="C35" s="308"/>
-      <c r="D35" s="184" t="s">
+      <c r="A35" s="327"/>
+      <c r="B35" s="331"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="217"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="206">
+      <c r="E35" s="213"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="202">
         <v>121.1</v>
       </c>
-      <c r="H35" s="218" t="s">
+      <c r="H35" s="214" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="208">
+      <c r="I35" s="204">
         <v>590.38</v>
       </c>
-      <c r="J35" s="206">
+      <c r="J35" s="202">
         <v>590.38</v>
       </c>
-      <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="190">
+      <c r="K35" s="209"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="186">
         <v>501.82299999999998</v>
       </c>
-      <c r="N35" s="190">
+      <c r="N35" s="186">
         <v>88.557000000000016</v>
       </c>
-      <c r="O35" s="213"/>
-      <c r="P35" s="213"/>
-      <c r="Q35" s="200"/>
-      <c r="R35" s="200"/>
+      <c r="O35" s="209"/>
+      <c r="P35" s="209"/>
+      <c r="Q35" s="196"/>
+      <c r="R35" s="196"/>
     </row>
     <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="201" t="s">
+      <c r="A36" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="219">
+      <c r="B36" s="215">
         <v>44510</v>
       </c>
-      <c r="C36" s="220">
+      <c r="C36" s="216">
         <v>2022.28</v>
       </c>
-      <c r="D36" s="221" t="s">
+      <c r="D36" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="222" t="s">
+      <c r="E36" s="218" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="205">
+      <c r="F36" s="201">
         <v>44510</v>
       </c>
-      <c r="G36" s="223">
+      <c r="G36" s="219">
         <v>2022.28</v>
       </c>
-      <c r="H36" s="193" t="s">
+      <c r="H36" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="206">
+      <c r="I36" s="202">
         <v>2022.28</v>
       </c>
-      <c r="J36" s="206"/>
-      <c r="K36" s="213">
+      <c r="J36" s="202"/>
+      <c r="K36" s="209">
         <v>2022.28</v>
       </c>
-      <c r="L36" s="213"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="190">
+      <c r="L36" s="209"/>
+      <c r="M36" s="202"/>
+      <c r="N36" s="202"/>
+      <c r="O36" s="186">
         <v>1718.9379999999999</v>
       </c>
-      <c r="P36" s="190">
+      <c r="P36" s="186">
         <v>303.3420000000001</v>
       </c>
-      <c r="Q36" s="200"/>
-      <c r="R36" s="200"/>
+      <c r="Q36" s="196"/>
+      <c r="R36" s="196"/>
     </row>
     <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="210" t="s">
+      <c r="A37" s="206" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="212">
+      <c r="B37" s="208">
         <v>44518</v>
       </c>
-      <c r="C37" s="224">
+      <c r="C37" s="220">
         <v>40.799999999999997</v>
       </c>
-      <c r="D37" s="221" t="s">
+      <c r="D37" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="225">
+      <c r="E37" s="221">
         <v>1066369367</v>
       </c>
-      <c r="F37" s="205">
+      <c r="F37" s="201">
         <v>44522</v>
       </c>
-      <c r="G37" s="223">
+      <c r="G37" s="219">
         <v>40.799999999999997</v>
       </c>
-      <c r="H37" s="193" t="s">
+      <c r="H37" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="206">
+      <c r="I37" s="202">
         <v>40.799999999999997</v>
       </c>
-      <c r="J37" s="206"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="213">
+      <c r="J37" s="202"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="209">
         <v>40.799999999999997</v>
       </c>
-      <c r="M37" s="206"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="213"/>
-      <c r="P37" s="213"/>
-      <c r="Q37" s="190">
+      <c r="M37" s="202"/>
+      <c r="N37" s="202"/>
+      <c r="O37" s="209"/>
+      <c r="P37" s="209"/>
+      <c r="Q37" s="186">
         <v>34.68</v>
       </c>
-      <c r="R37" s="190">
+      <c r="R37" s="186">
         <v>6.1199999999999974</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="301" t="s">
+      <c r="A38" s="330" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="301"/>
-      <c r="C38" s="301"/>
-      <c r="D38" s="301"/>
-      <c r="E38" s="301"/>
-      <c r="F38" s="301"/>
-      <c r="G38" s="301"/>
-      <c r="H38" s="301"/>
-      <c r="I38" s="202">
+      <c r="B38" s="330"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="330"/>
+      <c r="E38" s="330"/>
+      <c r="F38" s="330"/>
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="198">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
       </c>
-      <c r="J38" s="202">
+      <c r="J38" s="198">
         <f t="shared" ref="J38:R38" si="0">SUM(J5:J37)</f>
         <v>8717.3599999999988</v>
       </c>
-      <c r="K38" s="202">
+      <c r="K38" s="198">
         <f t="shared" si="0"/>
         <v>2965.26</v>
       </c>
-      <c r="L38" s="202">
+      <c r="L38" s="198">
         <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="M38" s="202">
+      <c r="M38" s="198">
         <f t="shared" si="0"/>
         <v>7409.7559999999985</v>
       </c>
-      <c r="N38" s="202">
+      <c r="N38" s="198">
         <f t="shared" si="0"/>
         <v>1307.6040000000003</v>
       </c>
-      <c r="O38" s="202">
+      <c r="O38" s="198">
         <f t="shared" si="0"/>
         <v>2520.471</v>
       </c>
-      <c r="P38" s="202">
+      <c r="P38" s="198">
         <f t="shared" si="0"/>
         <v>444.7890000000001</v>
       </c>
-      <c r="Q38" s="202">
+      <c r="Q38" s="198">
         <f t="shared" si="0"/>
         <v>34.68</v>
       </c>
-      <c r="R38" s="202">
+      <c r="R38" s="198">
         <f t="shared" si="0"/>
         <v>6.1199999999999974</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -40959,6 +41441,26 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40974,502 +41476,502 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="226" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="226" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="226"/>
-    <col min="4" max="4" width="13.85546875" style="226" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="226"/>
-    <col min="6" max="6" width="10.5703125" style="226" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="9.140625" style="226"/>
-    <col min="19" max="21" width="9.140625" style="231"/>
-    <col min="22" max="16384" width="9.140625" style="226"/>
+    <col min="1" max="1" width="9.5703125" style="222" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="222" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="222"/>
+    <col min="4" max="4" width="13.85546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="222"/>
+    <col min="6" max="6" width="10.5703125" style="222" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="9.140625" style="222"/>
+    <col min="19" max="21" width="9.140625" style="227"/>
+    <col min="22" max="16384" width="9.140625" style="222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="312" t="s">
+    <row r="1" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="322" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="312" t="s">
+      <c r="C1" s="322" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="311" t="s">
+      <c r="D1" s="321" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="313" t="s">
+      <c r="E1" s="323" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="311" t="s">
+      <c r="F1" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="311" t="s">
+      <c r="G1" s="321" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="311" t="s">
+      <c r="H1" s="321" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="311" t="s">
+      <c r="I1" s="321" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="311" t="s">
+      <c r="J1" s="321" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-    </row>
-    <row r="2" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="312"/>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311" t="s">
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
+    </row>
+    <row r="2" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="322"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="311"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-    </row>
-    <row r="3" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="312"/>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="182">
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+    </row>
+    <row r="3" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="322"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="178">
         <v>4428</v>
       </c>
-      <c r="K3" s="182">
+      <c r="K3" s="178">
         <v>4429</v>
       </c>
-      <c r="L3" s="182">
+      <c r="L3" s="178">
         <v>4308</v>
       </c>
-      <c r="M3" s="182">
+      <c r="M3" s="178">
         <v>4309</v>
       </c>
-      <c r="N3" s="183">
+      <c r="N3" s="179">
         <v>4438</v>
       </c>
-      <c r="O3" s="183">
+      <c r="O3" s="179">
         <v>4439</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="302" t="s">
+    <row r="4" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="324" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="304"/>
-    </row>
-    <row r="5" spans="1:15" s="226" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="201" t="s">
+      <c r="B4" s="325"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="325"/>
+      <c r="N4" s="325"/>
+      <c r="O4" s="326"/>
+    </row>
+    <row r="5" spans="1:15" s="222" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="186">
+      <c r="B5" s="182">
         <v>44636</v>
       </c>
-      <c r="C5" s="227">
+      <c r="C5" s="223">
         <v>1857</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="186">
+      <c r="F5" s="182">
         <v>44636</v>
       </c>
-      <c r="G5" s="187" t="s">
+      <c r="G5" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="188"/>
-      <c r="I5" s="227">
+      <c r="H5" s="184"/>
+      <c r="I5" s="223">
         <v>1857</v>
       </c>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="191">
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="187">
         <v>1593.75</v>
       </c>
-      <c r="M5" s="191">
+      <c r="M5" s="187">
         <v>281.25</v>
       </c>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-    </row>
-    <row r="6" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="302" t="s">
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+    </row>
+    <row r="6" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="324" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="304"/>
-    </row>
-    <row r="7" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="228"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-    </row>
-    <row r="8" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="228"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-    </row>
-    <row r="9" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="228"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="228"/>
-      <c r="O9" s="228"/>
-    </row>
-    <row r="10" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="228"/>
-      <c r="B10" s="228"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
-      <c r="N10" s="228"/>
-      <c r="O10" s="228"/>
-    </row>
-    <row r="11" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="228"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
-      <c r="L11" s="228"/>
-      <c r="M11" s="228"/>
-      <c r="N11" s="228"/>
-      <c r="O11" s="228"/>
-    </row>
-    <row r="12" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="228"/>
-      <c r="B12" s="228"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="228"/>
-    </row>
-    <row r="13" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="228"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="228"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="228"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="228"/>
-      <c r="O13" s="228"/>
-    </row>
-    <row r="14" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="228"/>
-      <c r="B14" s="228"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="228"/>
-      <c r="J14" s="228"/>
-      <c r="K14" s="228"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="228"/>
-      <c r="N14" s="228"/>
-      <c r="O14" s="228"/>
-    </row>
-    <row r="15" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="228"/>
-      <c r="B15" s="228"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="228"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="228"/>
-    </row>
-    <row r="16" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="228"/>
-      <c r="B16" s="228"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="228"/>
-      <c r="K16" s="228"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="228"/>
-      <c r="N16" s="228"/>
-      <c r="O16" s="228"/>
-    </row>
-    <row r="17" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="228"/>
-      <c r="B17" s="228"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="228"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="228"/>
-      <c r="N17" s="228"/>
-      <c r="O17" s="228"/>
-    </row>
-    <row r="18" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="228"/>
-      <c r="B18" s="228"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="228"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="228"/>
-      <c r="K18" s="228"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="228"/>
-      <c r="N18" s="228"/>
-      <c r="O18" s="228"/>
-    </row>
-    <row r="19" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="228"/>
-      <c r="B19" s="228"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="228"/>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="228"/>
-      <c r="O19" s="228"/>
-    </row>
-    <row r="20" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="228"/>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="228"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="228"/>
-      <c r="O20" s="228"/>
-    </row>
-    <row r="21" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="228"/>
-      <c r="B21" s="228"/>
-      <c r="C21" s="228"/>
-      <c r="D21" s="228"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="228"/>
-      <c r="I21" s="228"/>
-      <c r="J21" s="228"/>
-      <c r="K21" s="228"/>
-      <c r="L21" s="228"/>
-      <c r="M21" s="228"/>
-      <c r="N21" s="228"/>
-      <c r="O21" s="228"/>
-    </row>
-    <row r="22" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="228"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="228"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
-    </row>
-    <row r="23" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="201"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-    </row>
-    <row r="24" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="314" t="s">
+      <c r="B6" s="325"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="325"/>
+      <c r="K6" s="325"/>
+      <c r="L6" s="325"/>
+      <c r="M6" s="325"/>
+      <c r="N6" s="325"/>
+      <c r="O6" s="326"/>
+    </row>
+    <row r="7" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="224"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="224"/>
+    </row>
+    <row r="8" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="224"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224"/>
+    </row>
+    <row r="9" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="224"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+    </row>
+    <row r="10" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+    </row>
+    <row r="11" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="224"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+    </row>
+    <row r="12" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="224"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+    </row>
+    <row r="13" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="224"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+    </row>
+    <row r="14" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="224"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+    </row>
+    <row r="15" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="224"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+    </row>
+    <row r="16" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="224"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+    </row>
+    <row r="17" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="224"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+    </row>
+    <row r="18" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="224"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+    </row>
+    <row r="19" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="224"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+    </row>
+    <row r="20" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="224"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+    </row>
+    <row r="21" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="224"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+    </row>
+    <row r="22" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="224"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="224"/>
+    </row>
+    <row r="23" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="197"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+    </row>
+    <row r="24" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="315"/>
-      <c r="C24" s="315"/>
-      <c r="D24" s="315"/>
-      <c r="E24" s="315"/>
-      <c r="F24" s="315"/>
-      <c r="G24" s="315"/>
-      <c r="H24" s="315"/>
-      <c r="I24" s="316"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="229"/>
-      <c r="L24" s="230">
+      <c r="B24" s="335"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="335"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="335"/>
+      <c r="G24" s="335"/>
+      <c r="H24" s="335"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="226">
         <f>SUM(L5)</f>
         <v>1593.75</v>
       </c>
-      <c r="M24" s="230">
+      <c r="M24" s="226">
         <f>SUM(M5)</f>
         <v>281.25</v>
       </c>
-      <c r="N24" s="229"/>
-      <c r="O24" s="229"/>
-    </row>
-    <row r="25" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:15" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" s="226" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
+    </row>
+    <row r="25" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A6:O6"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A4FCB-A4CA-43D4-A276-21E812ADCB1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748CCDD-9B09-470A-82A3-196AF53A4A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3249,6 +3249,15 @@
     <xf numFmtId="0" fontId="39" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3275,10 +3284,8 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3287,25 +3294,17 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3313,26 +3312,32 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3379,37 +3384,35 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3424,15 +3427,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3442,6 +3436,21 @@
     <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3450,15 +3459,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3736,11 +3736,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="268" t="s">
+      <c r="B1" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3855,11 +3855,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="270" t="s">
+      <c r="C5" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="275"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3912,12 +3912,12 @@
     </row>
     <row r="7" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="275"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="278"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4033,7 +4033,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="263" t="s">
+      <c r="A11" s="266" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4068,7 +4068,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="264"/>
+      <c r="A12" s="267"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="265"/>
+      <c r="A13" s="268"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="263" t="s">
+      <c r="A14" s="266" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -4169,7 +4169,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="264"/>
+      <c r="A15" s="267"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="265"/>
+      <c r="A16" s="268"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="263" t="s">
+      <c r="A17" s="266" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4270,7 +4270,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="265"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="263" t="s">
+      <c r="A19" s="266" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4338,7 +4338,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="264"/>
+      <c r="A20" s="267"/>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="264"/>
+      <c r="A21" s="267"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="264"/>
+      <c r="A22" s="267"/>
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="264"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="264"/>
+      <c r="A24" s="267"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="265"/>
+      <c r="A25" s="268"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="266" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4571,7 +4571,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="265"/>
+      <c r="A27" s="268"/>
       <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
@@ -4604,10 +4604,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="266" t="s">
+      <c r="A28" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="267"/>
+      <c r="B28" s="270"/>
       <c r="C28" s="16" t="e">
         <f>C13+C16+C18+C25+C27</f>
         <v>#REF!</v>
@@ -4735,7 +4735,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="263" t="s">
+      <c r="A32" s="266" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -4779,7 +4779,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="264"/>
+      <c r="A33" s="267"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="265"/>
+      <c r="A34" s="268"/>
       <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="266" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -4905,7 +4905,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="264"/>
+      <c r="A36" s="267"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="265"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="263" t="s">
+      <c r="A38" s="266" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -5033,7 +5033,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="265"/>
+      <c r="A39" s="268"/>
       <c r="B39" s="15" t="s">
         <v>19</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="263" t="s">
+      <c r="A40" s="266" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -5119,7 +5119,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="264"/>
+      <c r="A41" s="267"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="264"/>
+      <c r="A42" s="267"/>
       <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="264"/>
+      <c r="A43" s="267"/>
       <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="264"/>
+      <c r="A44" s="267"/>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="264"/>
+      <c r="A45" s="267"/>
       <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="265"/>
+      <c r="A46" s="268"/>
       <c r="B46" s="15" t="s">
         <v>27</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="263" t="s">
+      <c r="A47" s="266" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -5415,7 +5415,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="265"/>
+      <c r="A48" s="268"/>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
@@ -5457,10 +5457,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="266" t="s">
+      <c r="A49" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="267"/>
+      <c r="B49" s="270"/>
       <c r="C49" s="16" t="e">
         <f t="shared" ref="C49:F49" si="13">C34+C37+C39+C46+C48</f>
         <v>#REF!</v>
@@ -32226,7 +32226,7 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="266" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -32237,7 +32237,7 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="264"/>
+      <c r="A7" s="267"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -32248,7 +32248,7 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="265"/>
+      <c r="A8" s="268"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -32260,7 +32260,7 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="263" t="s">
+      <c r="A9" s="266" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -32271,7 +32271,7 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="264"/>
+      <c r="A10" s="267"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -32283,7 +32283,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="265"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -32295,7 +32295,7 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="263" t="s">
+      <c r="A12" s="266" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -32308,7 +32308,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="265"/>
+      <c r="A13" s="268"/>
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -32320,7 +32320,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="263" t="s">
+      <c r="A14" s="266" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -32331,7 +32331,7 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="264"/>
+      <c r="A15" s="267"/>
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
@@ -32342,7 +32342,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="264"/>
+      <c r="A16" s="267"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -32353,7 +32353,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="264"/>
+      <c r="A17" s="267"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -32364,7 +32364,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="264"/>
+      <c r="A18" s="267"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -32375,7 +32375,7 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="264"/>
+      <c r="A19" s="267"/>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
@@ -32386,7 +32386,7 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="265"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -32398,7 +32398,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="263" t="s">
+      <c r="A21" s="266" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -32411,7 +32411,7 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="265"/>
+      <c r="A22" s="268"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
@@ -32423,10 +32423,10 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="266" t="s">
+      <c r="A23" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="267"/>
+      <c r="B23" s="270"/>
       <c r="C23" s="16">
         <f>C8+C11+C13+C20+C22</f>
         <v>70083.78</v>
@@ -32474,7 +32474,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="263" t="s">
+      <c r="A27" s="266" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -32487,7 +32487,7 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="264"/>
+      <c r="A28" s="267"/>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
@@ -32508,7 +32508,7 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="265"/>
+      <c r="A29" s="268"/>
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -32531,7 +32531,7 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="263" t="s">
+      <c r="A30" s="266" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -32544,7 +32544,7 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="264"/>
+      <c r="A31" s="267"/>
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -32567,7 +32567,7 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="265"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -32590,7 +32590,7 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="266" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -32613,7 +32613,7 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="265"/>
+      <c r="A34" s="268"/>
       <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
@@ -32636,7 +32636,7 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="266" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -32649,7 +32649,7 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="264"/>
+      <c r="A36" s="267"/>
       <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
@@ -32670,7 +32670,7 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="264"/>
+      <c r="A37" s="267"/>
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
@@ -32691,7 +32691,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="264"/>
+      <c r="A38" s="267"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -32712,7 +32712,7 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="264"/>
+      <c r="A39" s="267"/>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
@@ -32733,7 +32733,7 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
+      <c r="A40" s="267"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -32754,7 +32754,7 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
@@ -32777,7 +32777,7 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="263" t="s">
+      <c r="A42" s="266" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -32799,7 +32799,7 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="265"/>
+      <c r="A43" s="268"/>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
@@ -32821,10 +32821,10 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="266" t="s">
+      <c r="A44" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="267"/>
+      <c r="B44" s="270"/>
       <c r="C44" s="16">
         <f t="shared" ref="C44:F44" si="9">C29+C32+C34+C41+C43</f>
         <v>70083.78</v>
@@ -32886,7 +32886,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="278" t="s">
+      <c r="A49" s="286" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -32912,7 +32912,7 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="279"/>
+      <c r="A50" s="282"/>
       <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
@@ -32936,7 +32936,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="278" t="s">
+      <c r="A51" s="286" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -32962,7 +32962,7 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="279"/>
+      <c r="A52" s="282"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -32986,7 +32986,7 @@
       <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="280" t="s">
+      <c r="A53" s="283" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -33012,7 +33012,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="281"/>
+      <c r="A54" s="287"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -33036,7 +33036,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="278" t="s">
+      <c r="A55" s="286" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -33062,7 +33062,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="282"/>
+      <c r="A56" s="281"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -33086,7 +33086,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="282"/>
+      <c r="A57" s="281"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -33110,7 +33110,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="282"/>
+      <c r="A58" s="281"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -33134,7 +33134,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="282"/>
+      <c r="A59" s="281"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -33158,7 +33158,7 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="279"/>
+      <c r="A60" s="282"/>
       <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
@@ -33182,7 +33182,7 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="280" t="s">
+      <c r="A61" s="283" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -33205,7 +33205,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="281"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33229,10 +33229,10 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="276" t="s">
+      <c r="A63" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="277"/>
+      <c r="B63" s="285"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33290,7 +33290,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="282" t="s">
+      <c r="A68" s="281" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33312,7 +33312,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="282"/>
+      <c r="A69" s="281"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33329,7 +33329,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="282"/>
+      <c r="A70" s="281"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33357,7 +33357,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="282"/>
+      <c r="A71" s="281"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33389,7 +33389,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="282"/>
+      <c r="A72" s="281"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33414,7 +33414,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="282"/>
+      <c r="A73" s="281"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33448,7 +33448,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="282"/>
+      <c r="A74" s="281"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33468,7 +33468,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="282"/>
+      <c r="A75" s="281"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33489,7 +33489,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="282"/>
+      <c r="A76" s="281"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33509,7 +33509,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="282"/>
+      <c r="A77" s="281"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -33529,7 +33529,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="282"/>
+      <c r="A78" s="281"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -33547,7 +33547,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="279"/>
+      <c r="A79" s="282"/>
       <c r="B79" s="40" t="s">
         <v>47</v>
       </c>
@@ -33615,7 +33615,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="282" t="s">
+      <c r="A83" s="281" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -33637,7 +33637,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="282"/>
+      <c r="A84" s="281"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -33655,7 +33655,7 @@
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="279"/>
+      <c r="A85" s="282"/>
       <c r="B85" s="15" t="s">
         <v>50</v>
       </c>
@@ -33675,7 +33675,7 @@
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="280" t="s">
+      <c r="A86" s="283" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -33755,7 +33755,7 @@
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="279"/>
+      <c r="A90" s="282"/>
       <c r="B90" s="15" t="s">
         <v>53</v>
       </c>
@@ -33775,7 +33775,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="282" t="s">
+      <c r="A91" s="281" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -33797,7 +33797,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="282"/>
+      <c r="A92" s="281"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -33817,7 +33817,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="282"/>
+      <c r="A93" s="281"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -33837,7 +33837,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="282"/>
+      <c r="A94" s="281"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -33857,7 +33857,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="282"/>
+      <c r="A95" s="281"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -33877,7 +33877,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="282"/>
+      <c r="A96" s="281"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -33896,7 +33896,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="282"/>
+      <c r="A97" s="281"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -33915,7 +33915,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="282"/>
+      <c r="A98" s="281"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -33932,7 +33932,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="282"/>
+      <c r="A99" s="281"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -33949,7 +33949,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="282"/>
+      <c r="A100" s="281"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -33968,7 +33968,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="282"/>
+      <c r="A101" s="281"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -33987,7 +33987,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="282"/>
+      <c r="A102" s="281"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -34005,7 +34005,7 @@
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="279"/>
+      <c r="A103" s="282"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -34025,7 +34025,7 @@
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="280" t="s">
+      <c r="A104" s="283" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -34047,7 +34047,7 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="279"/>
+      <c r="A105" s="282"/>
       <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
@@ -34067,10 +34067,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="276" t="s">
+      <c r="A106" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="283"/>
+      <c r="B106" s="280"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -37760,18 +37760,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -37779,11 +37772,18 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37835,7 +37835,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="281" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -37852,7 +37852,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="282"/>
+      <c r="A4" s="281"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -37867,7 +37867,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
+      <c r="A5" s="281"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -37882,7 +37882,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
+      <c r="A6" s="281"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -37897,7 +37897,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
+      <c r="A7" s="281"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -37912,7 +37912,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
+      <c r="A8" s="281"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -37927,7 +37927,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="282"/>
+      <c r="A9" s="281"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -37942,7 +37942,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="282"/>
+      <c r="A10" s="281"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -37957,7 +37957,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="282"/>
+      <c r="A11" s="281"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -37972,7 +37972,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="282"/>
+      <c r="A12" s="281"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -37988,7 +37988,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="282"/>
+      <c r="A13" s="281"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -38002,7 +38002,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="279"/>
+      <c r="A14" s="282"/>
       <c r="B14" s="110" t="s">
         <v>47</v>
       </c>
@@ -38057,7 +38057,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="282" t="s">
+      <c r="A18" s="281" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -38075,7 +38075,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="282"/>
+      <c r="A19" s="281"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -38089,7 +38089,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="279"/>
+      <c r="A20" s="282"/>
       <c r="B20" s="111" t="s">
         <v>50</v>
       </c>
@@ -38105,7 +38105,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="280" t="s">
+      <c r="A21" s="283" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -38169,7 +38169,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="279"/>
+      <c r="A25" s="282"/>
       <c r="B25" s="111" t="s">
         <v>53</v>
       </c>
@@ -38185,7 +38185,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="282" t="s">
+      <c r="A26" s="281" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -38203,7 +38203,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="282"/>
+      <c r="A27" s="281"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38219,7 +38219,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="282"/>
+      <c r="A28" s="281"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38235,7 +38235,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="282"/>
+      <c r="A29" s="281"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38251,7 +38251,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="282"/>
+      <c r="A30" s="281"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38267,7 +38267,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="282"/>
+      <c r="A31" s="281"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38283,7 +38283,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="282"/>
+      <c r="A32" s="281"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38299,7 +38299,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="282"/>
+      <c r="A33" s="281"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38315,7 +38315,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="282"/>
+      <c r="A34" s="281"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38335,7 +38335,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="282"/>
+      <c r="A35" s="281"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38351,7 +38351,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="282"/>
+      <c r="A36" s="281"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38367,7 +38367,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="282"/>
+      <c r="A37" s="281"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38381,7 +38381,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="279"/>
+      <c r="A38" s="282"/>
       <c r="B38" s="111" t="s">
         <v>70</v>
       </c>
@@ -38397,7 +38397,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="280" t="s">
+      <c r="A39" s="283" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -38415,7 +38415,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="279"/>
+      <c r="A40" s="282"/>
       <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
@@ -38431,10 +38431,10 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="276" t="s">
+      <c r="A41" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="283"/>
+      <c r="B41" s="280"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38464,8 +38464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38529,13 +38529,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="302" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="288" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="289" t="s">
+      <c r="C2" s="288" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="171" t="s">
@@ -38554,7 +38554,7 @@
         <v>2662</v>
       </c>
       <c r="I2" s="172">
-        <f>H2+G2</f>
+        <f t="shared" ref="I2:I7" si="0">H2+G2</f>
         <v>49494</v>
       </c>
       <c r="J2" s="172"/>
@@ -38567,9 +38567,9 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="302"/>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
+      <c r="A3" s="303"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="171" t="s">
         <v>150</v>
       </c>
@@ -38586,7 +38586,7 @@
         <v>470</v>
       </c>
       <c r="I3" s="172">
-        <f>H3+G3</f>
+        <f t="shared" si="0"/>
         <v>8735</v>
       </c>
       <c r="J3" s="172"/>
@@ -38599,11 +38599,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="302"/>
-      <c r="B4" s="289" t="s">
+      <c r="A4" s="303"/>
+      <c r="B4" s="288" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="288" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="171" t="s">
@@ -38622,7 +38622,7 @@
         <v>501</v>
       </c>
       <c r="I4" s="172">
-        <f>H4+G4</f>
+        <f t="shared" si="0"/>
         <v>8551</v>
       </c>
       <c r="J4" s="172"/>
@@ -38635,9 +38635,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="302"/>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290"/>
+      <c r="A5" s="303"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="289"/>
       <c r="D5" s="171" t="s">
         <v>152</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>89</v>
       </c>
       <c r="I5" s="172">
-        <f>H5+G5</f>
+        <f t="shared" si="0"/>
         <v>1510</v>
       </c>
       <c r="J5" s="172"/>
@@ -38667,11 +38667,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="302"/>
-      <c r="B6" s="289" t="s">
+      <c r="A6" s="303"/>
+      <c r="B6" s="288" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="289" t="s">
+      <c r="C6" s="288" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="171" t="s">
@@ -38690,7 +38690,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="172">
-        <f>H6+G6</f>
+        <f t="shared" si="0"/>
         <v>1218</v>
       </c>
       <c r="J6" s="172"/>
@@ -38703,9 +38703,9 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="302"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="290"/>
+      <c r="A7" s="303"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
       <c r="D7" s="171" t="s">
         <v>154</v>
       </c>
@@ -38722,7 +38722,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="157">
-        <f>H7+G7</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="J7" s="157"/>
@@ -38735,7 +38735,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="303"/>
+      <c r="A8" s="304"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -38772,13 +38772,13 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="304" t="s">
+      <c r="A9" s="305" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="289" t="s">
+      <c r="B9" s="288" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="315" t="s">
+      <c r="C9" s="292" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="156" t="s">
@@ -38810,9 +38810,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="305"/>
-      <c r="B10" s="290"/>
-      <c r="C10" s="316"/>
+      <c r="A10" s="306"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="293"/>
       <c r="D10" s="176" t="s">
         <v>156</v>
       </c>
@@ -38842,7 +38842,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="306"/>
+      <c r="A11" s="307"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -38879,13 +38879,13 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="307" t="s">
+      <c r="A12" s="308" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="290" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="317" t="s">
+      <c r="C12" s="294" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="171" t="s">
@@ -38921,9 +38921,9 @@
       <c r="O12" s="159"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="308"/>
-      <c r="B13" s="314"/>
-      <c r="C13" s="318"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="291"/>
+      <c r="C13" s="295"/>
       <c r="D13" s="171" t="s">
         <v>158</v>
       </c>
@@ -38957,11 +38957,11 @@
       <c r="O13" s="159"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="308"/>
-      <c r="B14" s="293" t="s">
+      <c r="A14" s="309"/>
+      <c r="B14" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="318"/>
+      <c r="C14" s="295"/>
       <c r="D14" s="171" t="s">
         <v>161</v>
       </c>
@@ -38993,9 +38993,9 @@
       <c r="P14" s="159"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="308"/>
-      <c r="B15" s="320"/>
-      <c r="C15" s="318"/>
+      <c r="A15" s="309"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="295"/>
       <c r="D15" s="171" t="s">
         <v>162</v>
       </c>
@@ -39027,11 +39027,11 @@
       <c r="P15" s="159"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="308"/>
-      <c r="B16" s="298" t="s">
+      <c r="A16" s="309"/>
+      <c r="B16" s="299" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="318"/>
+      <c r="C16" s="295"/>
       <c r="D16" s="171" t="s">
         <v>194</v>
       </c>
@@ -39066,9 +39066,9 @@
       <c r="P16" s="159"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
-      <c r="B17" s="298"/>
-      <c r="C17" s="319"/>
+      <c r="A17" s="309"/>
+      <c r="B17" s="299"/>
+      <c r="C17" s="296"/>
       <c r="D17" s="171" t="s">
         <v>195</v>
       </c>
@@ -39102,24 +39102,24 @@
       <c r="P17" s="159"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="309"/>
+      <c r="A18" s="310"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
       <c r="E18" s="154">
-        <f t="shared" ref="E18:M18" si="0">SUM(E12:E17)</f>
+        <f t="shared" ref="E18:M18" si="1">SUM(E12:E17)</f>
         <v>100912</v>
       </c>
       <c r="F18" s="155">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17136</v>
       </c>
       <c r="G18" s="239">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83776</v>
       </c>
       <c r="H18" s="239">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8440</v>
       </c>
       <c r="I18" s="239">
@@ -39127,7 +39127,7 @@
         <v>92216</v>
       </c>
       <c r="J18" s="239">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3007</v>
       </c>
       <c r="K18" s="155">
@@ -39136,18 +39136,18 @@
       </c>
       <c r="L18" s="239"/>
       <c r="M18" s="155">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87003</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="310" t="s">
+      <c r="A19" s="311" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="289" t="s">
+      <c r="B19" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="291" t="s">
+      <c r="C19" s="318" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="156" t="s">
@@ -39181,9 +39181,9 @@
       <c r="N19" s="159"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="311"/>
-      <c r="B20" s="290"/>
-      <c r="C20" s="292"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="289"/>
+      <c r="C20" s="319"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -39214,34 +39214,34 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="311"/>
+      <c r="A21" s="312"/>
       <c r="B21" s="247"/>
       <c r="C21" s="248"/>
       <c r="D21" s="249" t="s">
         <v>205</v>
       </c>
       <c r="E21" s="250">
-        <f>SUM(E19:E20)</f>
+        <f t="shared" ref="E21:J21" si="2">SUM(E19:E20)</f>
         <v>14280</v>
       </c>
       <c r="F21" s="251">
-        <f>SUM(F19:F20)</f>
+        <f t="shared" si="2"/>
         <v>4760</v>
       </c>
       <c r="G21" s="252">
-        <f>SUM(G19:G20)</f>
+        <f t="shared" si="2"/>
         <v>9520</v>
       </c>
       <c r="H21" s="252">
-        <f>SUM(H19:H20)</f>
+        <f t="shared" si="2"/>
         <v>4760</v>
       </c>
       <c r="I21" s="252">
-        <f>SUM(I19:I20)</f>
+        <f t="shared" si="2"/>
         <v>14280</v>
       </c>
       <c r="J21" s="252">
-        <f>SUM(J19:J20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="245"/>
@@ -39249,11 +39249,11 @@
       <c r="M21" s="245"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="311"/>
-      <c r="B22" s="289" t="s">
+      <c r="A22" s="312"/>
+      <c r="B22" s="288" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="293" t="s">
+      <c r="C22" s="297" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="171" t="s">
@@ -39281,16 +39281,16 @@
       </c>
       <c r="L22" s="173"/>
       <c r="M22" s="158">
-        <f>K22+J22</f>
+        <f t="shared" ref="M22:M27" si="3">K22+J22</f>
         <v>30774</v>
       </c>
       <c r="N22" s="165"/>
       <c r="O22" s="166"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="311"/>
-      <c r="B23" s="297"/>
-      <c r="C23" s="294"/>
+      <c r="A23" s="312"/>
+      <c r="B23" s="323"/>
+      <c r="C23" s="320"/>
       <c r="D23" s="171" t="s">
         <v>162</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>2142</v>
       </c>
       <c r="I23" s="173">
-        <f t="shared" ref="I23:I27" si="1">H23+G23</f>
+        <f t="shared" ref="I23:I27" si="4">H23+G23</f>
         <v>5712</v>
       </c>
       <c r="J23" s="157"/>
@@ -39316,14 +39316,14 @@
       </c>
       <c r="L23" s="157"/>
       <c r="M23" s="158">
-        <f>K23+J23</f>
+        <f t="shared" si="3"/>
         <v>5431</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="311"/>
-      <c r="B24" s="297"/>
-      <c r="C24" s="293" t="s">
+      <c r="A24" s="312"/>
+      <c r="B24" s="323"/>
+      <c r="C24" s="297" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="171" t="s">
@@ -39342,7 +39342,7 @@
         <v>8497</v>
       </c>
       <c r="I24" s="173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23063</v>
       </c>
       <c r="J24" s="157"/>
@@ -39351,14 +39351,14 @@
       </c>
       <c r="L24" s="157"/>
       <c r="M24" s="158">
-        <f>K24+J24</f>
+        <f t="shared" si="3"/>
         <v>23063</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="311"/>
-      <c r="B25" s="297"/>
-      <c r="C25" s="294"/>
+      <c r="A25" s="312"/>
+      <c r="B25" s="323"/>
+      <c r="C25" s="320"/>
       <c r="D25" s="171" t="s">
         <v>162</v>
       </c>
@@ -39375,7 +39375,7 @@
         <v>1499</v>
       </c>
       <c r="I25" s="173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4069</v>
       </c>
       <c r="J25" s="174"/>
@@ -39384,14 +39384,14 @@
       </c>
       <c r="L25" s="174"/>
       <c r="M25" s="158">
-        <f>K25+J25</f>
+        <f t="shared" si="3"/>
         <v>4069</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="311"/>
-      <c r="B26" s="297"/>
-      <c r="C26" s="293" t="s">
+      <c r="A26" s="312"/>
+      <c r="B26" s="323"/>
+      <c r="C26" s="297" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="171" t="s">
@@ -39410,7 +39410,7 @@
         <v>2299</v>
       </c>
       <c r="I26" s="173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28193</v>
       </c>
       <c r="J26" s="157">
@@ -39421,15 +39421,15 @@
       </c>
       <c r="L26" s="157"/>
       <c r="M26" s="158">
-        <f>K26+J26</f>
+        <f t="shared" si="3"/>
         <v>30749</v>
       </c>
       <c r="N26" s="165"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="311"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="294"/>
+      <c r="A27" s="312"/>
+      <c r="B27" s="323"/>
+      <c r="C27" s="320"/>
       <c r="D27" s="171" t="s">
         <v>162</v>
       </c>
@@ -39446,7 +39446,7 @@
         <v>406</v>
       </c>
       <c r="I27" s="173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4976</v>
       </c>
       <c r="J27" s="173">
@@ -39457,29 +39457,29 @@
       </c>
       <c r="L27" s="173"/>
       <c r="M27" s="158">
-        <f>K27+J27</f>
+        <f t="shared" si="3"/>
         <v>5427</v>
       </c>
       <c r="N27" s="166"/>
       <c r="Q27" s="165"/>
     </row>
     <row r="28" spans="1:17" s="240" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="311"/>
+      <c r="A28" s="312"/>
       <c r="B28" s="253"/>
       <c r="C28" s="248"/>
       <c r="D28" s="243" t="s">
         <v>205</v>
       </c>
       <c r="E28" s="244">
-        <f t="shared" ref="E28:M28" si="2">SUM(E22:E27)</f>
+        <f t="shared" ref="E28:M28" si="5">SUM(E22:E27)</f>
         <v>101388</v>
       </c>
       <c r="F28" s="245">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29988</v>
       </c>
       <c r="G28" s="246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>71400</v>
       </c>
       <c r="H28" s="246">
@@ -39491,7 +39491,7 @@
         <v>98381</v>
       </c>
       <c r="J28" s="246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3007</v>
       </c>
       <c r="K28" s="245">
@@ -39500,18 +39500,18 @@
       </c>
       <c r="L28" s="246"/>
       <c r="M28" s="245">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99513</v>
       </c>
       <c r="N28" s="241"/>
       <c r="Q28" s="241"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="311"/>
-      <c r="B29" s="298" t="s">
+      <c r="A29" s="312"/>
+      <c r="B29" s="299" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="293" t="s">
+      <c r="C29" s="297" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="171" t="s">
@@ -39545,9 +39545,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="311"/>
-      <c r="B30" s="298"/>
-      <c r="C30" s="294"/>
+      <c r="A30" s="312"/>
+      <c r="B30" s="299"/>
+      <c r="C30" s="320"/>
       <c r="D30" s="171" t="s">
         <v>194</v>
       </c>
@@ -39579,7 +39579,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="311"/>
+      <c r="A31" s="312"/>
       <c r="B31" s="254"/>
       <c r="C31" s="255"/>
       <c r="D31" s="256" t="s">
@@ -39604,11 +39604,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="311"/>
-      <c r="B32" s="287" t="s">
+      <c r="A32" s="312"/>
+      <c r="B32" s="316" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="295" t="s">
+      <c r="C32" s="321" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -39641,9 +39641,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="311"/>
-      <c r="B33" s="288"/>
-      <c r="C33" s="296"/>
+      <c r="A33" s="312"/>
+      <c r="B33" s="317"/>
+      <c r="C33" s="322"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -39674,26 +39674,26 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="311"/>
+      <c r="A34" s="312"/>
       <c r="B34" s="260"/>
       <c r="C34" s="261"/>
       <c r="D34" s="262" t="s">
         <v>205</v>
       </c>
       <c r="E34" s="250">
-        <f t="shared" ref="E34:M34" si="3">SUM(E32:E33)</f>
+        <f t="shared" ref="E34:M34" si="6">SUM(E32:E33)</f>
         <v>9520</v>
       </c>
       <c r="F34" s="250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4760</v>
       </c>
       <c r="G34" s="262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4760</v>
       </c>
       <c r="H34" s="262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4760</v>
       </c>
       <c r="I34" s="262">
@@ -39701,7 +39701,7 @@
         <v>9520</v>
       </c>
       <c r="J34" s="262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K34" s="245">
@@ -39710,29 +39710,29 @@
       </c>
       <c r="L34" s="262"/>
       <c r="M34" s="245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9520</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="312"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
       <c r="D35" s="160"/>
       <c r="E35" s="161">
-        <f t="shared" ref="E35:M35" si="4">SUM(E19:E20,E22:E27,E29:E30,E32:E33)</f>
+        <f t="shared" ref="E35:M35" si="7">SUM(E19:E20,E22:E27,E29:E30,E32:E33)</f>
         <v>125188</v>
       </c>
       <c r="F35" s="161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39508</v>
       </c>
       <c r="G35" s="238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>85680</v>
       </c>
       <c r="H35" s="238">
-        <f t="shared" ref="H35" si="5">SUM(H19:H20,H22:H27,H29:H30,H32:H33)</f>
+        <f t="shared" ref="H35" si="8">SUM(H19:H20,H22:H27,H29:H30,H32:H33)</f>
         <v>36501</v>
       </c>
       <c r="I35" s="238">
@@ -39740,7 +39740,7 @@
         <v>122181</v>
       </c>
       <c r="J35" s="238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3007</v>
       </c>
       <c r="K35" s="161">
@@ -39749,12 +39749,12 @@
       </c>
       <c r="L35" s="238"/>
       <c r="M35" s="161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>123513</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="299" t="s">
+      <c r="A36" s="300" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
@@ -39789,7 +39789,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="300"/>
+      <c r="A37" s="301"/>
       <c r="B37" s="163"/>
       <c r="C37" s="164"/>
       <c r="D37" s="231"/>
@@ -39819,39 +39819,39 @@
     </row>
     <row r="38" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="285" t="s">
+      <c r="B38" s="314" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="285"/>
-      <c r="D38" s="286"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="315"/>
       <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
-      <c r="F38" s="337">
+      <c r="F38" s="263">
         <v>96248.53839999999</v>
       </c>
-      <c r="G38" s="339">
+      <c r="G38" s="265">
         <f>SUM(G35,G18,G11,G8)</f>
         <v>237351</v>
       </c>
-      <c r="H38" s="339">
+      <c r="H38" s="265">
         <f>SUM(H35,H18,H11,H8)</f>
         <v>49881</v>
       </c>
-      <c r="I38" s="339">
+      <c r="I38" s="265">
         <f>SUM(I8+I11+I18+I35)</f>
         <v>287232</v>
       </c>
-      <c r="J38" s="339">
+      <c r="J38" s="265">
         <f>SUM(J35,J18,J11,J8)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="338">
+      <c r="K38" s="264">
         <f>SUM(K8,K11,K18,K35)</f>
         <v>253434</v>
       </c>
-      <c r="L38" s="339"/>
-      <c r="M38" s="338">
+      <c r="L38" s="265"/>
+      <c r="M38" s="264">
         <f>SUM(M8,M11,M18,M35)</f>
         <v>253434</v>
       </c>
@@ -39942,6 +39942,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -39954,22 +39970,6 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39994,81 +39994,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="335" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="322" t="s">
+      <c r="C1" s="335" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="321" t="s">
+      <c r="D1" s="334" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="323" t="s">
+      <c r="E1" s="336" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="321" t="s">
+      <c r="F1" s="334" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="321" t="s">
+      <c r="G1" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="321" t="s">
+      <c r="H1" s="334" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="321" t="s">
+      <c r="I1" s="334" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="321" t="s">
+      <c r="J1" s="334" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321" t="s">
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="321"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="322"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321" t="s">
+      <c r="A2" s="335"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="321" t="s">
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="321"/>
-      <c r="O2" s="321"/>
-      <c r="P2" s="321"/>
-      <c r="Q2" s="321"/>
-      <c r="R2" s="321"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="322"/>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
+      <c r="A3" s="335"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
       <c r="J3" s="178">
         <v>4420</v>
       </c>
@@ -40098,35 +40098,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="325"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="325"/>
-      <c r="Q4" s="325"/>
-      <c r="R4" s="326"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="326"/>
+      <c r="N4" s="326"/>
+      <c r="O4" s="326"/>
+      <c r="P4" s="326"/>
+      <c r="Q4" s="326"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="327" t="s">
+      <c r="A5" s="328" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="328">
+      <c r="B5" s="332">
         <v>44446</v>
       </c>
-      <c r="C5" s="329">
+      <c r="C5" s="333">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
@@ -40165,9 +40165,9 @@
       <c r="R5" s="180"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="327"/>
-      <c r="B6" s="328"/>
-      <c r="C6" s="329"/>
+      <c r="A6" s="328"/>
+      <c r="B6" s="332"/>
+      <c r="C6" s="333"/>
       <c r="D6" s="180" t="s">
         <v>94</v>
       </c>
@@ -40203,9 +40203,9 @@
       <c r="R6" s="180"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="327"/>
-      <c r="B7" s="328"/>
-      <c r="C7" s="329"/>
+      <c r="A7" s="328"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="333"/>
       <c r="D7" s="180" t="s">
         <v>103</v>
       </c>
@@ -40241,9 +40241,9 @@
       <c r="R7" s="180"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="327"/>
-      <c r="B8" s="328"/>
-      <c r="C8" s="329"/>
+      <c r="A8" s="328"/>
+      <c r="B8" s="332"/>
+      <c r="C8" s="333"/>
       <c r="D8" s="180" t="s">
         <v>95</v>
       </c>
@@ -40279,9 +40279,9 @@
       <c r="R8" s="180"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="327"/>
-      <c r="B9" s="328"/>
-      <c r="C9" s="329"/>
+      <c r="A9" s="328"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="333"/>
       <c r="D9" s="180" t="s">
         <v>87</v>
       </c>
@@ -40317,9 +40317,9 @@
       <c r="R9" s="180"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="327"/>
-      <c r="B10" s="328"/>
-      <c r="C10" s="329"/>
+      <c r="A10" s="328"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="333"/>
       <c r="D10" s="180" t="s">
         <v>91</v>
       </c>
@@ -40355,9 +40355,9 @@
       <c r="R10" s="180"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="327"/>
-      <c r="B11" s="328"/>
-      <c r="C11" s="329"/>
+      <c r="A11" s="328"/>
+      <c r="B11" s="332"/>
+      <c r="C11" s="333"/>
       <c r="D11" s="180" t="s">
         <v>90</v>
       </c>
@@ -40393,9 +40393,9 @@
       <c r="R11" s="180"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="327"/>
-      <c r="B12" s="328"/>
-      <c r="C12" s="329"/>
+      <c r="A12" s="328"/>
+      <c r="B12" s="332"/>
+      <c r="C12" s="333"/>
       <c r="D12" s="180" t="s">
         <v>106</v>
       </c>
@@ -40431,9 +40431,9 @@
       <c r="R12" s="180"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="327"/>
-      <c r="B13" s="328"/>
-      <c r="C13" s="329"/>
+      <c r="A13" s="328"/>
+      <c r="B13" s="332"/>
+      <c r="C13" s="333"/>
       <c r="D13" s="180" t="s">
         <v>100</v>
       </c>
@@ -40469,9 +40469,9 @@
       <c r="R13" s="180"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="327"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="329"/>
+      <c r="A14" s="328"/>
+      <c r="B14" s="332"/>
+      <c r="C14" s="333"/>
       <c r="D14" s="180" t="s">
         <v>181</v>
       </c>
@@ -40503,9 +40503,9 @@
       <c r="R14" s="180"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="327"/>
-      <c r="B15" s="328"/>
-      <c r="C15" s="329"/>
+      <c r="A15" s="328"/>
+      <c r="B15" s="332"/>
+      <c r="C15" s="333"/>
       <c r="D15" s="180" t="s">
         <v>182</v>
       </c>
@@ -40537,13 +40537,13 @@
       <c r="R15" s="180"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="327" t="s">
+      <c r="A16" s="328" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="328">
+      <c r="B16" s="332">
         <v>44446</v>
       </c>
-      <c r="C16" s="329">
+      <c r="C16" s="333">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
@@ -40582,9 +40582,9 @@
       <c r="R16" s="180"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="327"/>
-      <c r="B17" s="328"/>
-      <c r="C17" s="329"/>
+      <c r="A17" s="328"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="333"/>
       <c r="D17" s="180" t="s">
         <v>92</v>
       </c>
@@ -40620,9 +40620,9 @@
       <c r="R17" s="180"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="327"/>
-      <c r="B18" s="328"/>
-      <c r="C18" s="329"/>
+      <c r="A18" s="328"/>
+      <c r="B18" s="332"/>
+      <c r="C18" s="333"/>
       <c r="D18" s="180" t="s">
         <v>99</v>
       </c>
@@ -40658,9 +40658,9 @@
       <c r="R18" s="180"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="327"/>
-      <c r="B19" s="328"/>
-      <c r="C19" s="329"/>
+      <c r="A19" s="328"/>
+      <c r="B19" s="332"/>
+      <c r="C19" s="333"/>
       <c r="D19" s="180" t="s">
         <v>86</v>
       </c>
@@ -40696,9 +40696,9 @@
       <c r="R19" s="180"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="327"/>
-      <c r="B20" s="328"/>
-      <c r="C20" s="329"/>
+      <c r="A20" s="328"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="333"/>
       <c r="D20" s="180" t="s">
         <v>89</v>
       </c>
@@ -40734,9 +40734,9 @@
       <c r="R20" s="180"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="327"/>
-      <c r="B21" s="328"/>
-      <c r="C21" s="329"/>
+      <c r="A21" s="328"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="333"/>
       <c r="D21" s="180" t="s">
         <v>104</v>
       </c>
@@ -40772,9 +40772,9 @@
       <c r="R21" s="196"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="327"/>
-      <c r="B22" s="328"/>
-      <c r="C22" s="329"/>
+      <c r="A22" s="328"/>
+      <c r="B22" s="332"/>
+      <c r="C22" s="333"/>
       <c r="D22" s="180" t="s">
         <v>100</v>
       </c>
@@ -40810,9 +40810,9 @@
       <c r="R22" s="196"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="327"/>
-      <c r="B23" s="328"/>
-      <c r="C23" s="329"/>
+      <c r="A23" s="328"/>
+      <c r="B23" s="332"/>
+      <c r="C23" s="333"/>
       <c r="D23" s="180" t="s">
         <v>181</v>
       </c>
@@ -40844,9 +40844,9 @@
       <c r="R23" s="196"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="327"/>
-      <c r="B24" s="328"/>
-      <c r="C24" s="329"/>
+      <c r="A24" s="328"/>
+      <c r="B24" s="332"/>
+      <c r="C24" s="333"/>
       <c r="D24" s="180" t="s">
         <v>182</v>
       </c>
@@ -40922,35 +40922,35 @@
       <c r="R25" s="196"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="324" t="s">
+      <c r="A26" s="325" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="325"/>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
-      <c r="E26" s="325"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="325"/>
-      <c r="M26" s="325"/>
-      <c r="N26" s="325"/>
-      <c r="O26" s="325"/>
-      <c r="P26" s="325"/>
-      <c r="Q26" s="325"/>
-      <c r="R26" s="326"/>
+      <c r="B26" s="326"/>
+      <c r="C26" s="326"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="326"/>
+      <c r="F26" s="326"/>
+      <c r="G26" s="326"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="326"/>
+      <c r="J26" s="326"/>
+      <c r="K26" s="326"/>
+      <c r="L26" s="326"/>
+      <c r="M26" s="326"/>
+      <c r="N26" s="326"/>
+      <c r="O26" s="326"/>
+      <c r="P26" s="326"/>
+      <c r="Q26" s="326"/>
+      <c r="R26" s="327"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="327" t="s">
+      <c r="A27" s="328" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="331">
+      <c r="B27" s="329">
         <v>44516</v>
       </c>
-      <c r="C27" s="332">
+      <c r="C27" s="330">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -40989,9 +40989,9 @@
       <c r="R27" s="196"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="327"/>
-      <c r="B28" s="331"/>
-      <c r="C28" s="333"/>
+      <c r="A28" s="328"/>
+      <c r="B28" s="329"/>
+      <c r="C28" s="331"/>
       <c r="D28" s="206" t="s">
         <v>119</v>
       </c>
@@ -41027,9 +41027,9 @@
       <c r="R28" s="196"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="327"/>
-      <c r="B29" s="331"/>
-      <c r="C29" s="333"/>
+      <c r="A29" s="328"/>
+      <c r="B29" s="329"/>
+      <c r="C29" s="331"/>
       <c r="D29" s="206" t="s">
         <v>117</v>
       </c>
@@ -41065,9 +41065,9 @@
       <c r="R29" s="196"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="327"/>
-      <c r="B30" s="331"/>
-      <c r="C30" s="333"/>
+      <c r="A30" s="328"/>
+      <c r="B30" s="329"/>
+      <c r="C30" s="331"/>
       <c r="D30" s="180" t="s">
         <v>111</v>
       </c>
@@ -41103,9 +41103,9 @@
       <c r="R30" s="196"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="327"/>
-      <c r="B31" s="331"/>
-      <c r="C31" s="333"/>
+      <c r="A31" s="328"/>
+      <c r="B31" s="329"/>
+      <c r="C31" s="331"/>
       <c r="D31" s="180" t="s">
         <v>181</v>
       </c>
@@ -41137,13 +41137,13 @@
       <c r="R31" s="196"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="327" t="s">
+      <c r="A32" s="328" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="331">
+      <c r="B32" s="329">
         <v>44516</v>
       </c>
-      <c r="C32" s="332">
+      <c r="C32" s="330">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -41182,9 +41182,9 @@
       <c r="R32" s="196"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="327"/>
-      <c r="B33" s="331"/>
-      <c r="C33" s="333"/>
+      <c r="A33" s="328"/>
+      <c r="B33" s="329"/>
+      <c r="C33" s="331"/>
       <c r="D33" s="206" t="s">
         <v>114</v>
       </c>
@@ -41220,9 +41220,9 @@
       <c r="R33" s="196"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="327"/>
-      <c r="B34" s="331"/>
-      <c r="C34" s="333"/>
+      <c r="A34" s="328"/>
+      <c r="B34" s="329"/>
+      <c r="C34" s="331"/>
       <c r="D34" s="206" t="s">
         <v>113</v>
       </c>
@@ -41258,9 +41258,9 @@
       <c r="R34" s="196"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="327"/>
-      <c r="B35" s="331"/>
-      <c r="C35" s="333"/>
+      <c r="A35" s="328"/>
+      <c r="B35" s="329"/>
+      <c r="C35" s="331"/>
       <c r="D35" s="180" t="s">
         <v>181</v>
       </c>
@@ -41380,16 +41380,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="330" t="s">
+      <c r="A38" s="324" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="330"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="324"/>
+      <c r="E38" s="324"/>
+      <c r="F38" s="324"/>
+      <c r="G38" s="324"/>
+      <c r="H38" s="324"/>
       <c r="I38" s="198">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -41433,6 +41433,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -41441,26 +41461,6 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41488,71 +41488,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="335" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="322" t="s">
+      <c r="C1" s="335" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="321" t="s">
+      <c r="D1" s="334" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="323" t="s">
+      <c r="E1" s="336" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="321" t="s">
+      <c r="F1" s="334" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="321" t="s">
+      <c r="G1" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="321" t="s">
+      <c r="H1" s="334" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="321" t="s">
+      <c r="I1" s="334" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="321" t="s">
+      <c r="J1" s="334" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
     </row>
     <row r="2" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="322"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321" t="s">
+      <c r="A2" s="335"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="321"/>
-      <c r="N2" s="321"/>
-      <c r="O2" s="321"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
     </row>
     <row r="3" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="322"/>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
+      <c r="A3" s="335"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
       <c r="J3" s="178">
         <v>4428</v>
       </c>
@@ -41573,23 +41573,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="325" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="325"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="326"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="326"/>
+      <c r="N4" s="326"/>
+      <c r="O4" s="327"/>
     </row>
     <row r="5" spans="1:15" s="222" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="197" t="s">
@@ -41629,23 +41629,23 @@
       <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="324" t="s">
+      <c r="A6" s="325" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="325"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-      <c r="J6" s="325"/>
-      <c r="K6" s="325"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="325"/>
-      <c r="N6" s="325"/>
-      <c r="O6" s="326"/>
+      <c r="B6" s="326"/>
+      <c r="C6" s="326"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="327"/>
     </row>
     <row r="7" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="224"/>
@@ -41937,17 +41937,17 @@
       <c r="O23" s="180"/>
     </row>
     <row r="24" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="334" t="s">
+      <c r="A24" s="337" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="335"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="335"/>
-      <c r="F24" s="335"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="335"/>
-      <c r="I24" s="336"/>
+      <c r="B24" s="338"/>
+      <c r="C24" s="338"/>
+      <c r="D24" s="338"/>
+      <c r="E24" s="338"/>
+      <c r="F24" s="338"/>
+      <c r="G24" s="338"/>
+      <c r="H24" s="338"/>
+      <c r="I24" s="339"/>
       <c r="J24" s="225"/>
       <c r="K24" s="225"/>
       <c r="L24" s="226">

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748CCDD-9B09-470A-82A3-196AF53A4A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37F8E9-CF58-4AF7-B319-148F422E0A1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL BUDGET" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="211">
   <si>
     <r>
       <rPr>
@@ -1526,6 +1526,9 @@
   </si>
   <si>
     <t>2022 na dzien 20.05.2022</t>
+  </si>
+  <si>
+    <t>UE / 4439</t>
   </si>
 </sst>
 </file>
@@ -3720,8 +3723,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32168,8 +32171,8 @@
   </sheetPr>
   <dimension ref="A1:I1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37803,8 +37806,8 @@
   </sheetPr>
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38464,8 +38467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39549,7 +39552,7 @@
       <c r="B30" s="299"/>
       <c r="C30" s="320"/>
       <c r="D30" s="171" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E30" s="234"/>
       <c r="F30" s="235" t="s">

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37F8E9-CF58-4AF7-B319-148F422E0A1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2093F7-BA2B-4E20-BF8F-CCE0CFCC56C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL BUDGET" sheetId="1" r:id="rId1"/>
@@ -3287,8 +3287,10 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3297,17 +3299,25 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3315,32 +3325,26 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3387,35 +3391,37 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3430,6 +3436,15 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3438,21 +3453,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -32171,8 +32171,8 @@
   </sheetPr>
   <dimension ref="A1:I1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32889,7 +32889,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="286" t="s">
+      <c r="A49" s="281" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -32939,7 +32939,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="286" t="s">
+      <c r="A51" s="281" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -33015,7 +33015,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="287"/>
+      <c r="A54" s="284"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -33039,7 +33039,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="286" t="s">
+      <c r="A55" s="281" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -33065,7 +33065,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="281"/>
+      <c r="A56" s="285"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -33089,7 +33089,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="281"/>
+      <c r="A57" s="285"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -33113,7 +33113,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="281"/>
+      <c r="A58" s="285"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -33137,7 +33137,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="281"/>
+      <c r="A59" s="285"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -33208,7 +33208,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="284"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33235,7 +33235,7 @@
       <c r="A63" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="285"/>
+      <c r="B63" s="280"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33293,7 +33293,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="281" t="s">
+      <c r="A68" s="285" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33315,7 +33315,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="281"/>
+      <c r="A69" s="285"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33332,7 +33332,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="281"/>
+      <c r="A70" s="285"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33360,7 +33360,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="281"/>
+      <c r="A71" s="285"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33392,7 +33392,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="281"/>
+      <c r="A72" s="285"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33417,7 +33417,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="281"/>
+      <c r="A73" s="285"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33451,7 +33451,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="281"/>
+      <c r="A74" s="285"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33471,7 +33471,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="281"/>
+      <c r="A75" s="285"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33492,7 +33492,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="281"/>
+      <c r="A76" s="285"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33512,7 +33512,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="281"/>
+      <c r="A77" s="285"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -33532,7 +33532,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="281"/>
+      <c r="A78" s="285"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -33618,7 +33618,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="281" t="s">
+      <c r="A83" s="285" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -33640,7 +33640,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="281"/>
+      <c r="A84" s="285"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -33700,7 +33700,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="284"/>
+      <c r="A87" s="287"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -33720,7 +33720,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="284"/>
+      <c r="A88" s="287"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -33740,7 +33740,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="284"/>
+      <c r="A89" s="287"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -33778,7 +33778,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="281" t="s">
+      <c r="A91" s="285" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -33800,7 +33800,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="281"/>
+      <c r="A92" s="285"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -33820,7 +33820,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="281"/>
+      <c r="A93" s="285"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -33840,7 +33840,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="281"/>
+      <c r="A94" s="285"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -33860,7 +33860,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="281"/>
+      <c r="A95" s="285"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -33880,7 +33880,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="281"/>
+      <c r="A96" s="285"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -33899,7 +33899,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="281"/>
+      <c r="A97" s="285"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -33918,7 +33918,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="281"/>
+      <c r="A98" s="285"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -33935,7 +33935,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="281"/>
+      <c r="A99" s="285"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -33952,7 +33952,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="281"/>
+      <c r="A100" s="285"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -33971,7 +33971,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="281"/>
+      <c r="A101" s="285"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -33990,7 +33990,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="281"/>
+      <c r="A102" s="285"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -34073,7 +34073,7 @@
       <c r="A106" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="280"/>
+      <c r="B106" s="286"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -37763,11 +37763,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -37775,18 +37782,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -37838,7 +37838,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="285" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -37855,7 +37855,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="281"/>
+      <c r="A4" s="285"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -37870,7 +37870,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="281"/>
+      <c r="A5" s="285"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -37885,7 +37885,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="281"/>
+      <c r="A6" s="285"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -37900,7 +37900,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="281"/>
+      <c r="A7" s="285"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -37915,7 +37915,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="281"/>
+      <c r="A8" s="285"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -37930,7 +37930,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="281"/>
+      <c r="A9" s="285"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -37945,7 +37945,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="281"/>
+      <c r="A10" s="285"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -37960,7 +37960,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="281"/>
+      <c r="A11" s="285"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -37975,7 +37975,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="281"/>
+      <c r="A12" s="285"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -37991,7 +37991,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="281"/>
+      <c r="A13" s="285"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -38060,7 +38060,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="281" t="s">
+      <c r="A18" s="285" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -38078,7 +38078,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="281"/>
+      <c r="A19" s="285"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -38126,7 +38126,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="284"/>
+      <c r="A22" s="287"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -38142,7 +38142,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="284"/>
+      <c r="A23" s="287"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -38158,7 +38158,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="284"/>
+      <c r="A24" s="287"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -38188,7 +38188,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="281" t="s">
+      <c r="A26" s="285" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -38206,7 +38206,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="281"/>
+      <c r="A27" s="285"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38222,7 +38222,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="281"/>
+      <c r="A28" s="285"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38238,7 +38238,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="281"/>
+      <c r="A29" s="285"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38254,7 +38254,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="281"/>
+      <c r="A30" s="285"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38270,7 +38270,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="281"/>
+      <c r="A31" s="285"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38286,7 +38286,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="281"/>
+      <c r="A32" s="285"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38302,7 +38302,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="281"/>
+      <c r="A33" s="285"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38318,7 +38318,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="281"/>
+      <c r="A34" s="285"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38338,7 +38338,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="281"/>
+      <c r="A35" s="285"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38354,7 +38354,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="281"/>
+      <c r="A36" s="285"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38370,7 +38370,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="281"/>
+      <c r="A37" s="285"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38437,7 +38437,7 @@
       <c r="A41" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="280"/>
+      <c r="B41" s="286"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38467,8 +38467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M25" sqref="C24:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38532,13 +38532,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="304" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="288" t="s">
+      <c r="C2" s="292" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="171" t="s">
@@ -38570,9 +38570,9 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="303"/>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
+      <c r="A3" s="305"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
       <c r="D3" s="171" t="s">
         <v>150</v>
       </c>
@@ -38602,11 +38602,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="303"/>
-      <c r="B4" s="288" t="s">
+      <c r="A4" s="305"/>
+      <c r="B4" s="292" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="292" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="171" t="s">
@@ -38638,9 +38638,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="303"/>
-      <c r="B5" s="289"/>
-      <c r="C5" s="289"/>
+      <c r="A5" s="305"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
       <c r="D5" s="171" t="s">
         <v>152</v>
       </c>
@@ -38670,11 +38670,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="303"/>
-      <c r="B6" s="288" t="s">
+      <c r="A6" s="305"/>
+      <c r="B6" s="292" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="288" t="s">
+      <c r="C6" s="292" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="171" t="s">
@@ -38706,9 +38706,9 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="303"/>
-      <c r="B7" s="289"/>
-      <c r="C7" s="289"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
       <c r="D7" s="171" t="s">
         <v>154</v>
       </c>
@@ -38738,7 +38738,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="304"/>
+      <c r="A8" s="306"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -38775,13 +38775,13 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="305" t="s">
+      <c r="A9" s="307" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="288" t="s">
+      <c r="B9" s="292" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="292" t="s">
+      <c r="C9" s="318" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="156" t="s">
@@ -38813,9 +38813,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="306"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="293"/>
+      <c r="A10" s="308"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="319"/>
       <c r="D10" s="176" t="s">
         <v>156</v>
       </c>
@@ -38845,7 +38845,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="307"/>
+      <c r="A11" s="309"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -38882,13 +38882,13 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="308" t="s">
+      <c r="A12" s="310" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="290" t="s">
+      <c r="B12" s="316" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="320" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="171" t="s">
@@ -38924,9 +38924,9 @@
       <c r="O12" s="159"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="309"/>
-      <c r="B13" s="291"/>
-      <c r="C13" s="295"/>
+      <c r="A13" s="311"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="321"/>
       <c r="D13" s="171" t="s">
         <v>158</v>
       </c>
@@ -38960,11 +38960,11 @@
       <c r="O13" s="159"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="309"/>
-      <c r="B14" s="297" t="s">
+      <c r="A14" s="311"/>
+      <c r="B14" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="295"/>
+      <c r="C14" s="321"/>
       <c r="D14" s="171" t="s">
         <v>161</v>
       </c>
@@ -38996,9 +38996,9 @@
       <c r="P14" s="159"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="309"/>
-      <c r="B15" s="298"/>
-      <c r="C15" s="295"/>
+      <c r="A15" s="311"/>
+      <c r="B15" s="323"/>
+      <c r="C15" s="321"/>
       <c r="D15" s="171" t="s">
         <v>162</v>
       </c>
@@ -39030,11 +39030,11 @@
       <c r="P15" s="159"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="309"/>
-      <c r="B16" s="299" t="s">
+      <c r="A16" s="311"/>
+      <c r="B16" s="301" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="295"/>
+      <c r="C16" s="321"/>
       <c r="D16" s="171" t="s">
         <v>194</v>
       </c>
@@ -39069,9 +39069,9 @@
       <c r="P16" s="159"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="309"/>
-      <c r="B17" s="299"/>
-      <c r="C17" s="296"/>
+      <c r="A17" s="311"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="322"/>
       <c r="D17" s="171" t="s">
         <v>195</v>
       </c>
@@ -39105,7 +39105,7 @@
       <c r="P17" s="159"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="310"/>
+      <c r="A18" s="312"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
@@ -39144,13 +39144,13 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="311" t="s">
+      <c r="A19" s="313" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="288" t="s">
+      <c r="B19" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="318" t="s">
+      <c r="C19" s="294" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="156" t="s">
@@ -39184,9 +39184,9 @@
       <c r="N19" s="159"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
-      <c r="B20" s="289"/>
-      <c r="C20" s="319"/>
+      <c r="A20" s="314"/>
+      <c r="B20" s="293"/>
+      <c r="C20" s="295"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -39217,7 +39217,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="247"/>
       <c r="C21" s="248"/>
       <c r="D21" s="249" t="s">
@@ -39252,11 +39252,11 @@
       <c r="M21" s="245"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
-      <c r="B22" s="288" t="s">
+      <c r="A22" s="314"/>
+      <c r="B22" s="292" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="297" t="s">
+      <c r="C22" s="296" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="171" t="s">
@@ -39291,9 +39291,9 @@
       <c r="O22" s="166"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
-      <c r="B23" s="323"/>
-      <c r="C23" s="320"/>
+      <c r="A23" s="314"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="297"/>
       <c r="D23" s="171" t="s">
         <v>162</v>
       </c>
@@ -39324,9 +39324,9 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="312"/>
-      <c r="B24" s="323"/>
-      <c r="C24" s="297" t="s">
+      <c r="A24" s="314"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="296" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="171" t="s">
@@ -39359,9 +39359,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="312"/>
-      <c r="B25" s="323"/>
-      <c r="C25" s="320"/>
+      <c r="A25" s="314"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="297"/>
       <c r="D25" s="171" t="s">
         <v>162</v>
       </c>
@@ -39392,9 +39392,9 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="312"/>
-      <c r="B26" s="323"/>
-      <c r="C26" s="297" t="s">
+      <c r="A26" s="314"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="296" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="171" t="s">
@@ -39430,9 +39430,9 @@
       <c r="N26" s="165"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="312"/>
-      <c r="B27" s="323"/>
-      <c r="C27" s="320"/>
+      <c r="A27" s="314"/>
+      <c r="B27" s="300"/>
+      <c r="C27" s="297"/>
       <c r="D27" s="171" t="s">
         <v>162</v>
       </c>
@@ -39467,7 +39467,7 @@
       <c r="Q27" s="165"/>
     </row>
     <row r="28" spans="1:17" s="240" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="312"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="253"/>
       <c r="C28" s="248"/>
       <c r="D28" s="243" t="s">
@@ -39510,11 +39510,11 @@
       <c r="Q28" s="241"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="312"/>
-      <c r="B29" s="299" t="s">
+      <c r="A29" s="314"/>
+      <c r="B29" s="301" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="297" t="s">
+      <c r="C29" s="296" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="171" t="s">
@@ -39548,9 +39548,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="312"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="320"/>
+      <c r="A30" s="314"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="171" t="s">
         <v>210</v>
       </c>
@@ -39582,7 +39582,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="312"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="254"/>
       <c r="C31" s="255"/>
       <c r="D31" s="256" t="s">
@@ -39607,11 +39607,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="312"/>
-      <c r="B32" s="316" t="s">
+      <c r="A32" s="314"/>
+      <c r="B32" s="290" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="321" t="s">
+      <c r="C32" s="298" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -39644,9 +39644,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="312"/>
-      <c r="B33" s="317"/>
-      <c r="C33" s="322"/>
+      <c r="A33" s="314"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="299"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -39677,7 +39677,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="312"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="260"/>
       <c r="C34" s="261"/>
       <c r="D34" s="262" t="s">
@@ -39718,7 +39718,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="313"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
       <c r="D35" s="160"/>
@@ -39757,7 +39757,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="300" t="s">
+      <c r="A36" s="302" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
@@ -39792,7 +39792,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="301"/>
+      <c r="A37" s="303"/>
       <c r="B37" s="163"/>
       <c r="C37" s="164"/>
       <c r="D37" s="231"/>
@@ -39822,11 +39822,11 @@
     </row>
     <row r="38" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="314" t="s">
+      <c r="B38" s="288" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="314"/>
-      <c r="D38" s="315"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="289"/>
       <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
@@ -39945,22 +39945,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -39973,6 +39957,22 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39997,81 +39997,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="325" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="335" t="s">
+      <c r="B1" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="335" t="s">
+      <c r="C1" s="325" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="334" t="s">
+      <c r="D1" s="324" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="336" t="s">
+      <c r="E1" s="326" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="334" t="s">
+      <c r="F1" s="324" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="334" t="s">
+      <c r="G1" s="324" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="334" t="s">
+      <c r="H1" s="324" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="334" t="s">
+      <c r="I1" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="334" t="s">
+      <c r="J1" s="324" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334" t="s">
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
+      <c r="P1" s="324"/>
+      <c r="Q1" s="324"/>
+      <c r="R1" s="324"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="335"/>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334" t="s">
+      <c r="A2" s="325"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334" t="s">
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="335"/>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
+      <c r="A3" s="325"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
       <c r="J3" s="178">
         <v>4420</v>
       </c>
@@ -40101,35 +40101,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="327" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
-      <c r="N4" s="326"/>
-      <c r="O4" s="326"/>
-      <c r="P4" s="326"/>
-      <c r="Q4" s="326"/>
-      <c r="R4" s="327"/>
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="328"/>
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="328"/>
+      <c r="Q4" s="328"/>
+      <c r="R4" s="329"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="330" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="332">
+      <c r="B5" s="331">
         <v>44446</v>
       </c>
-      <c r="C5" s="333">
+      <c r="C5" s="332">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
@@ -40168,9 +40168,9 @@
       <c r="R5" s="180"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="328"/>
-      <c r="B6" s="332"/>
-      <c r="C6" s="333"/>
+      <c r="A6" s="330"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="332"/>
       <c r="D6" s="180" t="s">
         <v>94</v>
       </c>
@@ -40206,9 +40206,9 @@
       <c r="R6" s="180"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="328"/>
-      <c r="B7" s="332"/>
-      <c r="C7" s="333"/>
+      <c r="A7" s="330"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="332"/>
       <c r="D7" s="180" t="s">
         <v>103</v>
       </c>
@@ -40244,9 +40244,9 @@
       <c r="R7" s="180"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="328"/>
-      <c r="B8" s="332"/>
-      <c r="C8" s="333"/>
+      <c r="A8" s="330"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="332"/>
       <c r="D8" s="180" t="s">
         <v>95</v>
       </c>
@@ -40282,9 +40282,9 @@
       <c r="R8" s="180"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="328"/>
-      <c r="B9" s="332"/>
-      <c r="C9" s="333"/>
+      <c r="A9" s="330"/>
+      <c r="B9" s="331"/>
+      <c r="C9" s="332"/>
       <c r="D9" s="180" t="s">
         <v>87</v>
       </c>
@@ -40320,9 +40320,9 @@
       <c r="R9" s="180"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="328"/>
-      <c r="B10" s="332"/>
-      <c r="C10" s="333"/>
+      <c r="A10" s="330"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="332"/>
       <c r="D10" s="180" t="s">
         <v>91</v>
       </c>
@@ -40358,9 +40358,9 @@
       <c r="R10" s="180"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="328"/>
-      <c r="B11" s="332"/>
-      <c r="C11" s="333"/>
+      <c r="A11" s="330"/>
+      <c r="B11" s="331"/>
+      <c r="C11" s="332"/>
       <c r="D11" s="180" t="s">
         <v>90</v>
       </c>
@@ -40396,9 +40396,9 @@
       <c r="R11" s="180"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="328"/>
-      <c r="B12" s="332"/>
-      <c r="C12" s="333"/>
+      <c r="A12" s="330"/>
+      <c r="B12" s="331"/>
+      <c r="C12" s="332"/>
       <c r="D12" s="180" t="s">
         <v>106</v>
       </c>
@@ -40434,9 +40434,9 @@
       <c r="R12" s="180"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="328"/>
-      <c r="B13" s="332"/>
-      <c r="C13" s="333"/>
+      <c r="A13" s="330"/>
+      <c r="B13" s="331"/>
+      <c r="C13" s="332"/>
       <c r="D13" s="180" t="s">
         <v>100</v>
       </c>
@@ -40472,9 +40472,9 @@
       <c r="R13" s="180"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="328"/>
-      <c r="B14" s="332"/>
-      <c r="C14" s="333"/>
+      <c r="A14" s="330"/>
+      <c r="B14" s="331"/>
+      <c r="C14" s="332"/>
       <c r="D14" s="180" t="s">
         <v>181</v>
       </c>
@@ -40506,9 +40506,9 @@
       <c r="R14" s="180"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="328"/>
-      <c r="B15" s="332"/>
-      <c r="C15" s="333"/>
+      <c r="A15" s="330"/>
+      <c r="B15" s="331"/>
+      <c r="C15" s="332"/>
       <c r="D15" s="180" t="s">
         <v>182</v>
       </c>
@@ -40540,13 +40540,13 @@
       <c r="R15" s="180"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="328" t="s">
+      <c r="A16" s="330" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="332">
+      <c r="B16" s="331">
         <v>44446</v>
       </c>
-      <c r="C16" s="333">
+      <c r="C16" s="332">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
@@ -40585,9 +40585,9 @@
       <c r="R16" s="180"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="328"/>
-      <c r="B17" s="332"/>
-      <c r="C17" s="333"/>
+      <c r="A17" s="330"/>
+      <c r="B17" s="331"/>
+      <c r="C17" s="332"/>
       <c r="D17" s="180" t="s">
         <v>92</v>
       </c>
@@ -40623,9 +40623,9 @@
       <c r="R17" s="180"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="328"/>
-      <c r="B18" s="332"/>
-      <c r="C18" s="333"/>
+      <c r="A18" s="330"/>
+      <c r="B18" s="331"/>
+      <c r="C18" s="332"/>
       <c r="D18" s="180" t="s">
         <v>99</v>
       </c>
@@ -40661,9 +40661,9 @@
       <c r="R18" s="180"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="328"/>
-      <c r="B19" s="332"/>
-      <c r="C19" s="333"/>
+      <c r="A19" s="330"/>
+      <c r="B19" s="331"/>
+      <c r="C19" s="332"/>
       <c r="D19" s="180" t="s">
         <v>86</v>
       </c>
@@ -40699,9 +40699,9 @@
       <c r="R19" s="180"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="328"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="333"/>
+      <c r="A20" s="330"/>
+      <c r="B20" s="331"/>
+      <c r="C20" s="332"/>
       <c r="D20" s="180" t="s">
         <v>89</v>
       </c>
@@ -40737,9 +40737,9 @@
       <c r="R20" s="180"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="328"/>
-      <c r="B21" s="332"/>
-      <c r="C21" s="333"/>
+      <c r="A21" s="330"/>
+      <c r="B21" s="331"/>
+      <c r="C21" s="332"/>
       <c r="D21" s="180" t="s">
         <v>104</v>
       </c>
@@ -40775,9 +40775,9 @@
       <c r="R21" s="196"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="328"/>
-      <c r="B22" s="332"/>
-      <c r="C22" s="333"/>
+      <c r="A22" s="330"/>
+      <c r="B22" s="331"/>
+      <c r="C22" s="332"/>
       <c r="D22" s="180" t="s">
         <v>100</v>
       </c>
@@ -40813,9 +40813,9 @@
       <c r="R22" s="196"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="328"/>
-      <c r="B23" s="332"/>
-      <c r="C23" s="333"/>
+      <c r="A23" s="330"/>
+      <c r="B23" s="331"/>
+      <c r="C23" s="332"/>
       <c r="D23" s="180" t="s">
         <v>181</v>
       </c>
@@ -40847,9 +40847,9 @@
       <c r="R23" s="196"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="328"/>
-      <c r="B24" s="332"/>
-      <c r="C24" s="333"/>
+      <c r="A24" s="330"/>
+      <c r="B24" s="331"/>
+      <c r="C24" s="332"/>
       <c r="D24" s="180" t="s">
         <v>182</v>
       </c>
@@ -40925,35 +40925,35 @@
       <c r="R25" s="196"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="325" t="s">
+      <c r="A26" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="326"/>
-      <c r="C26" s="326"/>
-      <c r="D26" s="326"/>
-      <c r="E26" s="326"/>
-      <c r="F26" s="326"/>
-      <c r="G26" s="326"/>
-      <c r="H26" s="326"/>
-      <c r="I26" s="326"/>
-      <c r="J26" s="326"/>
-      <c r="K26" s="326"/>
-      <c r="L26" s="326"/>
-      <c r="M26" s="326"/>
-      <c r="N26" s="326"/>
-      <c r="O26" s="326"/>
-      <c r="P26" s="326"/>
-      <c r="Q26" s="326"/>
-      <c r="R26" s="327"/>
+      <c r="B26" s="328"/>
+      <c r="C26" s="328"/>
+      <c r="D26" s="328"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="328"/>
+      <c r="J26" s="328"/>
+      <c r="K26" s="328"/>
+      <c r="L26" s="328"/>
+      <c r="M26" s="328"/>
+      <c r="N26" s="328"/>
+      <c r="O26" s="328"/>
+      <c r="P26" s="328"/>
+      <c r="Q26" s="328"/>
+      <c r="R26" s="329"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="328" t="s">
+      <c r="A27" s="330" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="329">
+      <c r="B27" s="334">
         <v>44516</v>
       </c>
-      <c r="C27" s="330">
+      <c r="C27" s="335">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -40992,9 +40992,9 @@
       <c r="R27" s="196"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="328"/>
-      <c r="B28" s="329"/>
-      <c r="C28" s="331"/>
+      <c r="A28" s="330"/>
+      <c r="B28" s="334"/>
+      <c r="C28" s="336"/>
       <c r="D28" s="206" t="s">
         <v>119</v>
       </c>
@@ -41030,9 +41030,9 @@
       <c r="R28" s="196"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="328"/>
-      <c r="B29" s="329"/>
-      <c r="C29" s="331"/>
+      <c r="A29" s="330"/>
+      <c r="B29" s="334"/>
+      <c r="C29" s="336"/>
       <c r="D29" s="206" t="s">
         <v>117</v>
       </c>
@@ -41068,9 +41068,9 @@
       <c r="R29" s="196"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="328"/>
-      <c r="B30" s="329"/>
-      <c r="C30" s="331"/>
+      <c r="A30" s="330"/>
+      <c r="B30" s="334"/>
+      <c r="C30" s="336"/>
       <c r="D30" s="180" t="s">
         <v>111</v>
       </c>
@@ -41106,9 +41106,9 @@
       <c r="R30" s="196"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="328"/>
-      <c r="B31" s="329"/>
-      <c r="C31" s="331"/>
+      <c r="A31" s="330"/>
+      <c r="B31" s="334"/>
+      <c r="C31" s="336"/>
       <c r="D31" s="180" t="s">
         <v>181</v>
       </c>
@@ -41140,13 +41140,13 @@
       <c r="R31" s="196"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="328" t="s">
+      <c r="A32" s="330" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="329">
+      <c r="B32" s="334">
         <v>44516</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="335">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -41185,9 +41185,9 @@
       <c r="R32" s="196"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="328"/>
-      <c r="B33" s="329"/>
-      <c r="C33" s="331"/>
+      <c r="A33" s="330"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="336"/>
       <c r="D33" s="206" t="s">
         <v>114</v>
       </c>
@@ -41223,9 +41223,9 @@
       <c r="R33" s="196"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="328"/>
-      <c r="B34" s="329"/>
-      <c r="C34" s="331"/>
+      <c r="A34" s="330"/>
+      <c r="B34" s="334"/>
+      <c r="C34" s="336"/>
       <c r="D34" s="206" t="s">
         <v>113</v>
       </c>
@@ -41261,9 +41261,9 @@
       <c r="R34" s="196"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="328"/>
-      <c r="B35" s="329"/>
-      <c r="C35" s="331"/>
+      <c r="A35" s="330"/>
+      <c r="B35" s="334"/>
+      <c r="C35" s="336"/>
       <c r="D35" s="180" t="s">
         <v>181</v>
       </c>
@@ -41383,16 +41383,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="324" t="s">
+      <c r="A38" s="333" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="324"/>
-      <c r="C38" s="324"/>
-      <c r="D38" s="324"/>
-      <c r="E38" s="324"/>
-      <c r="F38" s="324"/>
-      <c r="G38" s="324"/>
-      <c r="H38" s="324"/>
+      <c r="B38" s="333"/>
+      <c r="C38" s="333"/>
+      <c r="D38" s="333"/>
+      <c r="E38" s="333"/>
+      <c r="F38" s="333"/>
+      <c r="G38" s="333"/>
+      <c r="H38" s="333"/>
       <c r="I38" s="198">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -41436,26 +41436,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -41464,6 +41444,26 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41491,71 +41491,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="325" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="335" t="s">
+      <c r="B1" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="335" t="s">
+      <c r="C1" s="325" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="334" t="s">
+      <c r="D1" s="324" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="336" t="s">
+      <c r="E1" s="326" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="334" t="s">
+      <c r="F1" s="324" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="334" t="s">
+      <c r="G1" s="324" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="334" t="s">
+      <c r="H1" s="324" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="334" t="s">
+      <c r="I1" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="334" t="s">
+      <c r="J1" s="324" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
     </row>
     <row r="2" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="335"/>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334" t="s">
+      <c r="A2" s="325"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
     </row>
     <row r="3" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="335"/>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
+      <c r="A3" s="325"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
       <c r="J3" s="178">
         <v>4428</v>
       </c>
@@ -41576,23 +41576,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="327" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
-      <c r="N4" s="326"/>
-      <c r="O4" s="327"/>
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="328"/>
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
+      <c r="O4" s="329"/>
     </row>
     <row r="5" spans="1:15" s="222" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="197" t="s">
@@ -41632,23 +41632,23 @@
       <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="325" t="s">
+      <c r="A6" s="327" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="326"/>
-      <c r="C6" s="326"/>
-      <c r="D6" s="326"/>
-      <c r="E6" s="326"/>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
-      <c r="L6" s="326"/>
-      <c r="M6" s="326"/>
-      <c r="N6" s="326"/>
-      <c r="O6" s="327"/>
+      <c r="B6" s="328"/>
+      <c r="C6" s="328"/>
+      <c r="D6" s="328"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="328"/>
+      <c r="M6" s="328"/>
+      <c r="N6" s="328"/>
+      <c r="O6" s="329"/>
     </row>
     <row r="7" spans="1:15" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="224"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\Urbact\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2093F7-BA2B-4E20-BF8F-CCE0CFCC56C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68A47E-D4CE-4105-A683-D0FFA8E17B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL BUDGET" sheetId="1" r:id="rId1"/>
     <sheet name="PP1" sheetId="3" r:id="rId2"/>
     <sheet name="Zbiorczy" sheetId="8" r:id="rId3"/>
     <sheet name="Budżet " sheetId="9" r:id="rId4"/>
-    <sheet name="Koszty I etap" sheetId="10" r:id="rId5"/>
-    <sheet name="Koszty II etap" sheetId="11" r:id="rId6"/>
+    <sheet name="Arkusz1" sheetId="12" r:id="rId5"/>
+    <sheet name="Koszty I etap" sheetId="10" r:id="rId6"/>
+    <sheet name="Koszty II etap" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -824,8 +825,178 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>QQ Factory</author>
+  </authors>
+  <commentList>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{707E1900-D4FF-4C09-B04E-16689F6298DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 20 na ubezpieczenia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{BD1B76C0-67CC-4BF5-BE16-75C140A6FC7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+- 60 przesunięcia na ubezpieczenia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{D3DC71C5-7297-4402-BA37-BCBD5ED07629}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+2520 bilety + 35 ubezpieczenie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{97AEAD4F-3516-4DA1-B39C-9F69E7021C36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+445 bilety + 7 ubezpieczenie
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{6D48FAF5-A1E3-4D65-84F0-2A48FF1005A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Przesunięte z 4420 60 zł, 4210 20 zł
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{6D490EC1-EAA5-452A-87C0-6A3896BFA6B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>QQ Factory:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Przesunięte z 4420 60 zł, 4210 20 zł</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -1530,6 +1701,84 @@
   <si>
     <t>UE / 4439</t>
   </si>
+  <si>
+    <t>MunicipalityofRzeszow–RzeszowCityOffice</t>
+  </si>
+  <si>
+    <t>Staffcosts</t>
+  </si>
+  <si>
+    <t>ProjectPartnerStaffCosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €  13,848.00 </t>
+  </si>
+  <si>
+    <t>OfficeandAdministration</t>
+  </si>
+  <si>
+    <t>ProjectPartnerOfficeandAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €       415.44 </t>
+  </si>
+  <si>
+    <t>TravelandAccommodation</t>
+  </si>
+  <si>
+    <t>StaffTravelandAccommodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €  17,600.00 </t>
+  </si>
+  <si>
+    <t>ExternalExpertiseandServices</t>
+  </si>
+  <si>
+    <t>ProjectPartnerExternalExpertiseProjectCoordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€  1,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €    2,000.00 </t>
+  </si>
+  <si>
+    <t>ExpertiseMeetingOrganisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€  3,000.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €    5,000.00 </t>
+  </si>
+  <si>
+    <t>ExpertiseCommunication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€  2,100.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €    3,600.00 </t>
+  </si>
+  <si>
+    <t>Expertandothernon-staffTravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€  1,200.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €    6,400.00 </t>
+  </si>
+  <si>
+    <t>ExpertiseFirstLevelControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €    1,000.00 </t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
 </sst>
 </file>
 
@@ -1544,7 +1793,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ &quot;zł&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0\ _z_ł"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1975,6 +2224,54 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -2182,7 +2479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2536,11 +2833,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3463,6 +3812,78 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="58" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="55" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="55" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="55" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="55" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="44" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="44" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="44" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="44" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="55" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3723,7 +4144,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -32171,7 +32592,7 @@
   </sheetPr>
   <dimension ref="A1:I1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -37807,7 +38228,7 @@
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38467,14 +38888,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="C24:M25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="128"/>
-    <col min="2" max="2" width="31.7109375" style="118" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="118" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" style="118" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="120" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="120" customWidth="1"/>
@@ -39981,6 +40402,331 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD879EEA-768D-4D43-BBC0-EAB7E89B4207}">
+  <dimension ref="C3:H59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" style="342" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="358">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="343" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="344"/>
+      <c r="D6" s="357"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="344"/>
+      <c r="D7" s="357"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="344"/>
+      <c r="D8" s="357"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="344"/>
+      <c r="D9" s="357"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="344"/>
+      <c r="D10" s="357"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="345"/>
+      <c r="D11" s="357"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="346"/>
+      <c r="D12" s="360"/>
+      <c r="F12" s="361"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="345"/>
+      <c r="D13" s="357"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="345"/>
+      <c r="D14" s="357"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="347"/>
+      <c r="D15" s="360"/>
+      <c r="F15" s="361"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="345"/>
+      <c r="D16" s="357"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="345"/>
+      <c r="D17" s="357"/>
+      <c r="E17" s="361" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="345"/>
+      <c r="D18" s="357"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="345"/>
+      <c r="D19" s="357"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="345"/>
+      <c r="D20" s="357"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="344"/>
+      <c r="D21" s="357"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="348"/>
+      <c r="D22" s="360"/>
+      <c r="F22" s="361"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="345"/>
+      <c r="D23" s="357"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="349"/>
+      <c r="D24" s="357"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="350"/>
+      <c r="D25" s="360"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="345"/>
+      <c r="D26" s="357"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="345"/>
+      <c r="D27" s="359"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="345"/>
+      <c r="D28" s="357"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="345"/>
+      <c r="D29" s="359"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="345"/>
+      <c r="D30" s="357"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="345"/>
+      <c r="D31" s="359"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="351"/>
+      <c r="D32" s="360"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="352"/>
+      <c r="D33" s="357"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="352"/>
+      <c r="D34" s="357"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="353"/>
+      <c r="D35" s="360"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="349"/>
+      <c r="D36" s="357"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="354"/>
+      <c r="D37" s="357"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="355"/>
+      <c r="D38" s="360"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="356"/>
+      <c r="D39" s="360"/>
+      <c r="F39" s="361"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="340"/>
+      <c r="D40" s="357"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="341"/>
+      <c r="D41" s="357"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="346"/>
+      <c r="D42" s="360"/>
+    </row>
+    <row r="51" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="362" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="363" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="363" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52">
+        <v>799.58</v>
+      </c>
+      <c r="H52" s="364" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="366" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="366" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53">
+        <v>238.24</v>
+      </c>
+      <c r="H53" s="367" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="366" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" s="366" t="s">
+        <v>219</v>
+      </c>
+      <c r="G54">
+        <v>1773.11</v>
+      </c>
+      <c r="H54" s="367" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="366" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="366" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="367" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="367" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="366" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="366" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="367" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="367" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="366" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="366" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="367" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="367" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="366" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="366" t="s">
+        <v>231</v>
+      </c>
+      <c r="G58" s="367" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="367" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="365" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="366" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="366" t="s">
+        <v>234</v>
+      </c>
+      <c r="G59" s="367" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" s="367" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
@@ -41469,7 +42215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
